--- a/conf/colleagereqs.xlsx
+++ b/conf/colleagereqs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\apps\jvm\automata-newentries\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95129032\Desktop\jvm\automata-newentries\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="89">
   <si>
     <t>مبانی کامپیوتر و برنامه سازی</t>
   </si>
@@ -158,42 +158,6 @@
     <t xml:space="preserve">کارگاه عمومی </t>
   </si>
   <si>
-    <t>دروس عمومی گروه معارف</t>
-  </si>
-  <si>
-    <t>آيين زندگي</t>
-  </si>
-  <si>
-    <t>تاريخ تحليلي صدر اسلام</t>
-  </si>
-  <si>
-    <t>تفسير موضوعي قرآن</t>
-  </si>
-  <si>
-    <t>تفسير موضوعي نهج البلاغه</t>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-7-8</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-7</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6</t>
-  </si>
-  <si>
-    <t>نام درس</t>
-  </si>
-  <si>
-    <t>کد</t>
-  </si>
-  <si>
-    <t>گروه های مختص دانشجویان جدید</t>
-  </si>
-  <si>
     <t>فارسي</t>
   </si>
   <si>
@@ -219,12 +183,6 @@
   </si>
   <si>
     <t>فقط گروه های 1-2-3</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>دانشکده های الویت دار</t>
   </si>
   <si>
     <r>
@@ -401,12 +359,24 @@
       <t>*</t>
     </r>
   </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>13,14,22</t>
+  </si>
+  <si>
+    <t>1,2,4,7,8,12,14,24</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,14 +404,6 @@
       <charset val="178"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="B Nazanin"/>
@@ -463,21 +425,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -673,41 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -797,11 +718,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,111 +853,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,26 +1215,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P173"/>
+  <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:XFD178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" x14ac:dyDescent="1"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.68359375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.41796875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.41796875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="26.15625" customWidth="1"/>
-    <col min="5" max="5" width="22.68359375" customWidth="1"/>
-    <col min="6" max="6" width="26.68359375" customWidth="1"/>
-    <col min="7" max="7" width="37.15625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.15625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="52" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -1333,12 +1249,15 @@
         <v>1</v>
       </c>
       <c r="F1" s="33"/>
-      <c r="G1" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A2" s="64"/>
+      <c r="G1" s="33">
+        <v>19</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75">
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1352,10 +1271,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="34"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A3" s="64"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75">
+      <c r="A3" s="53"/>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1369,10 +1289,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="34"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A4" s="64"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75">
+      <c r="A4" s="53"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1386,10 +1307,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A5" s="64"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75">
+      <c r="A5" s="53"/>
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1403,10 +1325,11 @@
         <v>2</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A6" s="64"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75">
+      <c r="A6" s="53"/>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1420,10 +1343,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="34"/>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A7" s="64"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75">
+      <c r="A7" s="53"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1435,10 +1359,11 @@
         <v>3</v>
       </c>
       <c r="F7" s="34"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A8" s="65"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A8" s="54"/>
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1452,10 +1377,11 @@
         <v>2</v>
       </c>
       <c r="F8" s="35"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A9" s="63" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75">
+      <c r="A9" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1473,12 +1399,15 @@
       <c r="F9" s="33">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A10" s="64"/>
+      <c r="G9" s="33">
+        <v>4</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75">
+      <c r="A10" s="53"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1494,10 +1423,11 @@
       <c r="F10" s="34">
         <v>1</v>
       </c>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A11" s="64"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75">
+      <c r="A11" s="53"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1513,10 +1443,11 @@
       <c r="F11" s="34">
         <v>1</v>
       </c>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A12" s="64"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75">
+      <c r="A12" s="53"/>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1532,10 +1463,11 @@
       <c r="F12" s="34">
         <v>1</v>
       </c>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A13" s="64"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75">
+      <c r="A13" s="53"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1551,10 +1483,11 @@
       <c r="F13" s="34">
         <v>3</v>
       </c>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A14" s="64"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75">
+      <c r="A14" s="53"/>
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1570,10 +1503,11 @@
       <c r="F14" s="34">
         <v>3</v>
       </c>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A15" s="64"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75">
+      <c r="A15" s="53"/>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
@@ -1589,10 +1523,11 @@
       <c r="F15" s="34">
         <v>1</v>
       </c>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A16" s="64"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75">
+      <c r="A16" s="53"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1606,10 +1541,11 @@
       <c r="F16" s="34">
         <v>2</v>
       </c>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A17" s="65"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A17" s="54"/>
       <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
@@ -1625,11 +1561,12 @@
       <c r="F17" s="35">
         <v>3</v>
       </c>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A18" s="63" t="s">
-        <v>68</v>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75">
+      <c r="A18" s="52" t="s">
+        <v>54</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>41</v>
@@ -1646,12 +1583,15 @@
       <c r="F18" s="33">
         <v>1</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A19" s="64"/>
+      <c r="G18" s="33">
+        <v>12</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75">
+      <c r="A19" s="53"/>
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1667,10 +1607,11 @@
       <c r="F19" s="34">
         <v>2</v>
       </c>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A20" s="64"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75">
+      <c r="A20" s="53"/>
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1686,12 +1627,15 @@
       <c r="F20" s="34">
         <v>1</v>
       </c>
-      <c r="G20" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A21" s="64"/>
+      <c r="G20" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75">
+      <c r="A21" s="53"/>
       <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
@@ -1707,10 +1651,11 @@
       <c r="F21" s="34">
         <v>3</v>
       </c>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A22" s="64"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75">
+      <c r="A22" s="53"/>
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1726,12 +1671,15 @@
       <c r="F22" s="34">
         <v>1</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A23" s="64"/>
+      <c r="G22" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75">
+      <c r="A23" s="53"/>
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1747,10 +1695,11 @@
       <c r="F23" s="34">
         <v>1</v>
       </c>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A24" s="64"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75">
+      <c r="A24" s="53"/>
       <c r="B24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1766,10 +1715,11 @@
       <c r="F24" s="34">
         <v>3</v>
       </c>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A25" s="64"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75">
+      <c r="A25" s="53"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1785,10 +1735,11 @@
       <c r="F25" s="34">
         <v>3</v>
       </c>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A26" s="65"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A26" s="54"/>
       <c r="B26" s="23" t="s">
         <v>29</v>
       </c>
@@ -1802,10 +1753,11 @@
       <c r="F26" s="35">
         <v>2</v>
       </c>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A27" s="63" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75">
+      <c r="A27" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -1823,10 +1775,11 @@
       <c r="F27" s="33">
         <v>1</v>
       </c>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A28" s="64"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="36"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75">
+      <c r="A28" s="53"/>
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1842,10 +1795,11 @@
       <c r="F28" s="34">
         <v>1</v>
       </c>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A29" s="64"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75">
+      <c r="A29" s="53"/>
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
@@ -1861,10 +1815,11 @@
       <c r="F29" s="34">
         <v>2</v>
       </c>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A30" s="64"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75">
+      <c r="A30" s="53"/>
       <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
@@ -1880,10 +1835,11 @@
       <c r="F30" s="34">
         <v>2</v>
       </c>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A31" s="64"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75">
+      <c r="A31" s="53"/>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1899,10 +1855,11 @@
       <c r="F31" s="34">
         <v>2</v>
       </c>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A32" s="64"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75">
+      <c r="A32" s="53"/>
       <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1918,10 +1875,11 @@
       <c r="F32" s="34">
         <v>3</v>
       </c>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A33" s="64"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75">
+      <c r="A33" s="53"/>
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1937,10 +1895,11 @@
       <c r="F33" s="34">
         <v>2</v>
       </c>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A34" s="64"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75">
+      <c r="A34" s="53"/>
       <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
@@ -1956,10 +1915,11 @@
       <c r="F34" s="34">
         <v>3</v>
       </c>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A35" s="65"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A35" s="54"/>
       <c r="B35" s="27" t="s">
         <v>20</v>
       </c>
@@ -1973,11 +1933,12 @@
       <c r="F35" s="35">
         <v>2</v>
       </c>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A36" s="63" t="s">
-        <v>67</v>
+      <c r="G35" s="35"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75">
+      <c r="A36" s="52" t="s">
+        <v>53</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>16</v>
@@ -1994,10 +1955,11 @@
       <c r="F36" s="33">
         <v>1</v>
       </c>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="1">
-      <c r="A37" s="64"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" spans="1:8" ht="36">
+      <c r="A37" s="53"/>
       <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2013,12 +1975,15 @@
       <c r="F37" s="34">
         <v>1</v>
       </c>
-      <c r="G37" s="39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A38" s="64"/>
+      <c r="G37" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18.75">
+      <c r="A38" s="53"/>
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -2034,10 +1999,11 @@
       <c r="F38" s="34">
         <v>1</v>
       </c>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A39" s="64"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="37"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75">
+      <c r="A39" s="53"/>
       <c r="B39" s="6" t="s">
         <v>27</v>
       </c>
@@ -2053,10 +2019,11 @@
       <c r="F39" s="34">
         <v>1</v>
       </c>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A40" s="64"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="37"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75">
+      <c r="A40" s="53"/>
       <c r="B40" s="10" t="s">
         <v>26</v>
       </c>
@@ -2072,10 +2039,11 @@
       <c r="F40" s="34">
         <v>1</v>
       </c>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A41" s="64"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="37"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75">
+      <c r="A41" s="53"/>
       <c r="B41" s="6" t="s">
         <v>14</v>
       </c>
@@ -2091,10 +2059,11 @@
       <c r="F41" s="34">
         <v>3</v>
       </c>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A42" s="64"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="37"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75">
+      <c r="A42" s="53"/>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2110,10 +2079,11 @@
       <c r="F42" s="34">
         <v>3</v>
       </c>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A43" s="65"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="37"/>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A43" s="54"/>
       <c r="B43" s="28" t="s">
         <v>15</v>
       </c>
@@ -2127,11 +2097,12 @@
       <c r="F43" s="35">
         <v>2</v>
       </c>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A44" s="63" t="s">
-        <v>69</v>
+      <c r="G43" s="35"/>
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75">
+      <c r="A44" s="52" t="s">
+        <v>55</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>9</v>
@@ -2148,10 +2119,11 @@
       <c r="F44" s="33">
         <v>1</v>
       </c>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A45" s="64"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="36"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75">
+      <c r="A45" s="53"/>
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
@@ -2167,10 +2139,11 @@
       <c r="F45" s="34">
         <v>1</v>
       </c>
-      <c r="G45" s="37"/>
-    </row>
-    <row r="46" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A46" s="64"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="37"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75">
+      <c r="A46" s="53"/>
       <c r="B46" s="6" t="s">
         <v>11</v>
       </c>
@@ -2186,10 +2159,11 @@
       <c r="F46" s="34">
         <v>1</v>
       </c>
-      <c r="G46" s="37"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A47" s="64"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="37"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.75">
+      <c r="A47" s="53"/>
       <c r="B47" s="6" t="s">
         <v>12</v>
       </c>
@@ -2205,10 +2179,11 @@
       <c r="F47" s="34">
         <v>1</v>
       </c>
-      <c r="G47" s="37"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.3" x14ac:dyDescent="1">
-      <c r="A48" s="64"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:8" ht="18.75">
+      <c r="A48" s="53"/>
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
@@ -2224,10 +2199,11 @@
       <c r="F48" s="34">
         <v>2</v>
       </c>
-      <c r="G48" s="37"/>
-    </row>
-    <row r="49" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A49" s="64"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="1:16" ht="18.75">
+      <c r="A49" s="53"/>
       <c r="B49" s="6" t="s">
         <v>35</v>
       </c>
@@ -2243,10 +2219,11 @@
       <c r="F49" s="34">
         <v>3</v>
       </c>
-      <c r="G49" s="37"/>
-    </row>
-    <row r="50" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A50" s="64"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="1:16" ht="18.75">
+      <c r="A50" s="53"/>
       <c r="B50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2262,10 +2239,11 @@
       <c r="F50" s="34">
         <v>1</v>
       </c>
-      <c r="G50" s="37"/>
-    </row>
-    <row r="51" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A51" s="65"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A51" s="54"/>
       <c r="B51" s="17" t="s">
         <v>5</v>
       </c>
@@ -2281,10 +2259,11 @@
       <c r="F51" s="35">
         <v>2</v>
       </c>
-      <c r="G51" s="38"/>
-    </row>
-    <row r="52" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A52" s="63" t="s">
+      <c r="G51" s="35"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:16" ht="18.75">
+      <c r="A52" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -2302,10 +2281,11 @@
       <c r="F52" s="33">
         <v>1</v>
       </c>
-      <c r="G52" s="36"/>
-    </row>
-    <row r="53" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A53" s="64"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="36"/>
+    </row>
+    <row r="53" spans="1:16" ht="18.75">
+      <c r="A53" s="53"/>
       <c r="B53" s="10" t="s">
         <v>3</v>
       </c>
@@ -2321,10 +2301,11 @@
       <c r="F53" s="34">
         <v>1</v>
       </c>
-      <c r="G53" s="37"/>
-    </row>
-    <row r="54" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A54" s="64"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="1:16" ht="18.75">
+      <c r="A54" s="53"/>
       <c r="B54" s="6" t="s">
         <v>27</v>
       </c>
@@ -2340,10 +2321,11 @@
       <c r="F54" s="34">
         <v>1</v>
       </c>
-      <c r="G54" s="37"/>
-    </row>
-    <row r="55" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A55" s="64"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="37"/>
+    </row>
+    <row r="55" spans="1:16" ht="18.75">
+      <c r="A55" s="53"/>
       <c r="B55" s="6" t="s">
         <v>35</v>
       </c>
@@ -2359,10 +2341,11 @@
       <c r="F55" s="34">
         <v>3</v>
       </c>
-      <c r="G55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A56" s="64"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="37"/>
+    </row>
+    <row r="56" spans="1:16" ht="18.75">
+      <c r="A56" s="53"/>
       <c r="B56" s="11" t="s">
         <v>39</v>
       </c>
@@ -2378,10 +2361,11 @@
       <c r="F56" s="34">
         <v>1</v>
       </c>
-      <c r="G56" s="37"/>
-    </row>
-    <row r="57" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A57" s="64"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="37"/>
+    </row>
+    <row r="57" spans="1:16" ht="18.75">
+      <c r="A57" s="53"/>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2397,10 +2381,11 @@
       <c r="F57" s="34">
         <v>3</v>
       </c>
-      <c r="G57" s="37"/>
-    </row>
-    <row r="58" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A58" s="64"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="37"/>
+    </row>
+    <row r="58" spans="1:16" ht="18.75">
+      <c r="A58" s="53"/>
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -2416,10 +2401,11 @@
       <c r="F58" s="34">
         <v>3</v>
       </c>
-      <c r="G58" s="37"/>
-    </row>
-    <row r="59" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A59" s="64"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="37"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.75">
+      <c r="A59" s="53"/>
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -2433,10 +2419,11 @@
       <c r="F59" s="34">
         <v>2</v>
       </c>
-      <c r="G59" s="37"/>
-    </row>
-    <row r="60" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A60" s="65"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="37"/>
+    </row>
+    <row r="60" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A60" s="54"/>
       <c r="B60" s="23" t="s">
         <v>40</v>
       </c>
@@ -2452,11 +2439,12 @@
       <c r="F60" s="35">
         <v>1</v>
       </c>
-      <c r="G60" s="38"/>
-    </row>
-    <row r="61" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="1">
-      <c r="A61" s="63" t="s">
-        <v>70</v>
+      <c r="G60" s="35"/>
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="1:16" ht="27" customHeight="1">
+      <c r="A61" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>0</v>
@@ -2473,20 +2461,21 @@
       <c r="F61" s="33">
         <v>1</v>
       </c>
-      <c r="G61" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
-    </row>
-    <row r="62" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="1">
-      <c r="A62" s="64"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+    </row>
+    <row r="62" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A62" s="53"/>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
@@ -2502,18 +2491,19 @@
       <c r="F62" s="34">
         <v>1</v>
       </c>
-      <c r="G62" s="69"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-    </row>
-    <row r="63" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A63" s="64"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+    </row>
+    <row r="63" spans="1:16" ht="18.75">
+      <c r="A63" s="53"/>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
@@ -2529,18 +2519,19 @@
       <c r="F63" s="34">
         <v>1</v>
       </c>
-      <c r="G63" s="37"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
-    </row>
-    <row r="64" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A64" s="64"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+    </row>
+    <row r="64" spans="1:16" ht="18.75">
+      <c r="A64" s="53"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -2556,20 +2547,21 @@
       <c r="F64" s="34">
         <v>1</v>
       </c>
-      <c r="G64" s="37"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
-    </row>
-    <row r="65" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A65" s="64"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+    </row>
+    <row r="65" spans="1:16" ht="18.75">
+      <c r="A65" s="53"/>
       <c r="B65" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C65" s="1">
         <v>1051203</v>
@@ -2583,18 +2575,19 @@
       <c r="F65" s="34">
         <v>2</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
-    </row>
-    <row r="66" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A66" s="64"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+    </row>
+    <row r="66" spans="1:16" ht="18.75">
+      <c r="A66" s="53"/>
       <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
@@ -2610,18 +2603,19 @@
       <c r="F66" s="34">
         <v>3</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
-    </row>
-    <row r="67" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A67" s="64"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+    </row>
+    <row r="67" spans="1:16" ht="18.75">
+      <c r="A67" s="53"/>
       <c r="B67" s="10" t="s">
         <v>22</v>
       </c>
@@ -2635,18 +2629,19 @@
       <c r="F67" s="34">
         <v>2</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-    </row>
-    <row r="68" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A68" s="64"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+    </row>
+    <row r="68" spans="1:16" ht="18.75">
+      <c r="A68" s="53"/>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
@@ -2662,18 +2657,19 @@
       <c r="F68" s="34">
         <v>3</v>
       </c>
-      <c r="G68" s="37"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-    </row>
-    <row r="69" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A69" s="65"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+    </row>
+    <row r="69" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A69" s="54"/>
       <c r="B69" s="31" t="s">
         <v>43</v>
       </c>
@@ -2689,18 +2685,19 @@
       <c r="F69" s="35">
         <v>3</v>
       </c>
-      <c r="G69" s="38"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
-    </row>
-    <row r="70" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A70" s="63" t="s">
+      <c r="G69" s="35"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+    </row>
+    <row r="70" spans="1:16" ht="18.75">
+      <c r="A70" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="25" t="s">
@@ -2718,18 +2715,19 @@
       <c r="F70" s="33">
         <v>1</v>
       </c>
-      <c r="G70" s="36"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="48"/>
-      <c r="P70" s="48"/>
-    </row>
-    <row r="71" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A71" s="64"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+    </row>
+    <row r="71" spans="1:16" ht="18.75">
+      <c r="A71" s="53"/>
       <c r="B71" s="10" t="s">
         <v>3</v>
       </c>
@@ -2745,18 +2743,19 @@
       <c r="F71" s="34">
         <v>1</v>
       </c>
-      <c r="G71" s="37"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="48"/>
-      <c r="P71" s="48"/>
-    </row>
-    <row r="72" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A72" s="64"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+    </row>
+    <row r="72" spans="1:16" ht="18.75">
+      <c r="A72" s="53"/>
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
@@ -2772,18 +2771,19 @@
       <c r="F72" s="34">
         <v>3</v>
       </c>
-      <c r="G72" s="37"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
-    </row>
-    <row r="73" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A73" s="64"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+    </row>
+    <row r="73" spans="1:16" ht="18.75">
+      <c r="A73" s="53"/>
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2797,18 +2797,19 @@
       <c r="F73" s="34">
         <v>2</v>
       </c>
-      <c r="G73" s="37"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="48"/>
-      <c r="P73" s="48"/>
-    </row>
-    <row r="74" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A74" s="64"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+    </row>
+    <row r="74" spans="1:16" ht="18.75">
+      <c r="A74" s="53"/>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -2824,18 +2825,19 @@
       <c r="F74" s="34">
         <v>3</v>
       </c>
-      <c r="G74" s="37"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="48"/>
-      <c r="P74" s="48"/>
-    </row>
-    <row r="75" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A75" s="64"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+    </row>
+    <row r="75" spans="1:16" ht="18.75">
+      <c r="A75" s="53"/>
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -2851,18 +2853,19 @@
       <c r="F75" s="34">
         <v>1</v>
       </c>
-      <c r="G75" s="37"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="48"/>
-      <c r="P75" s="48"/>
-    </row>
-    <row r="76" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A76" s="64"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+    </row>
+    <row r="76" spans="1:16" ht="18.75">
+      <c r="A76" s="53"/>
       <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
@@ -2878,18 +2881,19 @@
       <c r="F76" s="34">
         <v>1</v>
       </c>
-      <c r="G76" s="37"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="48"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="48"/>
-      <c r="P76" s="48"/>
-    </row>
-    <row r="77" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A77" s="65"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+    </row>
+    <row r="77" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A77" s="54"/>
       <c r="B77" s="27" t="s">
         <v>33</v>
       </c>
@@ -2905,39 +2909,43 @@
       <c r="F77" s="35">
         <v>1</v>
       </c>
-      <c r="G77" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="48"/>
-      <c r="N77" s="48"/>
-      <c r="O77" s="48"/>
-      <c r="P77" s="48"/>
-    </row>
-    <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A78" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="55">
+      <c r="G77" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+    </row>
+    <row r="78" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A78" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="47">
         <v>1011053</v>
       </c>
-      <c r="D78" s="56" t="s">
+      <c r="D78" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="52">
-        <v>1</v>
-      </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="57"/>
-    </row>
-    <row r="79" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A79" s="61"/>
+      <c r="E78" s="44">
+        <v>1</v>
+      </c>
+      <c r="F78" s="44"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="49"/>
+    </row>
+    <row r="79" spans="1:16" ht="18.75">
+      <c r="A79" s="62"/>
       <c r="B79" s="10" t="s">
         <v>3</v>
       </c>
@@ -2947,14 +2955,15 @@
       <c r="D79" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="52">
-        <v>1</v>
-      </c>
-      <c r="F79" s="53"/>
-      <c r="G79" s="49"/>
-    </row>
-    <row r="80" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A80" s="61"/>
+      <c r="E79" s="44">
+        <v>1</v>
+      </c>
+      <c r="F79" s="45"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="41"/>
+    </row>
+    <row r="80" spans="1:16" ht="18.75">
+      <c r="A80" s="62"/>
       <c r="B80" s="10" t="s">
         <v>0</v>
       </c>
@@ -2968,12 +2977,13 @@
         <v>1</v>
       </c>
       <c r="F80" s="34"/>
-      <c r="G80" s="49"/>
-    </row>
-    <row r="81" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A81" s="61"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="41"/>
+    </row>
+    <row r="81" spans="1:8" ht="18.75">
+      <c r="A81" s="62"/>
       <c r="B81" s="10" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C81" s="7">
         <v>1218281</v>
@@ -2985,10 +2995,11 @@
         <v>1</v>
       </c>
       <c r="F81" s="34"/>
-      <c r="G81" s="49"/>
-    </row>
-    <row r="82" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A82" s="61"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="41"/>
+    </row>
+    <row r="82" spans="1:8" ht="18.75">
+      <c r="A82" s="62"/>
       <c r="B82" s="2" t="s">
         <v>31</v>
       </c>
@@ -3002,10 +3013,11 @@
         <v>3</v>
       </c>
       <c r="F82" s="34"/>
-      <c r="G82" s="49"/>
-    </row>
-    <row r="83" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A83" s="61"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="41"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.75">
+      <c r="A83" s="62"/>
       <c r="B83" s="10" t="s">
         <v>19</v>
       </c>
@@ -3019,10 +3031,11 @@
         <v>2</v>
       </c>
       <c r="F83" s="34"/>
-      <c r="G83" s="49"/>
-    </row>
-    <row r="84" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A84" s="61"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="41"/>
+    </row>
+    <row r="84" spans="1:8" ht="18.75">
+      <c r="A84" s="62"/>
       <c r="B84" s="10" t="s">
         <v>5</v>
       </c>
@@ -3036,10 +3049,11 @@
         <v>3</v>
       </c>
       <c r="F84" s="34"/>
-      <c r="G84" s="49"/>
-    </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A85" s="61"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="41"/>
+    </row>
+    <row r="85" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A85" s="62"/>
       <c r="B85" s="10" t="s">
         <v>24</v>
       </c>
@@ -3051,11 +3065,12 @@
         <v>2</v>
       </c>
       <c r="F85" s="34"/>
-      <c r="G85" s="49"/>
-    </row>
-    <row r="86" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A86" s="61" t="s">
-        <v>94</v>
+      <c r="G85" s="51"/>
+      <c r="H85" s="41"/>
+    </row>
+    <row r="86" spans="1:8" ht="18.75">
+      <c r="A86" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>2</v>
@@ -3072,10 +3087,11 @@
       <c r="F86" s="34">
         <v>1</v>
       </c>
-      <c r="G86" s="49"/>
-    </row>
-    <row r="87" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A87" s="61"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="41"/>
+    </row>
+    <row r="87" spans="1:8" ht="18.75">
+      <c r="A87" s="62"/>
       <c r="B87" s="10" t="s">
         <v>3</v>
       </c>
@@ -3091,10 +3107,11 @@
       <c r="F87" s="34">
         <v>1</v>
       </c>
-      <c r="G87" s="49"/>
-    </row>
-    <row r="88" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A88" s="61"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="41"/>
+    </row>
+    <row r="88" spans="1:8" ht="18.75">
+      <c r="A88" s="62"/>
       <c r="B88" s="10" t="s">
         <v>0</v>
       </c>
@@ -3110,12 +3127,13 @@
       <c r="F88" s="34">
         <v>1</v>
       </c>
-      <c r="G88" s="49"/>
-    </row>
-    <row r="89" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A89" s="61"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="41"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.75">
+      <c r="A89" s="62"/>
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C89" s="1">
         <v>1218281</v>
@@ -3129,10 +3147,11 @@
       <c r="F89" s="34">
         <v>1</v>
       </c>
-      <c r="G89" s="49"/>
-    </row>
-    <row r="90" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A90" s="61"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="41"/>
+    </row>
+    <row r="90" spans="1:8" ht="18.75">
+      <c r="A90" s="62"/>
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -3148,10 +3167,11 @@
       <c r="F90" s="34">
         <v>3</v>
       </c>
-      <c r="G90" s="49"/>
-    </row>
-    <row r="91" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A91" s="61"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="41"/>
+    </row>
+    <row r="91" spans="1:8" ht="18.75">
+      <c r="A91" s="62"/>
       <c r="B91" s="10" t="s">
         <v>19</v>
       </c>
@@ -3167,10 +3187,11 @@
       <c r="F91" s="34">
         <v>2</v>
       </c>
-      <c r="G91" s="49"/>
-    </row>
-    <row r="92" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A92" s="61"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="41"/>
+    </row>
+    <row r="92" spans="1:8" ht="18.75">
+      <c r="A92" s="62"/>
       <c r="B92" s="10" t="s">
         <v>5</v>
       </c>
@@ -3186,10 +3207,11 @@
       <c r="F92" s="34">
         <v>3</v>
       </c>
-      <c r="G92" s="49"/>
-    </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A93" s="61"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="41"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A93" s="62"/>
       <c r="B93" s="10" t="s">
         <v>24</v>
       </c>
@@ -3203,11 +3225,12 @@
       <c r="F93" s="34">
         <v>2</v>
       </c>
-      <c r="G93" s="49"/>
-    </row>
-    <row r="94" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A94" s="61" t="s">
-        <v>96</v>
+      <c r="G93" s="51"/>
+      <c r="H93" s="41"/>
+    </row>
+    <row r="94" spans="1:8" ht="18.75">
+      <c r="A94" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>2</v>
@@ -3224,10 +3247,11 @@
       <c r="F94" s="34">
         <v>1</v>
       </c>
-      <c r="G94" s="49"/>
-    </row>
-    <row r="95" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A95" s="61"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="41"/>
+    </row>
+    <row r="95" spans="1:8" ht="18.75">
+      <c r="A95" s="62"/>
       <c r="B95" s="10" t="s">
         <v>3</v>
       </c>
@@ -3243,12 +3267,13 @@
       <c r="F95" s="34">
         <v>1</v>
       </c>
-      <c r="G95" s="49"/>
-    </row>
-    <row r="96" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A96" s="61"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="41"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.75">
+      <c r="A96" s="62"/>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C96" s="1">
         <v>1021353</v>
@@ -3262,10 +3287,11 @@
       <c r="F96" s="34">
         <v>1</v>
       </c>
-      <c r="G96" s="49"/>
-    </row>
-    <row r="97" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A97" s="61"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="41"/>
+    </row>
+    <row r="97" spans="1:8" ht="18.75">
+      <c r="A97" s="62"/>
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
@@ -3281,12 +3307,13 @@
       <c r="F97" s="34">
         <v>1</v>
       </c>
-      <c r="G97" s="49"/>
-    </row>
-    <row r="98" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A98" s="61"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="41"/>
+    </row>
+    <row r="98" spans="1:8" ht="18.75">
+      <c r="A98" s="62"/>
       <c r="B98" s="10" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C98" s="7">
         <v>2302511</v>
@@ -3300,10 +3327,11 @@
       <c r="F98" s="34">
         <v>1</v>
       </c>
-      <c r="G98" s="49"/>
-    </row>
-    <row r="99" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A99" s="61"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="41"/>
+    </row>
+    <row r="99" spans="1:8" ht="18.75">
+      <c r="A99" s="62"/>
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -3319,10 +3347,11 @@
       <c r="F99" s="34">
         <v>3</v>
       </c>
-      <c r="G99" s="49"/>
-    </row>
-    <row r="100" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A100" s="61"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="41"/>
+    </row>
+    <row r="100" spans="1:8" ht="18.75">
+      <c r="A100" s="62"/>
       <c r="B100" s="10" t="s">
         <v>31</v>
       </c>
@@ -3338,10 +3367,11 @@
       <c r="F100" s="34">
         <v>3</v>
       </c>
-      <c r="G100" s="49"/>
-    </row>
-    <row r="101" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A101" s="61"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="41"/>
+    </row>
+    <row r="101" spans="1:8" ht="18.75">
+      <c r="A101" s="62"/>
       <c r="B101" s="10" t="s">
         <v>24</v>
       </c>
@@ -3355,11 +3385,12 @@
       <c r="F101" s="34">
         <v>2</v>
       </c>
-      <c r="G101" s="49"/>
-    </row>
-    <row r="102" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A102" s="72" t="s">
-        <v>97</v>
+      <c r="G101" s="51"/>
+      <c r="H101" s="41"/>
+    </row>
+    <row r="102" spans="1:8" ht="18.75">
+      <c r="A102" s="59" t="s">
+        <v>83</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>2</v>
@@ -3376,10 +3407,11 @@
       <c r="F102" s="34">
         <v>1</v>
       </c>
-      <c r="G102" s="49"/>
-    </row>
-    <row r="103" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A103" s="73"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="41"/>
+    </row>
+    <row r="103" spans="1:8" ht="18.75">
+      <c r="A103" s="60"/>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
@@ -3395,12 +3427,13 @@
       <c r="F103" s="34">
         <v>1</v>
       </c>
-      <c r="G103" s="49"/>
-    </row>
-    <row r="104" spans="1:7" ht="34.5" x14ac:dyDescent="1.05">
-      <c r="A104" s="73"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="41"/>
+    </row>
+    <row r="104" spans="1:8" ht="36">
+      <c r="A104" s="60"/>
       <c r="B104" s="10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C104" s="7">
         <v>2405032</v>
@@ -3414,14 +3447,15 @@
       <c r="F104" s="34">
         <v>1</v>
       </c>
-      <c r="G104" s="50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A105" s="73"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="18.75">
+      <c r="A105" s="60"/>
       <c r="B105" s="10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C105" s="7">
         <v>2401192</v>
@@ -3435,12 +3469,13 @@
       <c r="F105" s="34">
         <v>1</v>
       </c>
-      <c r="G105" s="49"/>
-    </row>
-    <row r="106" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A106" s="73"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="41"/>
+    </row>
+    <row r="106" spans="1:8" ht="18.75">
+      <c r="A106" s="60"/>
       <c r="B106" s="10" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C106" s="7">
         <v>2400032</v>
@@ -3454,10 +3489,11 @@
       <c r="F106" s="34">
         <v>1</v>
       </c>
-      <c r="G106" s="49"/>
-    </row>
-    <row r="107" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A107" s="73"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="41"/>
+    </row>
+    <row r="107" spans="1:8" ht="18.75">
+      <c r="A107" s="60"/>
       <c r="B107" s="10" t="s">
         <v>14</v>
       </c>
@@ -3473,10 +3509,11 @@
       <c r="F107" s="34">
         <v>2</v>
       </c>
-      <c r="G107" s="49"/>
-    </row>
-    <row r="108" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A108" s="73"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="41"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.75">
+      <c r="A108" s="60"/>
       <c r="B108" s="10" t="s">
         <v>31</v>
       </c>
@@ -3492,10 +3529,11 @@
       <c r="F108" s="34">
         <v>3</v>
       </c>
-      <c r="G108" s="49"/>
-    </row>
-    <row r="109" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A109" s="73"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="41"/>
+    </row>
+    <row r="109" spans="1:8" ht="18.75">
+      <c r="A109" s="60"/>
       <c r="B109" s="10" t="s">
         <v>5</v>
       </c>
@@ -3511,10 +3549,11 @@
       <c r="F109" s="34">
         <v>3</v>
       </c>
-      <c r="G109" s="49"/>
-    </row>
-    <row r="110" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A110" s="73"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="41"/>
+    </row>
+    <row r="110" spans="1:8" ht="18.75">
+      <c r="A110" s="60"/>
       <c r="B110" s="10" t="s">
         <v>19</v>
       </c>
@@ -3530,10 +3569,11 @@
       <c r="F110" s="34">
         <v>2</v>
       </c>
-      <c r="G110" s="49"/>
-    </row>
-    <row r="111" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A111" s="74"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="41"/>
+    </row>
+    <row r="111" spans="1:8" ht="18.75">
+      <c r="A111" s="61"/>
       <c r="B111" s="10" t="s">
         <v>24</v>
       </c>
@@ -3547,11 +3587,12 @@
       <c r="F111" s="34">
         <v>3</v>
       </c>
-      <c r="G111" s="49"/>
-    </row>
-    <row r="112" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A112" s="72" t="s">
-        <v>86</v>
+      <c r="G111" s="51"/>
+      <c r="H111" s="41"/>
+    </row>
+    <row r="112" spans="1:8" ht="18.75">
+      <c r="A112" s="59" t="s">
+        <v>72</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>2</v>
@@ -3566,10 +3607,11 @@
         <v>1</v>
       </c>
       <c r="F112" s="34"/>
-      <c r="G112" s="49"/>
-    </row>
-    <row r="113" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A113" s="73"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="41"/>
+    </row>
+    <row r="113" spans="1:8" ht="18.75">
+      <c r="A113" s="60"/>
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
@@ -3583,10 +3625,11 @@
         <v>1</v>
       </c>
       <c r="F113" s="34"/>
-      <c r="G113" s="49"/>
-    </row>
-    <row r="114" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A114" s="73"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="41"/>
+    </row>
+    <row r="114" spans="1:8" ht="18.75">
+      <c r="A114" s="60"/>
       <c r="B114" s="10" t="s">
         <v>14</v>
       </c>
@@ -3600,10 +3643,11 @@
         <v>2</v>
       </c>
       <c r="F114" s="34"/>
-      <c r="G114" s="49"/>
-    </row>
-    <row r="115" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A115" s="73"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="41"/>
+    </row>
+    <row r="115" spans="1:8" ht="18.75">
+      <c r="A115" s="60"/>
       <c r="B115" s="10" t="s">
         <v>27</v>
       </c>
@@ -3617,12 +3661,13 @@
         <v>1</v>
       </c>
       <c r="F115" s="34"/>
-      <c r="G115" s="49"/>
-    </row>
-    <row r="116" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A116" s="73"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="41"/>
+    </row>
+    <row r="116" spans="1:8" ht="18.75">
+      <c r="A116" s="60"/>
       <c r="B116" s="10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C116" s="7">
         <v>1032101</v>
@@ -3634,10 +3679,11 @@
         <v>2</v>
       </c>
       <c r="F116" s="34"/>
-      <c r="G116" s="49"/>
-    </row>
-    <row r="117" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A117" s="73"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="41"/>
+    </row>
+    <row r="117" spans="1:8" ht="18.75">
+      <c r="A117" s="60"/>
       <c r="B117" s="10" t="s">
         <v>31</v>
       </c>
@@ -3651,12 +3697,13 @@
         <v>3</v>
       </c>
       <c r="F117" s="34"/>
-      <c r="G117" s="49"/>
-    </row>
-    <row r="118" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A118" s="73"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="41"/>
+    </row>
+    <row r="118" spans="1:8" ht="18.75">
+      <c r="A118" s="60"/>
       <c r="B118" s="10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C118" s="7">
         <v>2715152</v>
@@ -3668,12 +3715,13 @@
         <v>1</v>
       </c>
       <c r="F118" s="34"/>
-      <c r="G118" s="49"/>
-    </row>
-    <row r="119" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A119" s="73"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="41"/>
+    </row>
+    <row r="119" spans="1:8" ht="18.75">
+      <c r="A119" s="60"/>
       <c r="B119" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C119" s="7">
         <v>2739411</v>
@@ -3685,10 +3733,11 @@
         <v>1</v>
       </c>
       <c r="F119" s="34"/>
-      <c r="G119" s="49"/>
-    </row>
-    <row r="120" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A120" s="73"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="41"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.75">
+      <c r="A120" s="60"/>
       <c r="B120" s="2" t="s">
         <v>5</v>
       </c>
@@ -3702,10 +3751,11 @@
         <v>3</v>
       </c>
       <c r="F120" s="34"/>
-      <c r="G120" s="49"/>
-    </row>
-    <row r="121" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A121" s="74"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="41"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.75">
+      <c r="A121" s="61"/>
       <c r="B121" s="10" t="s">
         <v>24</v>
       </c>
@@ -3717,11 +3767,12 @@
         <v>2</v>
       </c>
       <c r="F121" s="34"/>
-      <c r="G121" s="49"/>
-    </row>
-    <row r="122" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A122" s="58" t="s">
-        <v>83</v>
+      <c r="G121" s="51"/>
+      <c r="H121" s="41"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.75">
+      <c r="A122" s="63" t="s">
+        <v>69</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>2</v>
@@ -3738,10 +3789,11 @@
       <c r="F122" s="34">
         <v>1</v>
       </c>
-      <c r="G122" s="49"/>
-    </row>
-    <row r="123" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A123" s="59"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="41"/>
+    </row>
+    <row r="123" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A123" s="64"/>
       <c r="B123" s="10" t="s">
         <v>3</v>
       </c>
@@ -3757,12 +3809,13 @@
       <c r="F123" s="34">
         <v>1</v>
       </c>
-      <c r="G123" s="49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A124" s="59"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A124" s="64"/>
       <c r="B124" s="10" t="s">
         <v>14</v>
       </c>
@@ -3778,10 +3831,11 @@
       <c r="F124" s="34">
         <v>3</v>
       </c>
-      <c r="G124" s="49"/>
-    </row>
-    <row r="125" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A125" s="59"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="41"/>
+    </row>
+    <row r="125" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A125" s="64"/>
       <c r="B125" s="10" t="s">
         <v>27</v>
       </c>
@@ -3797,10 +3851,11 @@
       <c r="F125" s="34">
         <v>1</v>
       </c>
-      <c r="G125" s="49"/>
-    </row>
-    <row r="126" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A126" s="59"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="41"/>
+    </row>
+    <row r="126" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A126" s="64"/>
       <c r="B126" s="10" t="s">
         <v>12</v>
       </c>
@@ -3816,12 +3871,13 @@
       <c r="F126" s="34">
         <v>3</v>
       </c>
-      <c r="G126" s="49"/>
-    </row>
-    <row r="127" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A127" s="59"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="41"/>
+    </row>
+    <row r="127" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A127" s="64"/>
       <c r="B127" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C127" s="1">
         <v>3912231</v>
@@ -3835,12 +3891,13 @@
       <c r="F127" s="34">
         <v>1</v>
       </c>
-      <c r="G127" s="49"/>
-    </row>
-    <row r="128" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A128" s="59"/>
+      <c r="G127" s="51"/>
+      <c r="H127" s="41"/>
+    </row>
+    <row r="128" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A128" s="64"/>
       <c r="B128" s="10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C128" s="7">
         <v>3912113</v>
@@ -3854,12 +3911,13 @@
       <c r="F128" s="34">
         <v>1</v>
       </c>
-      <c r="G128" s="49"/>
-    </row>
-    <row r="129" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A129" s="59"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="41"/>
+    </row>
+    <row r="129" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A129" s="64"/>
       <c r="B129" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C129" s="7">
         <v>1032101</v>
@@ -3873,10 +3931,11 @@
       <c r="F129" s="34">
         <v>3</v>
       </c>
-      <c r="G129" s="49"/>
-    </row>
-    <row r="130" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A130" s="59"/>
+      <c r="G129" s="51"/>
+      <c r="H129" s="41"/>
+    </row>
+    <row r="130" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A130" s="64"/>
       <c r="B130" s="10" t="s">
         <v>31</v>
       </c>
@@ -3892,10 +3951,11 @@
       <c r="F130" s="34">
         <v>3</v>
       </c>
-      <c r="G130" s="49"/>
-    </row>
-    <row r="131" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A131" s="60"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="41"/>
+    </row>
+    <row r="131" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A131" s="65"/>
       <c r="B131" s="10" t="s">
         <v>24</v>
       </c>
@@ -3909,11 +3969,12 @@
       <c r="F131" s="34">
         <v>2</v>
       </c>
-      <c r="G131" s="49"/>
-    </row>
-    <row r="132" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A132" s="58" t="s">
-        <v>80</v>
+      <c r="G131" s="51"/>
+      <c r="H131" s="41"/>
+    </row>
+    <row r="132" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A132" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>2</v>
@@ -3930,12 +3991,13 @@
       <c r="F132" s="34">
         <v>1</v>
       </c>
-      <c r="G132" s="49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A133" s="59"/>
+      <c r="G132" s="51"/>
+      <c r="H132" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A133" s="64"/>
       <c r="B133" s="10" t="s">
         <v>3</v>
       </c>
@@ -3951,10 +4013,11 @@
       <c r="F133" s="34">
         <v>1</v>
       </c>
-      <c r="G133" s="49"/>
-    </row>
-    <row r="134" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A134" s="59"/>
+      <c r="G133" s="51"/>
+      <c r="H133" s="41"/>
+    </row>
+    <row r="134" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A134" s="64"/>
       <c r="B134" s="10" t="s">
         <v>14</v>
       </c>
@@ -3970,10 +4033,11 @@
       <c r="F134" s="34">
         <v>1</v>
       </c>
-      <c r="G134" s="49"/>
-    </row>
-    <row r="135" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="59"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="41"/>
+    </row>
+    <row r="135" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A135" s="64"/>
       <c r="B135" s="10" t="s">
         <v>27</v>
       </c>
@@ -3989,10 +4053,11 @@
       <c r="F135" s="34">
         <v>1</v>
       </c>
-      <c r="G135" s="49"/>
-    </row>
-    <row r="136" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="59"/>
+      <c r="G135" s="51"/>
+      <c r="H135" s="41"/>
+    </row>
+    <row r="136" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A136" s="64"/>
       <c r="B136" s="10" t="s">
         <v>12</v>
       </c>
@@ -4008,12 +4073,13 @@
       <c r="F136" s="34">
         <v>3</v>
       </c>
-      <c r="G136" s="49"/>
-    </row>
-    <row r="137" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A137" s="59"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="41"/>
+    </row>
+    <row r="137" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A137" s="64"/>
       <c r="B137" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C137" s="1">
         <v>3912231</v>
@@ -4027,12 +4093,13 @@
       <c r="F137" s="34">
         <v>1</v>
       </c>
-      <c r="G137" s="49"/>
-    </row>
-    <row r="138" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A138" s="59"/>
+      <c r="G137" s="51"/>
+      <c r="H137" s="41"/>
+    </row>
+    <row r="138" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A138" s="64"/>
       <c r="B138" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C138" s="7">
         <v>1032101</v>
@@ -4046,10 +4113,11 @@
       <c r="F138" s="34">
         <v>3</v>
       </c>
-      <c r="G138" s="49"/>
-    </row>
-    <row r="139" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A139" s="59"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="41"/>
+    </row>
+    <row r="139" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A139" s="64"/>
       <c r="B139" s="10" t="s">
         <v>13</v>
       </c>
@@ -4065,10 +4133,11 @@
       <c r="F139" s="34">
         <v>2</v>
       </c>
-      <c r="G139" s="49"/>
-    </row>
-    <row r="140" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A140" s="59"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="41"/>
+    </row>
+    <row r="140" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A140" s="64"/>
       <c r="B140" s="10" t="s">
         <v>5</v>
       </c>
@@ -4084,10 +4153,11 @@
       <c r="F140" s="34">
         <v>3</v>
       </c>
-      <c r="G140" s="49"/>
-    </row>
-    <row r="141" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A141" s="59"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="41"/>
+    </row>
+    <row r="141" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A141" s="64"/>
       <c r="B141" s="10" t="s">
         <v>31</v>
       </c>
@@ -4103,10 +4173,11 @@
       <c r="F141" s="34">
         <v>3</v>
       </c>
-      <c r="G141" s="49"/>
-    </row>
-    <row r="142" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A142" s="60"/>
+      <c r="G141" s="51"/>
+      <c r="H141" s="41"/>
+    </row>
+    <row r="142" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A142" s="65"/>
       <c r="B142" s="10" t="s">
         <v>24</v>
       </c>
@@ -4120,11 +4191,12 @@
       <c r="F142" s="34">
         <v>2</v>
       </c>
-      <c r="G142" s="49"/>
-    </row>
-    <row r="143" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A143" s="58" t="s">
-        <v>76</v>
+      <c r="G142" s="51"/>
+      <c r="H142" s="41"/>
+    </row>
+    <row r="143" spans="1:8" ht="18.75">
+      <c r="A143" s="63" t="s">
+        <v>62</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>2</v>
@@ -4139,10 +4211,11 @@
         <v>1</v>
       </c>
       <c r="F143" s="34"/>
-      <c r="G143" s="49"/>
-    </row>
-    <row r="144" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A144" s="59"/>
+      <c r="G143" s="51"/>
+      <c r="H143" s="41"/>
+    </row>
+    <row r="144" spans="1:8" ht="18.75">
+      <c r="A144" s="64"/>
       <c r="B144" s="10" t="s">
         <v>3</v>
       </c>
@@ -4156,10 +4229,11 @@
         <v>1</v>
       </c>
       <c r="F144" s="34"/>
-      <c r="G144" s="49"/>
-    </row>
-    <row r="145" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A145" s="59"/>
+      <c r="G144" s="51"/>
+      <c r="H144" s="41"/>
+    </row>
+    <row r="145" spans="1:8" ht="18.75">
+      <c r="A145" s="64"/>
       <c r="B145" s="10" t="s">
         <v>27</v>
       </c>
@@ -4173,10 +4247,11 @@
         <v>1</v>
       </c>
       <c r="F145" s="34"/>
-      <c r="G145" s="49"/>
-    </row>
-    <row r="146" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A146" s="59"/>
+      <c r="G145" s="51"/>
+      <c r="H145" s="41"/>
+    </row>
+    <row r="146" spans="1:8" ht="18.75">
+      <c r="A146" s="64"/>
       <c r="B146" s="2" t="s">
         <v>13</v>
       </c>
@@ -4190,10 +4265,11 @@
         <v>2</v>
       </c>
       <c r="F146" s="34"/>
-      <c r="G146" s="49"/>
-    </row>
-    <row r="147" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A147" s="59"/>
+      <c r="G146" s="51"/>
+      <c r="H146" s="41"/>
+    </row>
+    <row r="147" spans="1:8" ht="18.75">
+      <c r="A147" s="64"/>
       <c r="B147" s="10" t="s">
         <v>31</v>
       </c>
@@ -4207,10 +4283,11 @@
         <v>3</v>
       </c>
       <c r="F147" s="34"/>
-      <c r="G147" s="49"/>
-    </row>
-    <row r="148" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A148" s="59"/>
+      <c r="G147" s="51"/>
+      <c r="H147" s="41"/>
+    </row>
+    <row r="148" spans="1:8" ht="18.75">
+      <c r="A148" s="64"/>
       <c r="B148" s="10" t="s">
         <v>19</v>
       </c>
@@ -4224,10 +4301,11 @@
         <v>2</v>
       </c>
       <c r="F148" s="34"/>
-      <c r="G148" s="49"/>
-    </row>
-    <row r="149" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A149" s="60"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="41"/>
+    </row>
+    <row r="149" spans="1:8" ht="18.75">
+      <c r="A149" s="65"/>
       <c r="B149" s="10" t="s">
         <v>24</v>
       </c>
@@ -4239,11 +4317,12 @@
         <v>2</v>
       </c>
       <c r="F149" s="34"/>
-      <c r="G149" s="49"/>
-    </row>
-    <row r="150" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A150" s="75" t="s">
-        <v>98</v>
+      <c r="G149" s="51"/>
+      <c r="H149" s="41"/>
+    </row>
+    <row r="150" spans="1:8" ht="18.75">
+      <c r="A150" s="66" t="s">
+        <v>84</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>2</v>
@@ -4260,10 +4339,11 @@
       <c r="F150" s="34">
         <v>1</v>
       </c>
-      <c r="G150" s="49"/>
-    </row>
-    <row r="151" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A151" s="76"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="41"/>
+    </row>
+    <row r="151" spans="1:8" ht="18.75">
+      <c r="A151" s="67"/>
       <c r="B151" s="10" t="s">
         <v>3</v>
       </c>
@@ -4279,10 +4359,11 @@
       <c r="F151" s="34">
         <v>1</v>
       </c>
-      <c r="G151" s="49"/>
-    </row>
-    <row r="152" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A152" s="76"/>
+      <c r="G151" s="51"/>
+      <c r="H151" s="41"/>
+    </row>
+    <row r="152" spans="1:8" ht="18.75">
+      <c r="A152" s="67"/>
       <c r="B152" s="10" t="s">
         <v>27</v>
       </c>
@@ -4298,12 +4379,13 @@
       <c r="F152" s="34">
         <v>1</v>
       </c>
-      <c r="G152" s="49"/>
-    </row>
-    <row r="153" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A153" s="76"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="41"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.75">
+      <c r="A153" s="67"/>
       <c r="B153" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C153" s="1">
         <v>3221713</v>
@@ -4317,10 +4399,11 @@
       <c r="F153" s="34">
         <v>1</v>
       </c>
-      <c r="G153" s="49"/>
-    </row>
-    <row r="154" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A154" s="76"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="41"/>
+    </row>
+    <row r="154" spans="1:8" ht="18.75">
+      <c r="A154" s="67"/>
       <c r="B154" s="10" t="s">
         <v>12</v>
       </c>
@@ -4336,12 +4419,13 @@
       <c r="F154" s="34">
         <v>3</v>
       </c>
-      <c r="G154" s="49"/>
-    </row>
-    <row r="155" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A155" s="76"/>
+      <c r="G154" s="51"/>
+      <c r="H154" s="41"/>
+    </row>
+    <row r="155" spans="1:8" ht="18.75">
+      <c r="A155" s="67"/>
       <c r="B155" s="10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C155" s="7">
         <v>1032101</v>
@@ -4355,10 +4439,11 @@
       <c r="F155" s="34">
         <v>3</v>
       </c>
-      <c r="G155" s="49"/>
-    </row>
-    <row r="156" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A156" s="76"/>
+      <c r="G155" s="51"/>
+      <c r="H155" s="41"/>
+    </row>
+    <row r="156" spans="1:8" ht="18.75">
+      <c r="A156" s="67"/>
       <c r="B156" s="10" t="s">
         <v>5</v>
       </c>
@@ -4374,10 +4459,11 @@
       <c r="F156" s="34">
         <v>3</v>
       </c>
-      <c r="G156" s="49"/>
-    </row>
-    <row r="157" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A157" s="77"/>
+      <c r="G156" s="51"/>
+      <c r="H156" s="41"/>
+    </row>
+    <row r="157" spans="1:8" ht="18.75">
+      <c r="A157" s="68"/>
       <c r="B157" s="10" t="s">
         <v>24</v>
       </c>
@@ -4391,11 +4477,12 @@
       <c r="F157" s="34">
         <v>2</v>
       </c>
-      <c r="G157" s="49"/>
-    </row>
-    <row r="158" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A158" s="70" t="s">
-        <v>73</v>
+      <c r="G157" s="51"/>
+      <c r="H157" s="41"/>
+    </row>
+    <row r="158" spans="1:8" ht="18.75">
+      <c r="A158" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>2</v>
@@ -4412,10 +4499,11 @@
       <c r="F158" s="34">
         <v>1</v>
       </c>
-      <c r="G158" s="49"/>
-    </row>
-    <row r="159" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A159" s="71"/>
+      <c r="G158" s="51"/>
+      <c r="H158" s="41"/>
+    </row>
+    <row r="159" spans="1:8" ht="18.75">
+      <c r="A159" s="58"/>
       <c r="B159" s="10" t="s">
         <v>3</v>
       </c>
@@ -4431,10 +4519,11 @@
       <c r="F159" s="34">
         <v>1</v>
       </c>
-      <c r="G159" s="49"/>
-    </row>
-    <row r="160" spans="1:7" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A160" s="71"/>
+      <c r="G159" s="51"/>
+      <c r="H159" s="41"/>
+    </row>
+    <row r="160" spans="1:8" ht="18.75">
+      <c r="A160" s="58"/>
       <c r="B160" s="2" t="s">
         <v>27</v>
       </c>
@@ -4450,10 +4539,11 @@
       <c r="F160" s="34">
         <v>1</v>
       </c>
-      <c r="G160" s="49"/>
-    </row>
-    <row r="161" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A161" s="71"/>
+      <c r="G160" s="51"/>
+      <c r="H160" s="41"/>
+    </row>
+    <row r="161" spans="1:8" ht="18.75">
+      <c r="A161" s="58"/>
       <c r="B161" s="10" t="s">
         <v>14</v>
       </c>
@@ -4469,12 +4559,13 @@
       <c r="F161" s="34">
         <v>3</v>
       </c>
-      <c r="G161" s="49"/>
-    </row>
-    <row r="162" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A162" s="71"/>
+      <c r="G161" s="51"/>
+      <c r="H161" s="41"/>
+    </row>
+    <row r="162" spans="1:8" ht="18.75">
+      <c r="A162" s="58"/>
       <c r="B162" s="10" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C162" s="7">
         <v>3413032</v>
@@ -4488,12 +4579,13 @@
       <c r="F162" s="34">
         <v>1</v>
       </c>
-      <c r="G162" s="49"/>
-    </row>
-    <row r="163" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A163" s="71"/>
+      <c r="G162" s="51"/>
+      <c r="H162" s="41"/>
+    </row>
+    <row r="163" spans="1:8" ht="18.75">
+      <c r="A163" s="58"/>
       <c r="B163" s="10" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C163" s="7">
         <v>3413013</v>
@@ -4507,10 +4599,11 @@
       <c r="F163" s="34">
         <v>1</v>
       </c>
-      <c r="G163" s="49"/>
-    </row>
-    <row r="164" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A164" s="71"/>
+      <c r="G163" s="51"/>
+      <c r="H163" s="41"/>
+    </row>
+    <row r="164" spans="1:8" ht="18.75">
+      <c r="A164" s="58"/>
       <c r="B164" s="10" t="s">
         <v>31</v>
       </c>
@@ -4526,10 +4619,11 @@
       <c r="F164" s="34">
         <v>3</v>
       </c>
-      <c r="G164" s="49"/>
-    </row>
-    <row r="165" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A165" s="71"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="41"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.75">
+      <c r="A165" s="58"/>
       <c r="B165" s="10" t="s">
         <v>24</v>
       </c>
@@ -4543,98 +4637,14 @@
       <c r="F165" s="34">
         <v>2</v>
       </c>
-      <c r="G165" s="51"/>
-    </row>
-    <row r="166" spans="1:16" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="I166" s="48"/>
-      <c r="J166" s="48"/>
-      <c r="K166" s="48"/>
-      <c r="L166" s="48"/>
-      <c r="M166" s="48"/>
-      <c r="N166" s="48"/>
-      <c r="O166" s="48"/>
-      <c r="P166" s="48"/>
-    </row>
-    <row r="167" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A167" s="40"/>
-      <c r="B167" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C167" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D167" s="43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A168" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C168" s="7">
-        <v>1051342</v>
-      </c>
-      <c r="D168" s="44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A169" s="66"/>
-      <c r="B169" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C169" s="7">
-        <v>1051012</v>
-      </c>
-      <c r="D169" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A170" s="66"/>
-      <c r="B170" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C170" s="7">
-        <v>1051532</v>
-      </c>
-      <c r="D170" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A171" s="67"/>
-      <c r="B171" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C171" s="32">
-        <v>1051522</v>
-      </c>
-      <c r="D171" s="45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" ht="18" x14ac:dyDescent="1">
-      <c r="A173" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B173" s="47" t="s">
-        <v>66</v>
-      </c>
+      <c r="G165" s="34"/>
+      <c r="H165" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="G61:G62"/>
+  <mergeCells count="20">
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="H61:H62"/>
     <mergeCell ref="A61:A69"/>
     <mergeCell ref="A158:A165"/>
     <mergeCell ref="A102:A111"/>
@@ -4646,8 +4656,12 @@
     <mergeCell ref="A132:A142"/>
     <mergeCell ref="A86:A93"/>
     <mergeCell ref="A78:A85"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A18:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/conf/colleagereqs.xlsx
+++ b/conf/colleagereqs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95129032\Desktop\jvm\automata-newentries\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\apps\Job\automata-newentries\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="90">
   <si>
     <t>مبانی کامپیوتر و برنامه سازی</t>
   </si>
@@ -185,62 +185,6 @@
     <t>فقط گروه های 1-2-3</t>
   </si>
   <si>
-    <r>
-      <t>مهندسی مکانیک</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی شیمی</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی هوافضا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی کامپیوتر</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>زمین شناسی عمومی ساختمانی</t>
   </si>
   <si>
@@ -268,18 +212,12 @@
     <t>برای نصف دانشجویان</t>
   </si>
   <si>
-    <t>مهندسی مواد و متالورژی گروه دوم</t>
-  </si>
-  <si>
     <t>بلور شناسی و آزمایشگاه</t>
   </si>
   <si>
     <t xml:space="preserve">برای نصف دانشجویان </t>
   </si>
   <si>
-    <t xml:space="preserve"> مهندسی مواد و متالورژی گروه اول</t>
-  </si>
-  <si>
     <t>آشنایی با رشته مهندسی معدن</t>
   </si>
   <si>
@@ -295,9 +233,6 @@
     <t>مهندسی محیط زیست</t>
   </si>
   <si>
-    <t>برای نصف دانشجویان درس زمین شناسی و نصف دیگر درس محیط زیست اخذ گردد</t>
-  </si>
-  <si>
     <t>زمین شناسی مهندسی</t>
   </si>
   <si>
@@ -316,50 +251,6 @@
     <t>ریاضیات و کاربردها</t>
   </si>
   <si>
-    <r>
-      <t>مهندسی برق</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی عمران</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی پلیمر و رنگ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>2,4</t>
   </si>
   <si>
@@ -370,13 +261,46 @@
   </si>
   <si>
     <t>1,2,3</t>
+  </si>
+  <si>
+    <t>مهندسی هوافضا</t>
+  </si>
+  <si>
+    <t>مهندسی کامپیوتر</t>
+  </si>
+  <si>
+    <t>مهندسی برق</t>
+  </si>
+  <si>
+    <t>مهندسی عمران</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مهندسی مواد و متالورژی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> گروه اول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهندسی مواد و متالورژی </t>
+  </si>
+  <si>
+    <t>گروه دوم</t>
+  </si>
+  <si>
+    <t>مهندسی پلیمر و رنگ</t>
+  </si>
+  <si>
+    <t>مهندسی شیمی</t>
+  </si>
+  <si>
+    <t>مهندسی مکانیک</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,22 +328,8 @@
       <charset val="178"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -738,11 +648,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,7 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -881,6 +809,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,49 +860,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1215,25 +1158,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P165"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166:XFD178"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.100000000000001" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.89453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.41796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.41796875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.15625" customWidth="1"/>
+    <col min="5" max="5" width="22.68359375" customWidth="1"/>
+    <col min="6" max="7" width="26.68359375" customWidth="1"/>
+    <col min="8" max="8" width="10.578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.734375" customWidth="1"/>
+    <col min="10" max="10" width="11.62890625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -1255,9 +1200,12 @@
       <c r="H1" s="36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="53"/>
+      <c r="J1" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A2" s="67"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1273,9 +1221,10 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
       <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="53"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A3" s="67"/>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1291,9 +1240,10 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="53"/>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A4" s="67"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1309,9 +1259,10 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75">
-      <c r="A5" s="53"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A5" s="67"/>
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1327,9 +1278,10 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75">
-      <c r="A6" s="53"/>
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A6" s="67"/>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1345,9 +1297,10 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="53"/>
+      <c r="J6" s="67"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A7" s="67"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1361,9 +1314,10 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A8" s="54"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="A8" s="68"/>
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1379,9 +1333,10 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75">
-      <c r="A9" s="52" t="s">
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A9" s="66" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1405,9 +1360,12 @@
       <c r="H9" s="36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75">
-      <c r="A10" s="53"/>
+      <c r="J9" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A10" s="67"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1425,9 +1383,10 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75">
-      <c r="A11" s="53"/>
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A11" s="67"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1445,9 +1404,10 @@
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75">
-      <c r="A12" s="53"/>
+      <c r="J11" s="67"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A12" s="67"/>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1465,9 +1425,10 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" s="53"/>
+      <c r="J12" s="67"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A13" s="67"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1485,9 +1446,10 @@
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75">
-      <c r="A14" s="53"/>
+      <c r="J13" s="67"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A14" s="67"/>
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1505,9 +1467,10 @@
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75">
-      <c r="A15" s="53"/>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A15" s="67"/>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
@@ -1525,9 +1488,10 @@
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75">
-      <c r="A16" s="53"/>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A16" s="67"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1543,9 +1507,10 @@
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A17" s="54"/>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="A17" s="68"/>
       <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
@@ -1563,10 +1528,11 @@
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75">
-      <c r="A18" s="52" t="s">
-        <v>54</v>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A18" s="66" t="s">
+        <v>88</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>41</v>
@@ -1589,9 +1555,15 @@
       <c r="H18" s="36" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75">
-      <c r="A19" s="53"/>
+      <c r="I18" s="52">
+        <v>5</v>
+      </c>
+      <c r="J18" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A19" s="67"/>
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1609,9 +1581,10 @@
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75">
-      <c r="A20" s="53"/>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A20" s="67"/>
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1628,14 +1601,15 @@
         <v>1</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75">
-      <c r="A21" s="53"/>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A21" s="67"/>
       <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
@@ -1653,9 +1627,10 @@
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75">
-      <c r="A22" s="53"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A22" s="67"/>
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1672,14 +1647,15 @@
         <v>1</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="18.75">
-      <c r="A23" s="53"/>
+      <c r="J22" s="67"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A23" s="67"/>
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1697,9 +1673,10 @@
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75">
-      <c r="A24" s="53"/>
+      <c r="J23" s="67"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A24" s="67"/>
       <c r="B24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1717,9 +1694,10 @@
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="37"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75">
-      <c r="A25" s="53"/>
+      <c r="J24" s="67"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A25" s="67"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1737,9 +1715,10 @@
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A26" s="54"/>
+      <c r="J25" s="67"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A26" s="68"/>
       <c r="B26" s="23" t="s">
         <v>29</v>
       </c>
@@ -1755,9 +1734,10 @@
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75">
-      <c r="A27" s="52" t="s">
+      <c r="J26" s="68"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A27" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -1777,9 +1757,12 @@
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75">
-      <c r="A28" s="53"/>
+      <c r="J27" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A28" s="67"/>
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1797,9 +1780,10 @@
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75">
-      <c r="A29" s="53"/>
+      <c r="J28" s="67"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A29" s="67"/>
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
@@ -1817,9 +1801,10 @@
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75">
-      <c r="A30" s="53"/>
+      <c r="J29" s="67"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A30" s="67"/>
       <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
@@ -1837,9 +1822,10 @@
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="37"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75">
-      <c r="A31" s="53"/>
+      <c r="J30" s="67"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A31" s="67"/>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1857,9 +1843,10 @@
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75">
-      <c r="A32" s="53"/>
+      <c r="J31" s="67"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A32" s="67"/>
       <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1877,9 +1864,10 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75">
-      <c r="A33" s="53"/>
+      <c r="J32" s="67"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A33" s="67"/>
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1897,9 +1885,10 @@
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="37"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75">
-      <c r="A34" s="53"/>
+      <c r="J33" s="67"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A34" s="67"/>
       <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
@@ -1917,9 +1906,10 @@
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A35" s="54"/>
+      <c r="J34" s="67"/>
+    </row>
+    <row r="35" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A35" s="68"/>
       <c r="B35" s="27" t="s">
         <v>20</v>
       </c>
@@ -1935,10 +1925,11 @@
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75">
-      <c r="A36" s="52" t="s">
-        <v>53</v>
+      <c r="J35" s="68"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A36" s="66" t="s">
+        <v>89</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>16</v>
@@ -1957,9 +1948,15 @@
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="36"/>
-    </row>
-    <row r="37" spans="1:8" ht="36">
-      <c r="A37" s="53"/>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="136.80000000000001" x14ac:dyDescent="1">
+      <c r="A37" s="67"/>
       <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
@@ -1976,14 +1973,15 @@
         <v>1</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H37" s="39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.75">
-      <c r="A38" s="53"/>
+      <c r="J37" s="67"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A38" s="67"/>
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -2001,9 +1999,10 @@
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75">
-      <c r="A39" s="53"/>
+      <c r="J38" s="67"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A39" s="67"/>
       <c r="B39" s="6" t="s">
         <v>27</v>
       </c>
@@ -2021,9 +2020,10 @@
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75">
-      <c r="A40" s="53"/>
+      <c r="J39" s="67"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A40" s="67"/>
       <c r="B40" s="10" t="s">
         <v>26</v>
       </c>
@@ -2041,9 +2041,10 @@
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="37"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75">
-      <c r="A41" s="53"/>
+      <c r="J40" s="67"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A41" s="67"/>
       <c r="B41" s="6" t="s">
         <v>14</v>
       </c>
@@ -2061,9 +2062,10 @@
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="37"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75">
-      <c r="A42" s="53"/>
+      <c r="J41" s="67"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A42" s="67"/>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2081,9 +2083,10 @@
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="37"/>
-    </row>
-    <row r="43" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A43" s="54"/>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A43" s="68"/>
       <c r="B43" s="28" t="s">
         <v>15</v>
       </c>
@@ -2099,10 +2102,11 @@
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="38"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.75">
-      <c r="A44" s="52" t="s">
-        <v>55</v>
+      <c r="J43" s="68"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A44" s="66" t="s">
+        <v>79</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>9</v>
@@ -2121,9 +2125,15 @@
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="36"/>
-    </row>
-    <row r="45" spans="1:8" ht="18.75">
-      <c r="A45" s="53"/>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A45" s="67"/>
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
@@ -2141,9 +2151,10 @@
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="37"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.75">
-      <c r="A46" s="53"/>
+      <c r="J45" s="67"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A46" s="67"/>
       <c r="B46" s="6" t="s">
         <v>11</v>
       </c>
@@ -2161,9 +2172,10 @@
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="37"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.75">
-      <c r="A47" s="53"/>
+      <c r="J46" s="67"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A47" s="67"/>
       <c r="B47" s="6" t="s">
         <v>12</v>
       </c>
@@ -2181,9 +2193,10 @@
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="37"/>
-    </row>
-    <row r="48" spans="1:8" ht="18.75">
-      <c r="A48" s="53"/>
+      <c r="J47" s="67"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A48" s="67"/>
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
@@ -2201,9 +2214,10 @@
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="1:16" ht="18.75">
-      <c r="A49" s="53"/>
+      <c r="J48" s="67"/>
+    </row>
+    <row r="49" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A49" s="67"/>
       <c r="B49" s="6" t="s">
         <v>35</v>
       </c>
@@ -2221,9 +2235,10 @@
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="1:16" ht="18.75">
-      <c r="A50" s="53"/>
+      <c r="J49" s="67"/>
+    </row>
+    <row r="50" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A50" s="67"/>
       <c r="B50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2241,9 +2256,10 @@
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A51" s="54"/>
+      <c r="J50" s="67"/>
+    </row>
+    <row r="51" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="A51" s="68"/>
       <c r="B51" s="17" t="s">
         <v>5</v>
       </c>
@@ -2261,9 +2277,10 @@
       </c>
       <c r="G51" s="35"/>
       <c r="H51" s="38"/>
-    </row>
-    <row r="52" spans="1:16" ht="18.75">
-      <c r="A52" s="52" t="s">
+      <c r="J51" s="68"/>
+    </row>
+    <row r="52" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A52" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -2283,9 +2300,12 @@
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="36"/>
-    </row>
-    <row r="53" spans="1:16" ht="18.75">
-      <c r="A53" s="53"/>
+      <c r="J52" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A53" s="67"/>
       <c r="B53" s="10" t="s">
         <v>3</v>
       </c>
@@ -2303,9 +2323,10 @@
       </c>
       <c r="G53" s="34"/>
       <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="1:16" ht="18.75">
-      <c r="A54" s="53"/>
+      <c r="J53" s="67"/>
+    </row>
+    <row r="54" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A54" s="67"/>
       <c r="B54" s="6" t="s">
         <v>27</v>
       </c>
@@ -2323,9 +2344,10 @@
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="37"/>
-    </row>
-    <row r="55" spans="1:16" ht="18.75">
-      <c r="A55" s="53"/>
+      <c r="J54" s="67"/>
+    </row>
+    <row r="55" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A55" s="67"/>
       <c r="B55" s="6" t="s">
         <v>35</v>
       </c>
@@ -2343,9 +2365,10 @@
       </c>
       <c r="G55" s="34"/>
       <c r="H55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" ht="18.75">
-      <c r="A56" s="53"/>
+      <c r="J55" s="67"/>
+    </row>
+    <row r="56" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A56" s="67"/>
       <c r="B56" s="11" t="s">
         <v>39</v>
       </c>
@@ -2363,9 +2386,10 @@
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="37"/>
-    </row>
-    <row r="57" spans="1:16" ht="18.75">
-      <c r="A57" s="53"/>
+      <c r="J56" s="67"/>
+    </row>
+    <row r="57" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A57" s="67"/>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2383,9 +2407,10 @@
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="37"/>
-    </row>
-    <row r="58" spans="1:16" ht="18.75">
-      <c r="A58" s="53"/>
+      <c r="J57" s="67"/>
+    </row>
+    <row r="58" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A58" s="67"/>
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -2403,9 +2428,10 @@
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="37"/>
-    </row>
-    <row r="59" spans="1:16" ht="18.75">
-      <c r="A59" s="53"/>
+      <c r="J58" s="67"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A59" s="67"/>
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -2421,9 +2447,10 @@
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="37"/>
-    </row>
-    <row r="60" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A60" s="54"/>
+      <c r="J59" s="67"/>
+    </row>
+    <row r="60" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A60" s="68"/>
       <c r="B60" s="23" t="s">
         <v>40</v>
       </c>
@@ -2441,10 +2468,11 @@
       </c>
       <c r="G60" s="35"/>
       <c r="H60" s="38"/>
-    </row>
-    <row r="61" spans="1:16" ht="27" customHeight="1">
-      <c r="A61" s="52" t="s">
-        <v>56</v>
+      <c r="J60" s="68"/>
+    </row>
+    <row r="61" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="1">
+      <c r="A61" s="66" t="s">
+        <v>80</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>0</v>
@@ -2462,11 +2490,15 @@
         <v>1</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="55" t="s">
+      <c r="H61" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
+      <c r="I61" s="40">
+        <v>5</v>
+      </c>
+      <c r="J61" s="66">
+        <v>8</v>
+      </c>
       <c r="K61" s="40"/>
       <c r="L61" s="40"/>
       <c r="M61" s="40"/>
@@ -2474,8 +2506,8 @@
       <c r="O61" s="40"/>
       <c r="P61" s="40"/>
     </row>
-    <row r="62" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A62" s="53"/>
+    <row r="62" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="1">
+      <c r="A62" s="67"/>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
@@ -2492,9 +2524,9 @@
         <v>1</v>
       </c>
       <c r="G62" s="34"/>
-      <c r="H62" s="56"/>
+      <c r="H62" s="71"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
+      <c r="J62" s="67"/>
       <c r="K62" s="40"/>
       <c r="L62" s="40"/>
       <c r="M62" s="40"/>
@@ -2502,8 +2534,8 @@
       <c r="O62" s="40"/>
       <c r="P62" s="40"/>
     </row>
-    <row r="63" spans="1:16" ht="18.75">
-      <c r="A63" s="53"/>
+    <row r="63" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A63" s="67"/>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2554,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="37"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
+      <c r="J63" s="67"/>
       <c r="K63" s="40"/>
       <c r="L63" s="40"/>
       <c r="M63" s="40"/>
@@ -2530,8 +2562,8 @@
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
     </row>
-    <row r="64" spans="1:16" ht="18.75">
-      <c r="A64" s="53"/>
+    <row r="64" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A64" s="67"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -2550,7 +2582,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="37"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
+      <c r="J64" s="67"/>
       <c r="K64" s="40"/>
       <c r="L64" s="40"/>
       <c r="M64" s="40"/>
@@ -2558,8 +2590,8 @@
       <c r="O64" s="40"/>
       <c r="P64" s="40"/>
     </row>
-    <row r="65" spans="1:16" ht="18.75">
-      <c r="A65" s="53"/>
+    <row r="65" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A65" s="67"/>
       <c r="B65" s="2" t="s">
         <v>44</v>
       </c>
@@ -2578,7 +2610,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="37"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
+      <c r="J65" s="67"/>
       <c r="K65" s="40"/>
       <c r="L65" s="40"/>
       <c r="M65" s="40"/>
@@ -2586,8 +2618,8 @@
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
     </row>
-    <row r="66" spans="1:16" ht="18.75">
-      <c r="A66" s="53"/>
+    <row r="66" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A66" s="67"/>
       <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
@@ -2606,7 +2638,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="37"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
+      <c r="J66" s="67"/>
       <c r="K66" s="40"/>
       <c r="L66" s="40"/>
       <c r="M66" s="40"/>
@@ -2614,8 +2646,8 @@
       <c r="O66" s="40"/>
       <c r="P66" s="40"/>
     </row>
-    <row r="67" spans="1:16" ht="18.75">
-      <c r="A67" s="53"/>
+    <row r="67" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A67" s="67"/>
       <c r="B67" s="10" t="s">
         <v>22</v>
       </c>
@@ -2632,7 +2664,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="37"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
+      <c r="J67" s="67"/>
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
       <c r="M67" s="40"/>
@@ -2640,8 +2672,8 @@
       <c r="O67" s="40"/>
       <c r="P67" s="40"/>
     </row>
-    <row r="68" spans="1:16" ht="18.75">
-      <c r="A68" s="53"/>
+    <row r="68" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A68" s="67"/>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
@@ -2660,7 +2692,7 @@
       <c r="G68" s="34"/>
       <c r="H68" s="37"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
+      <c r="J68" s="67"/>
       <c r="K68" s="40"/>
       <c r="L68" s="40"/>
       <c r="M68" s="40"/>
@@ -2668,8 +2700,8 @@
       <c r="O68" s="40"/>
       <c r="P68" s="40"/>
     </row>
-    <row r="69" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A69" s="54"/>
+    <row r="69" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="A69" s="68"/>
       <c r="B69" s="31" t="s">
         <v>43</v>
       </c>
@@ -2688,7 +2720,7 @@
       <c r="G69" s="35"/>
       <c r="H69" s="38"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
+      <c r="J69" s="68"/>
       <c r="K69" s="40"/>
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
@@ -2696,8 +2728,8 @@
       <c r="O69" s="40"/>
       <c r="P69" s="40"/>
     </row>
-    <row r="70" spans="1:16" ht="18.75">
-      <c r="A70" s="52" t="s">
+    <row r="70" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A70" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="25" t="s">
@@ -2718,7 +2750,9 @@
       <c r="G70" s="33"/>
       <c r="H70" s="36"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
+      <c r="J70" s="66">
+        <v>9</v>
+      </c>
       <c r="K70" s="40"/>
       <c r="L70" s="40"/>
       <c r="M70" s="40"/>
@@ -2726,8 +2760,8 @@
       <c r="O70" s="40"/>
       <c r="P70" s="40"/>
     </row>
-    <row r="71" spans="1:16" ht="18.75">
-      <c r="A71" s="53"/>
+    <row r="71" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A71" s="67"/>
       <c r="B71" s="10" t="s">
         <v>3</v>
       </c>
@@ -2746,7 +2780,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="37"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
+      <c r="J71" s="67"/>
       <c r="K71" s="40"/>
       <c r="L71" s="40"/>
       <c r="M71" s="40"/>
@@ -2754,8 +2788,8 @@
       <c r="O71" s="40"/>
       <c r="P71" s="40"/>
     </row>
-    <row r="72" spans="1:16" ht="18.75">
-      <c r="A72" s="53"/>
+    <row r="72" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A72" s="67"/>
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
@@ -2774,7 +2808,7 @@
       <c r="G72" s="34"/>
       <c r="H72" s="37"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
+      <c r="J72" s="67"/>
       <c r="K72" s="40"/>
       <c r="L72" s="40"/>
       <c r="M72" s="40"/>
@@ -2782,8 +2816,8 @@
       <c r="O72" s="40"/>
       <c r="P72" s="40"/>
     </row>
-    <row r="73" spans="1:16" ht="18.75">
-      <c r="A73" s="53"/>
+    <row r="73" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A73" s="67"/>
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2800,7 +2834,7 @@
       <c r="G73" s="34"/>
       <c r="H73" s="37"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="40"/>
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
@@ -2808,8 +2842,8 @@
       <c r="O73" s="40"/>
       <c r="P73" s="40"/>
     </row>
-    <row r="74" spans="1:16" ht="18.75">
-      <c r="A74" s="53"/>
+    <row r="74" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A74" s="67"/>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2862,7 @@
       <c r="G74" s="34"/>
       <c r="H74" s="37"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
+      <c r="J74" s="67"/>
       <c r="K74" s="40"/>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
@@ -2836,8 +2870,8 @@
       <c r="O74" s="40"/>
       <c r="P74" s="40"/>
     </row>
-    <row r="75" spans="1:16" ht="18.75">
-      <c r="A75" s="53"/>
+    <row r="75" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A75" s="67"/>
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -2856,7 +2890,7 @@
       <c r="G75" s="34"/>
       <c r="H75" s="37"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
+      <c r="J75" s="67"/>
       <c r="K75" s="40"/>
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
@@ -2864,8 +2898,8 @@
       <c r="O75" s="40"/>
       <c r="P75" s="40"/>
     </row>
-    <row r="76" spans="1:16" ht="18.75">
-      <c r="A76" s="53"/>
+    <row r="76" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A76" s="67"/>
       <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
@@ -2884,7 +2918,7 @@
       <c r="G76" s="34"/>
       <c r="H76" s="37"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
+      <c r="J76" s="67"/>
       <c r="K76" s="40"/>
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
@@ -2892,8 +2926,8 @@
       <c r="O76" s="40"/>
       <c r="P76" s="40"/>
     </row>
-    <row r="77" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A77" s="54"/>
+    <row r="77" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A77" s="68"/>
       <c r="B77" s="27" t="s">
         <v>33</v>
       </c>
@@ -2910,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>52</v>
       </c>
       <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
+      <c r="J77" s="68"/>
       <c r="K77" s="40"/>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
@@ -2924,9 +2958,9 @@
       <c r="O77" s="40"/>
       <c r="P77" s="40"/>
     </row>
-    <row r="78" spans="1:16" ht="18.75" customHeight="1">
+    <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A78" s="69" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B78" s="46" t="s">
         <v>2</v>
@@ -2943,9 +2977,12 @@
       <c r="F78" s="44"/>
       <c r="G78" s="50"/>
       <c r="H78" s="49"/>
-    </row>
-    <row r="79" spans="1:16" ht="18.75">
-      <c r="A79" s="62"/>
+      <c r="J78" s="69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A79" s="65"/>
       <c r="B79" s="10" t="s">
         <v>3</v>
       </c>
@@ -2961,9 +2998,10 @@
       <c r="F79" s="45"/>
       <c r="G79" s="50"/>
       <c r="H79" s="41"/>
-    </row>
-    <row r="80" spans="1:16" ht="18.75">
-      <c r="A80" s="62"/>
+      <c r="J79" s="65"/>
+    </row>
+    <row r="80" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A80" s="65"/>
       <c r="B80" s="10" t="s">
         <v>0</v>
       </c>
@@ -2979,11 +3017,12 @@
       <c r="F80" s="34"/>
       <c r="G80" s="51"/>
       <c r="H80" s="41"/>
-    </row>
-    <row r="81" spans="1:8" ht="18.75">
-      <c r="A81" s="62"/>
+      <c r="J80" s="65"/>
+    </row>
+    <row r="81" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A81" s="65"/>
       <c r="B81" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C81" s="7">
         <v>1218281</v>
@@ -2997,9 +3036,10 @@
       <c r="F81" s="34"/>
       <c r="G81" s="51"/>
       <c r="H81" s="41"/>
-    </row>
-    <row r="82" spans="1:8" ht="18.75">
-      <c r="A82" s="62"/>
+      <c r="J81" s="65"/>
+    </row>
+    <row r="82" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A82" s="65"/>
       <c r="B82" s="2" t="s">
         <v>31</v>
       </c>
@@ -3015,9 +3055,10 @@
       <c r="F82" s="34"/>
       <c r="G82" s="51"/>
       <c r="H82" s="41"/>
-    </row>
-    <row r="83" spans="1:8" ht="18.75">
-      <c r="A83" s="62"/>
+      <c r="J82" s="65"/>
+    </row>
+    <row r="83" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A83" s="65"/>
       <c r="B83" s="10" t="s">
         <v>19</v>
       </c>
@@ -3033,9 +3074,10 @@
       <c r="F83" s="34"/>
       <c r="G83" s="51"/>
       <c r="H83" s="41"/>
-    </row>
-    <row r="84" spans="1:8" ht="18.75">
-      <c r="A84" s="62"/>
+      <c r="J83" s="65"/>
+    </row>
+    <row r="84" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A84" s="65"/>
       <c r="B84" s="10" t="s">
         <v>5</v>
       </c>
@@ -3051,9 +3093,10 @@
       <c r="F84" s="34"/>
       <c r="G84" s="51"/>
       <c r="H84" s="41"/>
-    </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="J84" s="65"/>
+    </row>
+    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A85" s="65"/>
       <c r="B85" s="10" t="s">
         <v>24</v>
       </c>
@@ -3067,10 +3110,11 @@
       <c r="F85" s="34"/>
       <c r="G85" s="51"/>
       <c r="H85" s="41"/>
-    </row>
-    <row r="86" spans="1:8" ht="18.75">
-      <c r="A86" s="62" t="s">
-        <v>80</v>
+      <c r="J85" s="65"/>
+    </row>
+    <row r="86" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A86" s="65" t="s">
+        <v>73</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>2</v>
@@ -3089,9 +3133,12 @@
       </c>
       <c r="G86" s="51"/>
       <c r="H86" s="41"/>
-    </row>
-    <row r="87" spans="1:8" ht="18.75">
-      <c r="A87" s="62"/>
+      <c r="J86" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A87" s="65"/>
       <c r="B87" s="10" t="s">
         <v>3</v>
       </c>
@@ -3109,9 +3156,10 @@
       </c>
       <c r="G87" s="51"/>
       <c r="H87" s="41"/>
-    </row>
-    <row r="88" spans="1:8" ht="18.75">
-      <c r="A88" s="62"/>
+      <c r="J87" s="65"/>
+    </row>
+    <row r="88" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A88" s="65"/>
       <c r="B88" s="10" t="s">
         <v>0</v>
       </c>
@@ -3129,11 +3177,12 @@
       </c>
       <c r="G88" s="51"/>
       <c r="H88" s="41"/>
-    </row>
-    <row r="89" spans="1:8" ht="18.75">
-      <c r="A89" s="62"/>
+      <c r="J88" s="65"/>
+    </row>
+    <row r="89" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A89" s="65"/>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C89" s="1">
         <v>1218281</v>
@@ -3149,9 +3198,10 @@
       </c>
       <c r="G89" s="51"/>
       <c r="H89" s="41"/>
-    </row>
-    <row r="90" spans="1:8" ht="18.75">
-      <c r="A90" s="62"/>
+      <c r="J89" s="65"/>
+    </row>
+    <row r="90" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A90" s="65"/>
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -3169,9 +3219,10 @@
       </c>
       <c r="G90" s="51"/>
       <c r="H90" s="41"/>
-    </row>
-    <row r="91" spans="1:8" ht="18.75">
-      <c r="A91" s="62"/>
+      <c r="J90" s="65"/>
+    </row>
+    <row r="91" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A91" s="65"/>
       <c r="B91" s="10" t="s">
         <v>19</v>
       </c>
@@ -3189,9 +3240,10 @@
       </c>
       <c r="G91" s="51"/>
       <c r="H91" s="41"/>
-    </row>
-    <row r="92" spans="1:8" ht="18.75">
-      <c r="A92" s="62"/>
+      <c r="J91" s="65"/>
+    </row>
+    <row r="92" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A92" s="65"/>
       <c r="B92" s="10" t="s">
         <v>5</v>
       </c>
@@ -3209,9 +3261,10 @@
       </c>
       <c r="G92" s="51"/>
       <c r="H92" s="41"/>
-    </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="J92" s="65"/>
+    </row>
+    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A93" s="65"/>
       <c r="B93" s="10" t="s">
         <v>24</v>
       </c>
@@ -3227,10 +3280,11 @@
       </c>
       <c r="G93" s="51"/>
       <c r="H93" s="41"/>
-    </row>
-    <row r="94" spans="1:8" ht="18.75">
-      <c r="A94" s="62" t="s">
-        <v>82</v>
+      <c r="J93" s="65"/>
+    </row>
+    <row r="94" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A94" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>2</v>
@@ -3249,9 +3303,15 @@
       </c>
       <c r="G94" s="51"/>
       <c r="H94" s="41"/>
-    </row>
-    <row r="95" spans="1:8" ht="18.75">
-      <c r="A95" s="62"/>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94" s="65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A95" s="65"/>
       <c r="B95" s="10" t="s">
         <v>3</v>
       </c>
@@ -3269,11 +3329,12 @@
       </c>
       <c r="G95" s="51"/>
       <c r="H95" s="41"/>
-    </row>
-    <row r="96" spans="1:8" ht="18.75">
-      <c r="A96" s="62"/>
+      <c r="J95" s="65"/>
+    </row>
+    <row r="96" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A96" s="65"/>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C96" s="1">
         <v>1021353</v>
@@ -3289,9 +3350,10 @@
       </c>
       <c r="G96" s="51"/>
       <c r="H96" s="41"/>
-    </row>
-    <row r="97" spans="1:8" ht="18.75">
-      <c r="A97" s="62"/>
+      <c r="J96" s="65"/>
+    </row>
+    <row r="97" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A97" s="65"/>
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
@@ -3309,11 +3371,12 @@
       </c>
       <c r="G97" s="51"/>
       <c r="H97" s="41"/>
-    </row>
-    <row r="98" spans="1:8" ht="18.75">
-      <c r="A98" s="62"/>
+      <c r="J97" s="65"/>
+    </row>
+    <row r="98" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A98" s="65"/>
       <c r="B98" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C98" s="7">
         <v>2302511</v>
@@ -3329,9 +3392,10 @@
       </c>
       <c r="G98" s="51"/>
       <c r="H98" s="41"/>
-    </row>
-    <row r="99" spans="1:8" ht="18.75">
-      <c r="A99" s="62"/>
+      <c r="J98" s="65"/>
+    </row>
+    <row r="99" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A99" s="65"/>
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -3349,9 +3413,10 @@
       </c>
       <c r="G99" s="51"/>
       <c r="H99" s="41"/>
-    </row>
-    <row r="100" spans="1:8" ht="18.75">
-      <c r="A100" s="62"/>
+      <c r="J99" s="65"/>
+    </row>
+    <row r="100" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A100" s="65"/>
       <c r="B100" s="10" t="s">
         <v>31</v>
       </c>
@@ -3369,9 +3434,10 @@
       </c>
       <c r="G100" s="51"/>
       <c r="H100" s="41"/>
-    </row>
-    <row r="101" spans="1:8" ht="18.75">
-      <c r="A101" s="62"/>
+      <c r="J100" s="65"/>
+    </row>
+    <row r="101" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A101" s="65"/>
       <c r="B101" s="10" t="s">
         <v>24</v>
       </c>
@@ -3387,10 +3453,11 @@
       </c>
       <c r="G101" s="51"/>
       <c r="H101" s="41"/>
-    </row>
-    <row r="102" spans="1:8" ht="18.75">
-      <c r="A102" s="59" t="s">
-        <v>83</v>
+      <c r="J101" s="65"/>
+    </row>
+    <row r="102" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A102" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>2</v>
@@ -3409,13 +3476,19 @@
       </c>
       <c r="G102" s="51"/>
       <c r="H102" s="41"/>
-    </row>
-    <row r="103" spans="1:8" ht="18.75">
-      <c r="A103" s="60"/>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102" s="62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A103" s="63"/>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="53">
         <v>1021303</v>
       </c>
       <c r="D103" s="12" t="s">
@@ -3429,11 +3502,12 @@
       </c>
       <c r="G103" s="51"/>
       <c r="H103" s="41"/>
-    </row>
-    <row r="104" spans="1:8" ht="36">
-      <c r="A104" s="60"/>
+      <c r="J103" s="63"/>
+    </row>
+    <row r="104" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A104" s="63"/>
       <c r="B104" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C104" s="7">
         <v>2405032</v>
@@ -3448,17 +3522,16 @@
         <v>1</v>
       </c>
       <c r="G104" s="51"/>
-      <c r="H104" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="18.75">
-      <c r="A105" s="60"/>
+      <c r="H104" s="42"/>
+      <c r="J104" s="63"/>
+    </row>
+    <row r="105" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A105" s="63"/>
       <c r="B105" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C105" s="7">
-        <v>2401192</v>
+        <v>2400032</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>1</v>
@@ -3471,54 +3544,57 @@
       </c>
       <c r="G105" s="51"/>
       <c r="H105" s="41"/>
-    </row>
-    <row r="106" spans="1:8" ht="18.75">
-      <c r="A106" s="60"/>
+      <c r="J105" s="63"/>
+    </row>
+    <row r="106" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A106" s="63"/>
       <c r="B106" s="10" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="C106" s="7">
-        <v>2400032</v>
+        <v>1022371</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="51"/>
       <c r="H106" s="41"/>
-    </row>
-    <row r="107" spans="1:8" ht="18.75">
-      <c r="A107" s="60"/>
+      <c r="J106" s="63"/>
+    </row>
+    <row r="107" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A107" s="63"/>
       <c r="B107" s="10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C107" s="7">
-        <v>1022371</v>
+        <v>1061021</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E107" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" s="51"/>
       <c r="H107" s="41"/>
-    </row>
-    <row r="108" spans="1:8" ht="18.75">
-      <c r="A108" s="60"/>
+      <c r="J107" s="63"/>
+    </row>
+    <row r="108" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A108" s="63"/>
       <c r="B108" s="10" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C108" s="7">
-        <v>1061021</v>
+        <v>1040211</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>1</v>
@@ -3531,35 +3607,35 @@
       </c>
       <c r="G108" s="51"/>
       <c r="H108" s="41"/>
-    </row>
-    <row r="109" spans="1:8" ht="18.75">
-      <c r="A109" s="60"/>
+      <c r="J108" s="63"/>
+    </row>
+    <row r="109" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A109" s="63"/>
       <c r="B109" s="10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C109" s="7">
-        <v>1040211</v>
+        <v>1051203</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E109" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109" s="51"/>
       <c r="H109" s="41"/>
-    </row>
-    <row r="110" spans="1:8" ht="18.75">
-      <c r="A110" s="60"/>
+      <c r="J109" s="63"/>
+    </row>
+    <row r="110" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A110" s="64"/>
       <c r="B110" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="7">
-        <v>1051203</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C110" s="7"/>
       <c r="D110" s="12" t="s">
         <v>1</v>
       </c>
@@ -3567,442 +3643,477 @@
         <v>2</v>
       </c>
       <c r="F110" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G110" s="51"/>
       <c r="H110" s="41"/>
-    </row>
-    <row r="111" spans="1:8" ht="18.75">
-      <c r="A111" s="61"/>
+      <c r="J110" s="64"/>
+    </row>
+    <row r="111" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A111" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="B111" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1011053</v>
+      </c>
       <c r="D111" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111" s="51"/>
       <c r="H111" s="41"/>
-    </row>
-    <row r="112" spans="1:8" ht="18.75">
-      <c r="A112" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="7">
-        <v>1011053</v>
+      <c r="I111">
+        <v>5</v>
+      </c>
+      <c r="J111" s="73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A112" s="63"/>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="53">
+        <v>1021303</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E112" s="3">
         <v>1</v>
       </c>
-      <c r="F112" s="34"/>
+      <c r="F112" s="34">
+        <v>1</v>
+      </c>
       <c r="G112" s="51"/>
       <c r="H112" s="41"/>
-    </row>
-    <row r="113" spans="1:8" ht="18.75">
-      <c r="A113" s="60"/>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="1">
-        <v>1021303</v>
+      <c r="J112" s="72"/>
+    </row>
+    <row r="113" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A113" s="63"/>
+      <c r="B113" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="7">
+        <v>2401192</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E113" s="3">
         <v>1</v>
       </c>
-      <c r="F113" s="34"/>
+      <c r="F113" s="34">
+        <v>1</v>
+      </c>
       <c r="G113" s="51"/>
       <c r="H113" s="41"/>
-    </row>
-    <row r="114" spans="1:8" ht="18.75">
-      <c r="A114" s="60"/>
+      <c r="J113" s="72"/>
+    </row>
+    <row r="114" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A114" s="63"/>
       <c r="B114" s="10" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C114" s="7">
-        <v>1022371</v>
+        <v>2400032</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E114" s="3">
-        <v>2</v>
-      </c>
-      <c r="F114" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="F114" s="34">
+        <v>1</v>
+      </c>
       <c r="G114" s="51"/>
       <c r="H114" s="41"/>
-    </row>
-    <row r="115" spans="1:8" ht="18.75">
-      <c r="A115" s="60"/>
+      <c r="J114" s="72"/>
+    </row>
+    <row r="115" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A115" s="63"/>
       <c r="B115" s="10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C115" s="7">
-        <v>1031103</v>
+        <v>1022371</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="F115" s="34">
+        <v>2</v>
+      </c>
       <c r="G115" s="51"/>
       <c r="H115" s="41"/>
-    </row>
-    <row r="116" spans="1:8" ht="18.75">
-      <c r="A116" s="60"/>
+      <c r="J115" s="72"/>
+    </row>
+    <row r="116" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A116" s="63"/>
       <c r="B116" s="10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C116" s="7">
-        <v>1032101</v>
+        <v>1061021</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E116" s="3">
-        <v>2</v>
-      </c>
-      <c r="F116" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F116" s="34">
+        <v>3</v>
+      </c>
       <c r="G116" s="51"/>
       <c r="H116" s="41"/>
-    </row>
-    <row r="117" spans="1:8" ht="18.75">
-      <c r="A117" s="60"/>
+      <c r="J116" s="72"/>
+    </row>
+    <row r="117" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A117" s="63"/>
       <c r="B117" s="10" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C117" s="7">
-        <v>1061021</v>
+        <v>1040211</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E117" s="3">
         <v>3</v>
       </c>
-      <c r="F117" s="34"/>
+      <c r="F117" s="34">
+        <v>3</v>
+      </c>
       <c r="G117" s="51"/>
       <c r="H117" s="41"/>
-    </row>
-    <row r="118" spans="1:8" ht="18.75">
-      <c r="A118" s="60"/>
+      <c r="J117" s="72"/>
+    </row>
+    <row r="118" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A118" s="63"/>
       <c r="B118" s="10" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C118" s="7">
-        <v>2715152</v>
+        <v>1051203</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="F118" s="34">
+        <v>2</v>
+      </c>
       <c r="G118" s="51"/>
       <c r="H118" s="41"/>
-    </row>
-    <row r="119" spans="1:8" ht="18.75">
-      <c r="A119" s="60"/>
+      <c r="J118" s="72"/>
+    </row>
+    <row r="119" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A119" s="64"/>
       <c r="B119" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C119" s="7">
-        <v>2739411</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C119" s="7"/>
       <c r="D119" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="F119" s="34">
+        <v>3</v>
+      </c>
       <c r="G119" s="51"/>
       <c r="H119" s="41"/>
-    </row>
-    <row r="120" spans="1:8" ht="18.75">
-      <c r="A120" s="60"/>
-      <c r="B120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1040211</v>
+      <c r="J119" s="74"/>
+    </row>
+    <row r="120" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A120" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="7">
+        <v>1011053</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E120" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="51"/>
       <c r="H120" s="41"/>
-    </row>
-    <row r="121" spans="1:8" ht="18.75">
-      <c r="A121" s="61"/>
-      <c r="B121" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="7"/>
+      <c r="J120" s="62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A121" s="63"/>
+      <c r="B121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1021303</v>
+      </c>
       <c r="D121" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E121" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="51"/>
       <c r="H121" s="41"/>
-    </row>
-    <row r="122" spans="1:8" ht="18.75">
-      <c r="A122" s="63" t="s">
-        <v>69</v>
-      </c>
+      <c r="J121" s="63"/>
+    </row>
+    <row r="122" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A122" s="63"/>
       <c r="B122" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C122" s="7">
-        <v>1011053</v>
+        <v>1022371</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E122" s="3">
-        <v>1</v>
-      </c>
-      <c r="F122" s="34">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F122" s="34"/>
       <c r="G122" s="51"/>
       <c r="H122" s="41"/>
-    </row>
-    <row r="123" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A123" s="64"/>
+      <c r="J122" s="63"/>
+    </row>
+    <row r="123" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A123" s="63"/>
       <c r="B123" s="10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C123" s="7">
-        <v>1021303</v>
+        <v>1031103</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="34">
-        <v>1</v>
-      </c>
+      <c r="F123" s="34"/>
       <c r="G123" s="51"/>
-      <c r="H123" s="41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A124" s="64"/>
+      <c r="H123" s="41"/>
+      <c r="J123" s="63"/>
+    </row>
+    <row r="124" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A124" s="63"/>
       <c r="B124" s="10" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C124" s="7">
-        <v>1022371</v>
+        <v>1032101</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E124" s="3">
-        <v>3</v>
-      </c>
-      <c r="F124" s="34">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F124" s="34"/>
       <c r="G124" s="51"/>
       <c r="H124" s="41"/>
-    </row>
-    <row r="125" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A125" s="64"/>
+      <c r="J124" s="63"/>
+    </row>
+    <row r="125" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A125" s="63"/>
       <c r="B125" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C125" s="7">
-        <v>1031103</v>
+        <v>1061021</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E125" s="3">
-        <v>1</v>
-      </c>
-      <c r="F125" s="34">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F125" s="34"/>
       <c r="G125" s="51"/>
       <c r="H125" s="41"/>
-    </row>
-    <row r="126" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A126" s="64"/>
+      <c r="J125" s="63"/>
+    </row>
+    <row r="126" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A126" s="63"/>
       <c r="B126" s="10" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C126" s="7">
-        <v>2013701</v>
+        <v>2715152</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E126" s="3">
-        <v>3</v>
-      </c>
-      <c r="F126" s="34">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F126" s="34"/>
       <c r="G126" s="51"/>
       <c r="H126" s="41"/>
-    </row>
-    <row r="127" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A127" s="64"/>
-      <c r="B127" s="2" t="s">
+      <c r="J126" s="63"/>
+    </row>
+    <row r="127" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A127" s="63"/>
+      <c r="B127" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="1">
-        <v>3912231</v>
+      <c r="C127" s="7">
+        <v>2739411</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
-      <c r="F127" s="34">
-        <v>1</v>
-      </c>
+      <c r="F127" s="34"/>
       <c r="G127" s="51"/>
       <c r="H127" s="41"/>
-    </row>
-    <row r="128" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A128" s="64"/>
-      <c r="B128" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128" s="7">
-        <v>3912113</v>
+      <c r="J127" s="63"/>
+    </row>
+    <row r="128" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A128" s="63"/>
+      <c r="B128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1040211</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E128" s="3">
-        <v>1</v>
-      </c>
-      <c r="F128" s="34">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F128" s="34"/>
       <c r="G128" s="51"/>
       <c r="H128" s="41"/>
-    </row>
-    <row r="129" spans="1:8" ht="19.5" customHeight="1">
+      <c r="J128" s="63"/>
+    </row>
+    <row r="129" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
       <c r="A129" s="64"/>
       <c r="B129" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C129" s="7">
-        <v>1032101</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C129" s="7"/>
       <c r="D129" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E129" s="3">
-        <v>3</v>
-      </c>
-      <c r="F129" s="34">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F129" s="34"/>
       <c r="G129" s="51"/>
       <c r="H129" s="41"/>
-    </row>
-    <row r="130" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A130" s="64"/>
+      <c r="J129" s="64"/>
+    </row>
+    <row r="130" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A130" s="54" t="s">
+        <v>83</v>
+      </c>
       <c r="B130" s="10" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C130" s="7">
-        <v>1061021</v>
+        <v>1011053</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E130" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F130" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G130" s="51"/>
       <c r="H130" s="41"/>
-    </row>
-    <row r="131" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A131" s="65"/>
+      <c r="I130" t="s">
+        <v>84</v>
+      </c>
+      <c r="J130" s="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A131" s="55"/>
       <c r="B131" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1021303</v>
+      </c>
       <c r="D131" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E131" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G131" s="51"/>
-      <c r="H131" s="41"/>
-    </row>
-    <row r="132" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A132" s="63" t="s">
-        <v>66</v>
-      </c>
+      <c r="H131" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J131" s="55"/>
+    </row>
+    <row r="132" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A132" s="55"/>
       <c r="B132" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C132" s="7">
-        <v>1011053</v>
+        <v>1022371</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E132" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F132" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G132" s="51"/>
-      <c r="H132" s="41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A133" s="64"/>
+      <c r="H132" s="41"/>
+      <c r="J132" s="55"/>
+    </row>
+    <row r="133" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A133" s="55"/>
       <c r="B133" s="10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C133" s="7">
-        <v>1021303</v>
+        <v>1031103</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>1</v>
@@ -4015,34 +4126,36 @@
       </c>
       <c r="G133" s="51"/>
       <c r="H133" s="41"/>
-    </row>
-    <row r="134" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A134" s="64"/>
+      <c r="J133" s="55"/>
+    </row>
+    <row r="134" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A134" s="55"/>
       <c r="B134" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C134" s="7">
-        <v>1022371</v>
+        <v>2013701</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E134" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F134" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G134" s="51"/>
       <c r="H134" s="41"/>
-    </row>
-    <row r="135" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A135" s="64"/>
-      <c r="B135" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135" s="7">
-        <v>1031103</v>
+      <c r="J134" s="55"/>
+    </row>
+    <row r="135" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A135" s="55"/>
+      <c r="B135" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3912231</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>1</v>
@@ -4055,54 +4168,57 @@
       </c>
       <c r="G135" s="51"/>
       <c r="H135" s="41"/>
-    </row>
-    <row r="136" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A136" s="64"/>
+      <c r="J135" s="55"/>
+    </row>
+    <row r="136" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A136" s="55"/>
       <c r="B136" s="10" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C136" s="7">
-        <v>2013701</v>
+        <v>3912113</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E136" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F136" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" s="51"/>
       <c r="H136" s="41"/>
-    </row>
-    <row r="137" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A137" s="64"/>
-      <c r="B137" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C137" s="1">
-        <v>3912231</v>
+      <c r="J136" s="55"/>
+    </row>
+    <row r="137" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A137" s="55"/>
+      <c r="B137" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1032101</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G137" s="51"/>
       <c r="H137" s="41"/>
-    </row>
-    <row r="138" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A138" s="64"/>
+      <c r="J137" s="55"/>
+    </row>
+    <row r="138" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A138" s="55"/>
       <c r="B138" s="10" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C138" s="7">
-        <v>1032101</v>
+        <v>1061021</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>1</v>
@@ -4115,15 +4231,14 @@
       </c>
       <c r="G138" s="51"/>
       <c r="H138" s="41"/>
-    </row>
-    <row r="139" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A139" s="64"/>
+      <c r="J138" s="55"/>
+    </row>
+    <row r="139" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A139" s="56"/>
       <c r="B139" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" s="7">
-        <v>2010712</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C139" s="7"/>
       <c r="D139" s="12" t="s">
         <v>1</v>
       </c>
@@ -4135,354 +4250,384 @@
       </c>
       <c r="G139" s="51"/>
       <c r="H139" s="41"/>
-    </row>
-    <row r="140" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A140" s="64"/>
+      <c r="J139" s="56"/>
+    </row>
+    <row r="140" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A140" s="54" t="s">
+        <v>85</v>
+      </c>
       <c r="B140" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C140" s="7">
-        <v>1040211</v>
+        <v>1011053</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E140" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F140" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G140" s="51"/>
-      <c r="H140" s="41"/>
-    </row>
-    <row r="141" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A141" s="64"/>
+      <c r="H140" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I140" t="s">
+        <v>86</v>
+      </c>
+      <c r="J140" s="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A141" s="55"/>
       <c r="B141" s="10" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C141" s="7">
-        <v>1061021</v>
+        <v>1021303</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E141" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F141" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G141" s="51"/>
       <c r="H141" s="41"/>
-    </row>
-    <row r="142" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A142" s="65"/>
+      <c r="J141" s="55"/>
+    </row>
+    <row r="142" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A142" s="55"/>
       <c r="B142" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C142" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C142" s="7">
+        <v>1022371</v>
+      </c>
       <c r="D142" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E142" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" s="51"/>
       <c r="H142" s="41"/>
-    </row>
-    <row r="143" spans="1:8" ht="18.75">
-      <c r="A143" s="63" t="s">
-        <v>62</v>
-      </c>
+      <c r="J142" s="55"/>
+    </row>
+    <row r="143" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A143" s="55"/>
       <c r="B143" s="10" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C143" s="7">
-        <v>1011053</v>
+        <v>1031103</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E143" s="3">
         <v>1</v>
       </c>
-      <c r="F143" s="34"/>
+      <c r="F143" s="34">
+        <v>1</v>
+      </c>
       <c r="G143" s="51"/>
       <c r="H143" s="41"/>
-    </row>
-    <row r="144" spans="1:8" ht="18.75">
-      <c r="A144" s="64"/>
+      <c r="J143" s="55"/>
+    </row>
+    <row r="144" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A144" s="55"/>
       <c r="B144" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C144" s="7">
-        <v>1021303</v>
+        <v>2013701</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E144" s="3">
-        <v>1</v>
-      </c>
-      <c r="F144" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F144" s="34">
+        <v>3</v>
+      </c>
       <c r="G144" s="51"/>
       <c r="H144" s="41"/>
-    </row>
-    <row r="145" spans="1:8" ht="18.75">
-      <c r="A145" s="64"/>
-      <c r="B145" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145" s="7">
-        <v>1031103</v>
+      <c r="J144" s="55"/>
+    </row>
+    <row r="145" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A145" s="55"/>
+      <c r="B145" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3912231</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E145" s="3">
         <v>1</v>
       </c>
-      <c r="F145" s="34"/>
+      <c r="F145" s="34">
+        <v>1</v>
+      </c>
       <c r="G145" s="51"/>
       <c r="H145" s="41"/>
-    </row>
-    <row r="146" spans="1:8" ht="18.75">
-      <c r="A146" s="64"/>
-      <c r="B146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" s="1">
-        <v>2010712</v>
+      <c r="J145" s="55"/>
+    </row>
+    <row r="146" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A146" s="55"/>
+      <c r="B146" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C146" s="7">
+        <v>1032101</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E146" s="3">
-        <v>2</v>
-      </c>
-      <c r="F146" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F146" s="34">
+        <v>3</v>
+      </c>
       <c r="G146" s="51"/>
       <c r="H146" s="41"/>
-    </row>
-    <row r="147" spans="1:8" ht="18.75">
-      <c r="A147" s="64"/>
+      <c r="J146" s="55"/>
+    </row>
+    <row r="147" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A147" s="55"/>
       <c r="B147" s="10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C147" s="7">
-        <v>1061021</v>
+        <v>2010712</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E147" s="3">
-        <v>3</v>
-      </c>
-      <c r="F147" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="F147" s="34">
+        <v>2</v>
+      </c>
       <c r="G147" s="51"/>
       <c r="H147" s="41"/>
-    </row>
-    <row r="148" spans="1:8" ht="18.75">
-      <c r="A148" s="64"/>
+      <c r="J147" s="55"/>
+    </row>
+    <row r="148" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A148" s="55"/>
       <c r="B148" s="10" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C148" s="7">
-        <v>1051203</v>
+        <v>1040211</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E148" s="3">
-        <v>2</v>
-      </c>
-      <c r="F148" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F148" s="34">
+        <v>3</v>
+      </c>
       <c r="G148" s="51"/>
       <c r="H148" s="41"/>
-    </row>
-    <row r="149" spans="1:8" ht="18.75">
-      <c r="A149" s="65"/>
+      <c r="J148" s="55"/>
+    </row>
+    <row r="149" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A149" s="55"/>
       <c r="B149" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C149" s="7">
+        <v>1061021</v>
+      </c>
       <c r="D149" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E149" s="3">
-        <v>2</v>
-      </c>
-      <c r="F149" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F149" s="34">
+        <v>3</v>
+      </c>
       <c r="G149" s="51"/>
       <c r="H149" s="41"/>
-    </row>
-    <row r="150" spans="1:8" ht="18.75">
-      <c r="A150" s="66" t="s">
-        <v>84</v>
-      </c>
+      <c r="J149" s="55"/>
+    </row>
+    <row r="150" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A150" s="56"/>
       <c r="B150" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="7">
-        <v>1011053</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C150" s="7"/>
       <c r="D150" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E150" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="51"/>
       <c r="H150" s="41"/>
-    </row>
-    <row r="151" spans="1:8" ht="18.75">
-      <c r="A151" s="67"/>
+      <c r="J150" s="56"/>
+    </row>
+    <row r="151" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A151" s="54" t="s">
+        <v>58</v>
+      </c>
       <c r="B151" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" s="7">
-        <v>1021303</v>
+        <v>1011053</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E151" s="3">
         <v>1</v>
       </c>
-      <c r="F151" s="34">
-        <v>1</v>
-      </c>
+      <c r="F151" s="34"/>
       <c r="G151" s="51"/>
       <c r="H151" s="41"/>
-    </row>
-    <row r="152" spans="1:8" ht="18.75">
-      <c r="A152" s="67"/>
+      <c r="J151" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A152" s="55"/>
       <c r="B152" s="10" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C152" s="7">
-        <v>1031103</v>
+        <v>1021303</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E152" s="3">
         <v>1</v>
       </c>
-      <c r="F152" s="34">
-        <v>1</v>
-      </c>
+      <c r="F152" s="34"/>
       <c r="G152" s="51"/>
       <c r="H152" s="41"/>
-    </row>
-    <row r="153" spans="1:8" ht="18.75">
-      <c r="A153" s="67"/>
-      <c r="B153" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C153" s="1">
-        <v>3221713</v>
+      <c r="J152" s="55"/>
+    </row>
+    <row r="153" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A153" s="55"/>
+      <c r="B153" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="7">
+        <v>1031103</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E153" s="3">
         <v>1</v>
       </c>
-      <c r="F153" s="34">
-        <v>1</v>
-      </c>
+      <c r="F153" s="34"/>
       <c r="G153" s="51"/>
       <c r="H153" s="41"/>
-    </row>
-    <row r="154" spans="1:8" ht="18.75">
-      <c r="A154" s="67"/>
-      <c r="B154" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="7">
-        <v>2013701</v>
+      <c r="J153" s="55"/>
+    </row>
+    <row r="154" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A154" s="55"/>
+      <c r="B154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2010712</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E154" s="3">
         <v>2</v>
       </c>
-      <c r="F154" s="34">
-        <v>3</v>
-      </c>
+      <c r="F154" s="34"/>
       <c r="G154" s="51"/>
       <c r="H154" s="41"/>
-    </row>
-    <row r="155" spans="1:8" ht="18.75">
-      <c r="A155" s="67"/>
+      <c r="J154" s="55"/>
+    </row>
+    <row r="155" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A155" s="55"/>
       <c r="B155" s="10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C155" s="7">
-        <v>1032101</v>
+        <v>1061021</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E155" s="3">
-        <v>2</v>
-      </c>
-      <c r="F155" s="34">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F155" s="34"/>
       <c r="G155" s="51"/>
       <c r="H155" s="41"/>
-    </row>
-    <row r="156" spans="1:8" ht="18.75">
-      <c r="A156" s="67"/>
+      <c r="J155" s="55"/>
+    </row>
+    <row r="156" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A156" s="55"/>
       <c r="B156" s="10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C156" s="7">
-        <v>1040211</v>
+        <v>1051203</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E156" s="3">
         <v>2</v>
       </c>
-      <c r="F156" s="34">
-        <v>3</v>
-      </c>
+      <c r="F156" s="34"/>
       <c r="G156" s="51"/>
       <c r="H156" s="41"/>
-    </row>
-    <row r="157" spans="1:8" ht="18.75">
-      <c r="A157" s="68"/>
+      <c r="J156" s="55"/>
+    </row>
+    <row r="157" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A157" s="56"/>
       <c r="B157" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E157" s="3">
         <v>2</v>
       </c>
-      <c r="F157" s="34">
-        <v>2</v>
-      </c>
+      <c r="F157" s="34"/>
       <c r="G157" s="51"/>
       <c r="H157" s="41"/>
-    </row>
-    <row r="158" spans="1:8" ht="18.75">
+      <c r="J157" s="56"/>
+    </row>
+    <row r="158" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
       <c r="A158" s="57" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>2</v>
@@ -4501,8 +4646,14 @@
       </c>
       <c r="G158" s="51"/>
       <c r="H158" s="41"/>
-    </row>
-    <row r="159" spans="1:8" ht="18.75">
+      <c r="I158">
+        <v>5</v>
+      </c>
+      <c r="J158" s="57">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
       <c r="A159" s="58"/>
       <c r="B159" s="10" t="s">
         <v>3</v>
@@ -4521,13 +4672,14 @@
       </c>
       <c r="G159" s="51"/>
       <c r="H159" s="41"/>
-    </row>
-    <row r="160" spans="1:8" ht="18.75">
+      <c r="J159" s="58"/>
+    </row>
+    <row r="160" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
       <c r="A160" s="58"/>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="7">
         <v>1031103</v>
       </c>
       <c r="D160" s="12" t="s">
@@ -4541,89 +4693,94 @@
       </c>
       <c r="G160" s="51"/>
       <c r="H160" s="41"/>
-    </row>
-    <row r="161" spans="1:8" ht="18.75">
+      <c r="J160" s="58"/>
+    </row>
+    <row r="161" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
       <c r="A161" s="58"/>
-      <c r="B161" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" s="7">
-        <v>1022371</v>
+      <c r="B161" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3221713</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E161" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F161" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G161" s="51"/>
       <c r="H161" s="41"/>
-    </row>
-    <row r="162" spans="1:8" ht="18.75">
+      <c r="J161" s="58"/>
+    </row>
+    <row r="162" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
       <c r="A162" s="58"/>
       <c r="B162" s="10" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C162" s="7">
-        <v>3413032</v>
+        <v>2013701</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E162" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F162" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G162" s="51"/>
       <c r="H162" s="41"/>
-    </row>
-    <row r="163" spans="1:8" ht="18.75">
+      <c r="J162" s="58"/>
+    </row>
+    <row r="163" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
       <c r="A163" s="58"/>
       <c r="B163" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C163" s="7">
-        <v>3413013</v>
+        <v>1032101</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E163" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G163" s="51"/>
       <c r="H163" s="41"/>
-    </row>
-    <row r="164" spans="1:8" ht="18.75">
+      <c r="J163" s="58"/>
+    </row>
+    <row r="164" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
       <c r="A164" s="58"/>
       <c r="B164" s="10" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C164" s="7">
-        <v>1061021</v>
+        <v>1040211</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E164" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F164" s="34">
         <v>3</v>
       </c>
       <c r="G164" s="51"/>
       <c r="H164" s="41"/>
-    </row>
-    <row r="165" spans="1:8" ht="18.75">
-      <c r="A165" s="58"/>
+      <c r="J164" s="58"/>
+    </row>
+    <row r="165" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A165" s="59"/>
       <c r="B165" s="10" t="s">
         <v>24</v>
       </c>
@@ -4637,23 +4794,194 @@
       <c r="F165" s="34">
         <v>2</v>
       </c>
-      <c r="G165" s="34"/>
-      <c r="H165" s="43"/>
+      <c r="G165" s="51"/>
+      <c r="H165" s="41"/>
+      <c r="J165" s="59"/>
+    </row>
+    <row r="166" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A166" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="7">
+        <v>1011053</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" s="34">
+        <v>1</v>
+      </c>
+      <c r="G166" s="51"/>
+      <c r="H166" s="41"/>
+      <c r="J166" s="60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A167" s="61"/>
+      <c r="B167" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="7">
+        <v>1021303</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="34">
+        <v>1</v>
+      </c>
+      <c r="G167" s="51"/>
+      <c r="H167" s="41"/>
+      <c r="J167" s="61"/>
+    </row>
+    <row r="168" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A168" s="61"/>
+      <c r="B168" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1031103</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="34">
+        <v>1</v>
+      </c>
+      <c r="G168" s="51"/>
+      <c r="H168" s="41"/>
+      <c r="J168" s="61"/>
+    </row>
+    <row r="169" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A169" s="61"/>
+      <c r="B169" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="7">
+        <v>1022371</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="3">
+        <v>3</v>
+      </c>
+      <c r="F169" s="34">
+        <v>3</v>
+      </c>
+      <c r="G169" s="51"/>
+      <c r="H169" s="41"/>
+      <c r="J169" s="61"/>
+    </row>
+    <row r="170" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A170" s="61"/>
+      <c r="B170" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="7">
+        <v>3413032</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="34">
+        <v>1</v>
+      </c>
+      <c r="G170" s="51"/>
+      <c r="H170" s="41"/>
+      <c r="J170" s="61"/>
+    </row>
+    <row r="171" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A171" s="61"/>
+      <c r="B171" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="7">
+        <v>3413013</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F171" s="34">
+        <v>1</v>
+      </c>
+      <c r="G171" s="51"/>
+      <c r="H171" s="41"/>
+      <c r="J171" s="61"/>
+    </row>
+    <row r="172" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A172" s="61"/>
+      <c r="B172" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="7">
+        <v>1061021</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="3">
+        <v>3</v>
+      </c>
+      <c r="F172" s="34">
+        <v>3</v>
+      </c>
+      <c r="G172" s="51"/>
+      <c r="H172" s="41"/>
+      <c r="J172" s="61"/>
+    </row>
+    <row r="173" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A173" s="61"/>
+      <c r="B173" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173" s="3">
+        <v>2</v>
+      </c>
+      <c r="F173" s="34">
+        <v>2</v>
+      </c>
+      <c r="G173" s="34"/>
+      <c r="H173" s="43"/>
+      <c r="J173" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="41">
     <mergeCell ref="A52:A60"/>
     <mergeCell ref="A70:A77"/>
     <mergeCell ref="H61:H62"/>
     <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A166:A173"/>
+    <mergeCell ref="A102:A110"/>
+    <mergeCell ref="A120:A129"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="A151:A157"/>
+    <mergeCell ref="A130:A139"/>
     <mergeCell ref="A158:A165"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="A143:A149"/>
-    <mergeCell ref="A122:A131"/>
-    <mergeCell ref="A150:A157"/>
-    <mergeCell ref="A132:A142"/>
+    <mergeCell ref="A140:A150"/>
     <mergeCell ref="A86:A93"/>
     <mergeCell ref="A78:A85"/>
     <mergeCell ref="A1:A8"/>
@@ -4662,6 +4990,27 @@
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A27:A35"/>
     <mergeCell ref="A18:A26"/>
+    <mergeCell ref="J1:J8"/>
+    <mergeCell ref="J9:J17"/>
+    <mergeCell ref="J18:J26"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="J52:J60"/>
+    <mergeCell ref="J61:J69"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="J78:J85"/>
+    <mergeCell ref="J86:J93"/>
+    <mergeCell ref="J94:J101"/>
+    <mergeCell ref="J102:J110"/>
+    <mergeCell ref="J120:J129"/>
+    <mergeCell ref="J130:J139"/>
+    <mergeCell ref="J111:J119"/>
+    <mergeCell ref="J140:J150"/>
+    <mergeCell ref="J151:J157"/>
+    <mergeCell ref="J158:J165"/>
+    <mergeCell ref="J166:J173"/>
+    <mergeCell ref="A111:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/conf/colleagereqs.xlsx
+++ b/conf/colleagereqs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95129032\Desktop\jvm\automata-newentries\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\apps\Job\automata-newentries\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="90">
   <si>
     <t>مبانی کامپیوتر و برنامه سازی</t>
   </si>
@@ -185,62 +185,6 @@
     <t>فقط گروه های 1-2-3</t>
   </si>
   <si>
-    <r>
-      <t>مهندسی مکانیک</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی شیمی</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی هوافضا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی کامپیوتر</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>زمین شناسی عمومی ساختمانی</t>
   </si>
   <si>
@@ -268,36 +212,24 @@
     <t>برای نصف دانشجویان</t>
   </si>
   <si>
-    <t>مهندسی مواد و متالورژی گروه دوم</t>
-  </si>
-  <si>
     <t>بلور شناسی و آزمایشگاه</t>
   </si>
   <si>
     <t xml:space="preserve">برای نصف دانشجویان </t>
   </si>
   <si>
-    <t xml:space="preserve"> مهندسی مواد و متالورژی گروه اول</t>
-  </si>
-  <si>
     <t>آشنایی با رشته مهندسی معدن</t>
   </si>
   <si>
     <t>زمین شناسی عمومی</t>
   </si>
   <si>
-    <t xml:space="preserve"> مهندسی معدن</t>
-  </si>
-  <si>
     <t>رسم فنی و نقشه کشی ساختمان</t>
   </si>
   <si>
     <t>مهندسی محیط زیست</t>
   </si>
   <si>
-    <t>برای نصف دانشجویان درس زمین شناسی و نصف دیگر درس محیط زیست اخذ گردد</t>
-  </si>
-  <si>
     <t>زمین شناسی مهندسی</t>
   </si>
   <si>
@@ -316,50 +248,6 @@
     <t>ریاضیات و کاربردها</t>
   </si>
   <si>
-    <r>
-      <t>مهندسی برق</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی عمران</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="B Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>مهندسی پلیمر و رنگ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>2,4</t>
   </si>
   <si>
@@ -370,13 +258,49 @@
   </si>
   <si>
     <t>1,2,3</t>
+  </si>
+  <si>
+    <t>مهندسی هوافضا</t>
+  </si>
+  <si>
+    <t>مهندسی کامپیوتر</t>
+  </si>
+  <si>
+    <t>مهندسی برق</t>
+  </si>
+  <si>
+    <t>مهندسی عمران</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مهندسی مواد و متالورژی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> گروه اول</t>
+  </si>
+  <si>
+    <t>گروه دوم</t>
+  </si>
+  <si>
+    <t>مهندسی پلیمر و رنگ</t>
+  </si>
+  <si>
+    <t>مهندسی شیمی</t>
+  </si>
+  <si>
+    <t>مهندسی مکانیک</t>
+  </si>
+  <si>
+    <t>مهندسی معدن</t>
+  </si>
+  <si>
+    <t>مهندسی مواد و متالورژی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,22 +328,8 @@
       <charset val="178"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -738,11 +648,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,7 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -881,6 +809,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,6 +867,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1215,25 +1158,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P165"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166:XFD178"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:A150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.100000000000001" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.89453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.41796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.47265625" customWidth="1"/>
+    <col min="4" max="4" width="26.15625" customWidth="1"/>
+    <col min="5" max="5" width="22.68359375" customWidth="1"/>
+    <col min="6" max="7" width="26.68359375" customWidth="1"/>
+    <col min="8" max="8" width="10.578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.734375" customWidth="1"/>
+    <col min="10" max="10" width="11.62890625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -1255,9 +1200,12 @@
       <c r="H1" s="36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="53"/>
+      <c r="J1" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A2" s="55"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1273,9 +1221,10 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
       <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="53"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A3" s="55"/>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1291,9 +1240,10 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="53"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A4" s="55"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1309,9 +1259,10 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75">
-      <c r="A5" s="53"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A5" s="55"/>
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1327,9 +1278,10 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75">
-      <c r="A6" s="53"/>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A6" s="55"/>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1345,9 +1297,10 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="53"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A7" s="55"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1361,9 +1314,10 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A8" s="54"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="A8" s="56"/>
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1379,9 +1333,10 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75">
-      <c r="A9" s="52" t="s">
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A9" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1405,9 +1360,12 @@
       <c r="H9" s="36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75">
-      <c r="A10" s="53"/>
+      <c r="J9" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A10" s="55"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1425,9 +1383,10 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75">
-      <c r="A11" s="53"/>
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A11" s="55"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1445,9 +1404,10 @@
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75">
-      <c r="A12" s="53"/>
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A12" s="55"/>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1465,9 +1425,10 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" s="53"/>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1485,9 +1446,10 @@
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75">
-      <c r="A14" s="53"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A14" s="55"/>
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1505,9 +1467,10 @@
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75">
-      <c r="A15" s="53"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A15" s="55"/>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
@@ -1525,9 +1488,10 @@
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75">
-      <c r="A16" s="53"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A16" s="55"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1543,9 +1507,10 @@
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A17" s="54"/>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="A17" s="56"/>
       <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
@@ -1563,10 +1528,11 @@
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75">
-      <c r="A18" s="52" t="s">
-        <v>54</v>
+      <c r="J17" s="56"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A18" s="54" t="s">
+        <v>86</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>41</v>
@@ -1589,9 +1555,15 @@
       <c r="H18" s="36" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75">
-      <c r="A19" s="53"/>
+      <c r="I18" s="52">
+        <v>5</v>
+      </c>
+      <c r="J18" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A19" s="55"/>
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1609,9 +1581,10 @@
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75">
-      <c r="A20" s="53"/>
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A20" s="55"/>
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1628,14 +1601,15 @@
         <v>1</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75">
-      <c r="A21" s="53"/>
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A21" s="55"/>
       <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
@@ -1653,9 +1627,10 @@
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75">
-      <c r="A22" s="53"/>
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A22" s="55"/>
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1672,14 +1647,15 @@
         <v>1</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="18.75">
-      <c r="A23" s="53"/>
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A23" s="55"/>
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1697,9 +1673,10 @@
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75">
-      <c r="A24" s="53"/>
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A24" s="55"/>
       <c r="B24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1717,9 +1694,10 @@
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="37"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75">
-      <c r="A25" s="53"/>
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A25" s="55"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1737,9 +1715,10 @@
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A26" s="54"/>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A26" s="56"/>
       <c r="B26" s="23" t="s">
         <v>29</v>
       </c>
@@ -1755,9 +1734,10 @@
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75">
-      <c r="A27" s="52" t="s">
+      <c r="J26" s="56"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A27" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -1777,9 +1757,12 @@
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75">
-      <c r="A28" s="53"/>
+      <c r="J27" s="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A28" s="55"/>
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1797,9 +1780,10 @@
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75">
-      <c r="A29" s="53"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A29" s="55"/>
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
@@ -1817,9 +1801,10 @@
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75">
-      <c r="A30" s="53"/>
+      <c r="J29" s="55"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A30" s="55"/>
       <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
@@ -1837,9 +1822,10 @@
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="37"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75">
-      <c r="A31" s="53"/>
+      <c r="J30" s="55"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A31" s="55"/>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1857,9 +1843,10 @@
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75">
-      <c r="A32" s="53"/>
+      <c r="J31" s="55"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A32" s="55"/>
       <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1877,9 +1864,10 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75">
-      <c r="A33" s="53"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A33" s="55"/>
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1897,9 +1885,10 @@
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="37"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75">
-      <c r="A34" s="53"/>
+      <c r="J33" s="55"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A34" s="55"/>
       <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
@@ -1917,9 +1906,10 @@
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A35" s="54"/>
+      <c r="J34" s="55"/>
+    </row>
+    <row r="35" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A35" s="56"/>
       <c r="B35" s="27" t="s">
         <v>20</v>
       </c>
@@ -1935,10 +1925,11 @@
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75">
-      <c r="A36" s="52" t="s">
-        <v>53</v>
+      <c r="J35" s="56"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A36" s="54" t="s">
+        <v>87</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>16</v>
@@ -1957,9 +1948,15 @@
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="36"/>
-    </row>
-    <row r="37" spans="1:8" ht="36">
-      <c r="A37" s="53"/>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="136.80000000000001" x14ac:dyDescent="1">
+      <c r="A37" s="55"/>
       <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
@@ -1976,14 +1973,15 @@
         <v>1</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H37" s="39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.75">
-      <c r="A38" s="53"/>
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A38" s="55"/>
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -2001,9 +1999,10 @@
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75">
-      <c r="A39" s="53"/>
+      <c r="J38" s="55"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A39" s="55"/>
       <c r="B39" s="6" t="s">
         <v>27</v>
       </c>
@@ -2021,9 +2020,10 @@
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75">
-      <c r="A40" s="53"/>
+      <c r="J39" s="55"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A40" s="55"/>
       <c r="B40" s="10" t="s">
         <v>26</v>
       </c>
@@ -2041,9 +2041,10 @@
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="37"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75">
-      <c r="A41" s="53"/>
+      <c r="J40" s="55"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A41" s="55"/>
       <c r="B41" s="6" t="s">
         <v>14</v>
       </c>
@@ -2061,9 +2062,10 @@
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="37"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75">
-      <c r="A42" s="53"/>
+      <c r="J41" s="55"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A42" s="55"/>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2081,9 +2083,10 @@
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="37"/>
-    </row>
-    <row r="43" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A43" s="54"/>
+      <c r="J42" s="55"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A43" s="56"/>
       <c r="B43" s="28" t="s">
         <v>15</v>
       </c>
@@ -2099,10 +2102,11 @@
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="38"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.75">
-      <c r="A44" s="52" t="s">
-        <v>55</v>
+      <c r="J43" s="56"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A44" s="54" t="s">
+        <v>78</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>9</v>
@@ -2121,9 +2125,15 @@
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="36"/>
-    </row>
-    <row r="45" spans="1:8" ht="18.75">
-      <c r="A45" s="53"/>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A45" s="55"/>
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
@@ -2141,9 +2151,10 @@
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="37"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.75">
-      <c r="A46" s="53"/>
+      <c r="J45" s="55"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A46" s="55"/>
       <c r="B46" s="6" t="s">
         <v>11</v>
       </c>
@@ -2161,9 +2172,10 @@
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="37"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.75">
-      <c r="A47" s="53"/>
+      <c r="J46" s="55"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A47" s="55"/>
       <c r="B47" s="6" t="s">
         <v>12</v>
       </c>
@@ -2181,9 +2193,10 @@
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="37"/>
-    </row>
-    <row r="48" spans="1:8" ht="18.75">
-      <c r="A48" s="53"/>
+      <c r="J47" s="55"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.3" x14ac:dyDescent="1">
+      <c r="A48" s="55"/>
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
@@ -2201,9 +2214,10 @@
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="1:16" ht="18.75">
-      <c r="A49" s="53"/>
+      <c r="J48" s="55"/>
+    </row>
+    <row r="49" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A49" s="55"/>
       <c r="B49" s="6" t="s">
         <v>35</v>
       </c>
@@ -2221,9 +2235,10 @@
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="1:16" ht="18.75">
-      <c r="A50" s="53"/>
+      <c r="J49" s="55"/>
+    </row>
+    <row r="50" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A50" s="55"/>
       <c r="B50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2241,9 +2256,10 @@
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A51" s="54"/>
+      <c r="J50" s="55"/>
+    </row>
+    <row r="51" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="A51" s="56"/>
       <c r="B51" s="17" t="s">
         <v>5</v>
       </c>
@@ -2261,9 +2277,10 @@
       </c>
       <c r="G51" s="35"/>
       <c r="H51" s="38"/>
-    </row>
-    <row r="52" spans="1:16" ht="18.75">
-      <c r="A52" s="52" t="s">
+      <c r="J51" s="56"/>
+    </row>
+    <row r="52" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A52" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -2283,9 +2300,12 @@
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="36"/>
-    </row>
-    <row r="53" spans="1:16" ht="18.75">
-      <c r="A53" s="53"/>
+      <c r="J52" s="54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A53" s="55"/>
       <c r="B53" s="10" t="s">
         <v>3</v>
       </c>
@@ -2303,9 +2323,10 @@
       </c>
       <c r="G53" s="34"/>
       <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="1:16" ht="18.75">
-      <c r="A54" s="53"/>
+      <c r="J53" s="55"/>
+    </row>
+    <row r="54" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A54" s="55"/>
       <c r="B54" s="6" t="s">
         <v>27</v>
       </c>
@@ -2323,9 +2344,10 @@
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="37"/>
-    </row>
-    <row r="55" spans="1:16" ht="18.75">
-      <c r="A55" s="53"/>
+      <c r="J54" s="55"/>
+    </row>
+    <row r="55" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A55" s="55"/>
       <c r="B55" s="6" t="s">
         <v>35</v>
       </c>
@@ -2343,9 +2365,10 @@
       </c>
       <c r="G55" s="34"/>
       <c r="H55" s="37"/>
-    </row>
-    <row r="56" spans="1:16" ht="18.75">
-      <c r="A56" s="53"/>
+      <c r="J55" s="55"/>
+    </row>
+    <row r="56" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A56" s="55"/>
       <c r="B56" s="11" t="s">
         <v>39</v>
       </c>
@@ -2363,9 +2386,10 @@
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="37"/>
-    </row>
-    <row r="57" spans="1:16" ht="18.75">
-      <c r="A57" s="53"/>
+      <c r="J56" s="55"/>
+    </row>
+    <row r="57" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A57" s="55"/>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2383,9 +2407,10 @@
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="37"/>
-    </row>
-    <row r="58" spans="1:16" ht="18.75">
-      <c r="A58" s="53"/>
+      <c r="J57" s="55"/>
+    </row>
+    <row r="58" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A58" s="55"/>
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -2403,9 +2428,10 @@
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="37"/>
-    </row>
-    <row r="59" spans="1:16" ht="18.75">
-      <c r="A59" s="53"/>
+      <c r="J58" s="55"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A59" s="55"/>
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -2421,9 +2447,10 @@
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="37"/>
-    </row>
-    <row r="60" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A60" s="54"/>
+      <c r="J59" s="55"/>
+    </row>
+    <row r="60" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A60" s="56"/>
       <c r="B60" s="23" t="s">
         <v>40</v>
       </c>
@@ -2441,10 +2468,11 @@
       </c>
       <c r="G60" s="35"/>
       <c r="H60" s="38"/>
-    </row>
-    <row r="61" spans="1:16" ht="27" customHeight="1">
-      <c r="A61" s="52" t="s">
-        <v>56</v>
+      <c r="J60" s="56"/>
+    </row>
+    <row r="61" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="1">
+      <c r="A61" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>0</v>
@@ -2462,11 +2490,15 @@
         <v>1</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="55" t="s">
+      <c r="H61" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
+      <c r="I61" s="40">
+        <v>5</v>
+      </c>
+      <c r="J61" s="54">
+        <v>8</v>
+      </c>
       <c r="K61" s="40"/>
       <c r="L61" s="40"/>
       <c r="M61" s="40"/>
@@ -2474,8 +2506,8 @@
       <c r="O61" s="40"/>
       <c r="P61" s="40"/>
     </row>
-    <row r="62" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A62" s="53"/>
+    <row r="62" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="1">
+      <c r="A62" s="55"/>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
@@ -2492,9 +2524,9 @@
         <v>1</v>
       </c>
       <c r="G62" s="34"/>
-      <c r="H62" s="56"/>
+      <c r="H62" s="58"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="40"/>
       <c r="L62" s="40"/>
       <c r="M62" s="40"/>
@@ -2502,8 +2534,8 @@
       <c r="O62" s="40"/>
       <c r="P62" s="40"/>
     </row>
-    <row r="63" spans="1:16" ht="18.75">
-      <c r="A63" s="53"/>
+    <row r="63" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A63" s="55"/>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2554,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="37"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
+      <c r="J63" s="55"/>
       <c r="K63" s="40"/>
       <c r="L63" s="40"/>
       <c r="M63" s="40"/>
@@ -2530,8 +2562,8 @@
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
     </row>
-    <row r="64" spans="1:16" ht="18.75">
-      <c r="A64" s="53"/>
+    <row r="64" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A64" s="55"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -2550,7 +2582,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="37"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="40"/>
       <c r="L64" s="40"/>
       <c r="M64" s="40"/>
@@ -2558,8 +2590,8 @@
       <c r="O64" s="40"/>
       <c r="P64" s="40"/>
     </row>
-    <row r="65" spans="1:16" ht="18.75">
-      <c r="A65" s="53"/>
+    <row r="65" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A65" s="55"/>
       <c r="B65" s="2" t="s">
         <v>44</v>
       </c>
@@ -2578,7 +2610,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="37"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
+      <c r="J65" s="55"/>
       <c r="K65" s="40"/>
       <c r="L65" s="40"/>
       <c r="M65" s="40"/>
@@ -2586,8 +2618,8 @@
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
     </row>
-    <row r="66" spans="1:16" ht="18.75">
-      <c r="A66" s="53"/>
+    <row r="66" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A66" s="55"/>
       <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
@@ -2606,7 +2638,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="37"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="40"/>
       <c r="L66" s="40"/>
       <c r="M66" s="40"/>
@@ -2614,8 +2646,8 @@
       <c r="O66" s="40"/>
       <c r="P66" s="40"/>
     </row>
-    <row r="67" spans="1:16" ht="18.75">
-      <c r="A67" s="53"/>
+    <row r="67" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A67" s="55"/>
       <c r="B67" s="10" t="s">
         <v>22</v>
       </c>
@@ -2632,7 +2664,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="37"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
+      <c r="J67" s="55"/>
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
       <c r="M67" s="40"/>
@@ -2640,8 +2672,8 @@
       <c r="O67" s="40"/>
       <c r="P67" s="40"/>
     </row>
-    <row r="68" spans="1:16" ht="18.75">
-      <c r="A68" s="53"/>
+    <row r="68" spans="1:16" ht="18.3" x14ac:dyDescent="1">
+      <c r="A68" s="55"/>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
@@ -2660,7 +2692,7 @@
       <c r="G68" s="34"/>
       <c r="H68" s="37"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="40"/>
       <c r="L68" s="40"/>
       <c r="M68" s="40"/>
@@ -2668,8 +2700,8 @@
       <c r="O68" s="40"/>
       <c r="P68" s="40"/>
     </row>
-    <row r="69" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A69" s="54"/>
+    <row r="69" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="A69" s="56"/>
       <c r="B69" s="31" t="s">
         <v>43</v>
       </c>
@@ -2688,7 +2720,7 @@
       <c r="G69" s="35"/>
       <c r="H69" s="38"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="40"/>
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
@@ -2696,8 +2728,8 @@
       <c r="O69" s="40"/>
       <c r="P69" s="40"/>
     </row>
-    <row r="70" spans="1:16" ht="18.75">
-      <c r="A70" s="52" t="s">
+    <row r="70" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A70" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="25" t="s">
@@ -2718,7 +2750,9 @@
       <c r="G70" s="33"/>
       <c r="H70" s="36"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
+      <c r="J70" s="54">
+        <v>9</v>
+      </c>
       <c r="K70" s="40"/>
       <c r="L70" s="40"/>
       <c r="M70" s="40"/>
@@ -2726,8 +2760,8 @@
       <c r="O70" s="40"/>
       <c r="P70" s="40"/>
     </row>
-    <row r="71" spans="1:16" ht="18.75">
-      <c r="A71" s="53"/>
+    <row r="71" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A71" s="55"/>
       <c r="B71" s="10" t="s">
         <v>3</v>
       </c>
@@ -2746,7 +2780,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="37"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
+      <c r="J71" s="55"/>
       <c r="K71" s="40"/>
       <c r="L71" s="40"/>
       <c r="M71" s="40"/>
@@ -2754,8 +2788,8 @@
       <c r="O71" s="40"/>
       <c r="P71" s="40"/>
     </row>
-    <row r="72" spans="1:16" ht="18.75">
-      <c r="A72" s="53"/>
+    <row r="72" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A72" s="55"/>
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
@@ -2774,7 +2808,7 @@
       <c r="G72" s="34"/>
       <c r="H72" s="37"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="40"/>
       <c r="L72" s="40"/>
       <c r="M72" s="40"/>
@@ -2782,8 +2816,8 @@
       <c r="O72" s="40"/>
       <c r="P72" s="40"/>
     </row>
-    <row r="73" spans="1:16" ht="18.75">
-      <c r="A73" s="53"/>
+    <row r="73" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A73" s="55"/>
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2800,7 +2834,7 @@
       <c r="G73" s="34"/>
       <c r="H73" s="37"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
+      <c r="J73" s="55"/>
       <c r="K73" s="40"/>
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
@@ -2808,8 +2842,8 @@
       <c r="O73" s="40"/>
       <c r="P73" s="40"/>
     </row>
-    <row r="74" spans="1:16" ht="18.75">
-      <c r="A74" s="53"/>
+    <row r="74" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A74" s="55"/>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2862,7 @@
       <c r="G74" s="34"/>
       <c r="H74" s="37"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="40"/>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
@@ -2836,8 +2870,8 @@
       <c r="O74" s="40"/>
       <c r="P74" s="40"/>
     </row>
-    <row r="75" spans="1:16" ht="18.75">
-      <c r="A75" s="53"/>
+    <row r="75" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A75" s="55"/>
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -2856,7 +2890,7 @@
       <c r="G75" s="34"/>
       <c r="H75" s="37"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
+      <c r="J75" s="55"/>
       <c r="K75" s="40"/>
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
@@ -2864,8 +2898,8 @@
       <c r="O75" s="40"/>
       <c r="P75" s="40"/>
     </row>
-    <row r="76" spans="1:16" ht="18.75">
-      <c r="A76" s="53"/>
+    <row r="76" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A76" s="55"/>
       <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
@@ -2884,7 +2918,7 @@
       <c r="G76" s="34"/>
       <c r="H76" s="37"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="40"/>
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
@@ -2892,8 +2926,8 @@
       <c r="O76" s="40"/>
       <c r="P76" s="40"/>
     </row>
-    <row r="77" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A77" s="54"/>
+    <row r="77" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A77" s="56"/>
       <c r="B77" s="27" t="s">
         <v>33</v>
       </c>
@@ -2910,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>52</v>
       </c>
       <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="40"/>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
@@ -2924,9 +2958,9 @@
       <c r="O77" s="40"/>
       <c r="P77" s="40"/>
     </row>
-    <row r="78" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A78" s="69" t="s">
-        <v>81</v>
+    <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A78" s="71" t="s">
+        <v>73</v>
       </c>
       <c r="B78" s="46" t="s">
         <v>2</v>
@@ -2943,9 +2977,12 @@
       <c r="F78" s="44"/>
       <c r="G78" s="50"/>
       <c r="H78" s="49"/>
-    </row>
-    <row r="79" spans="1:16" ht="18.75">
-      <c r="A79" s="62"/>
+      <c r="J78" s="71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A79" s="64"/>
       <c r="B79" s="10" t="s">
         <v>3</v>
       </c>
@@ -2961,9 +2998,10 @@
       <c r="F79" s="45"/>
       <c r="G79" s="50"/>
       <c r="H79" s="41"/>
-    </row>
-    <row r="80" spans="1:16" ht="18.75">
-      <c r="A80" s="62"/>
+      <c r="J79" s="64"/>
+    </row>
+    <row r="80" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A80" s="64"/>
       <c r="B80" s="10" t="s">
         <v>0</v>
       </c>
@@ -2979,11 +3017,12 @@
       <c r="F80" s="34"/>
       <c r="G80" s="51"/>
       <c r="H80" s="41"/>
-    </row>
-    <row r="81" spans="1:8" ht="18.75">
-      <c r="A81" s="62"/>
+      <c r="J80" s="64"/>
+    </row>
+    <row r="81" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A81" s="64"/>
       <c r="B81" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C81" s="7">
         <v>1218281</v>
@@ -2997,9 +3036,10 @@
       <c r="F81" s="34"/>
       <c r="G81" s="51"/>
       <c r="H81" s="41"/>
-    </row>
-    <row r="82" spans="1:8" ht="18.75">
-      <c r="A82" s="62"/>
+      <c r="J81" s="64"/>
+    </row>
+    <row r="82" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A82" s="64"/>
       <c r="B82" s="2" t="s">
         <v>31</v>
       </c>
@@ -3015,9 +3055,10 @@
       <c r="F82" s="34"/>
       <c r="G82" s="51"/>
       <c r="H82" s="41"/>
-    </row>
-    <row r="83" spans="1:8" ht="18.75">
-      <c r="A83" s="62"/>
+      <c r="J82" s="64"/>
+    </row>
+    <row r="83" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A83" s="64"/>
       <c r="B83" s="10" t="s">
         <v>19</v>
       </c>
@@ -3033,9 +3074,10 @@
       <c r="F83" s="34"/>
       <c r="G83" s="51"/>
       <c r="H83" s="41"/>
-    </row>
-    <row r="84" spans="1:8" ht="18.75">
-      <c r="A84" s="62"/>
+      <c r="J83" s="64"/>
+    </row>
+    <row r="84" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A84" s="64"/>
       <c r="B84" s="10" t="s">
         <v>5</v>
       </c>
@@ -3051,9 +3093,10 @@
       <c r="F84" s="34"/>
       <c r="G84" s="51"/>
       <c r="H84" s="41"/>
-    </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="J84" s="64"/>
+    </row>
+    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A85" s="64"/>
       <c r="B85" s="10" t="s">
         <v>24</v>
       </c>
@@ -3067,10 +3110,11 @@
       <c r="F85" s="34"/>
       <c r="G85" s="51"/>
       <c r="H85" s="41"/>
-    </row>
-    <row r="86" spans="1:8" ht="18.75">
-      <c r="A86" s="62" t="s">
-        <v>80</v>
+      <c r="J85" s="64"/>
+    </row>
+    <row r="86" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A86" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>2</v>
@@ -3089,9 +3133,12 @@
       </c>
       <c r="G86" s="51"/>
       <c r="H86" s="41"/>
-    </row>
-    <row r="87" spans="1:8" ht="18.75">
-      <c r="A87" s="62"/>
+      <c r="J86" s="64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A87" s="64"/>
       <c r="B87" s="10" t="s">
         <v>3</v>
       </c>
@@ -3109,9 +3156,10 @@
       </c>
       <c r="G87" s="51"/>
       <c r="H87" s="41"/>
-    </row>
-    <row r="88" spans="1:8" ht="18.75">
-      <c r="A88" s="62"/>
+      <c r="J87" s="64"/>
+    </row>
+    <row r="88" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A88" s="64"/>
       <c r="B88" s="10" t="s">
         <v>0</v>
       </c>
@@ -3129,11 +3177,12 @@
       </c>
       <c r="G88" s="51"/>
       <c r="H88" s="41"/>
-    </row>
-    <row r="89" spans="1:8" ht="18.75">
-      <c r="A89" s="62"/>
+      <c r="J88" s="64"/>
+    </row>
+    <row r="89" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A89" s="64"/>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C89" s="1">
         <v>1218281</v>
@@ -3149,9 +3198,10 @@
       </c>
       <c r="G89" s="51"/>
       <c r="H89" s="41"/>
-    </row>
-    <row r="90" spans="1:8" ht="18.75">
-      <c r="A90" s="62"/>
+      <c r="J89" s="64"/>
+    </row>
+    <row r="90" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A90" s="64"/>
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -3169,9 +3219,10 @@
       </c>
       <c r="G90" s="51"/>
       <c r="H90" s="41"/>
-    </row>
-    <row r="91" spans="1:8" ht="18.75">
-      <c r="A91" s="62"/>
+      <c r="J90" s="64"/>
+    </row>
+    <row r="91" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A91" s="64"/>
       <c r="B91" s="10" t="s">
         <v>19</v>
       </c>
@@ -3189,9 +3240,10 @@
       </c>
       <c r="G91" s="51"/>
       <c r="H91" s="41"/>
-    </row>
-    <row r="92" spans="1:8" ht="18.75">
-      <c r="A92" s="62"/>
+      <c r="J91" s="64"/>
+    </row>
+    <row r="92" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A92" s="64"/>
       <c r="B92" s="10" t="s">
         <v>5</v>
       </c>
@@ -3209,9 +3261,10 @@
       </c>
       <c r="G92" s="51"/>
       <c r="H92" s="41"/>
-    </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="J92" s="64"/>
+    </row>
+    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A93" s="64"/>
       <c r="B93" s="10" t="s">
         <v>24</v>
       </c>
@@ -3227,10 +3280,11 @@
       </c>
       <c r="G93" s="51"/>
       <c r="H93" s="41"/>
-    </row>
-    <row r="94" spans="1:8" ht="18.75">
-      <c r="A94" s="62" t="s">
-        <v>82</v>
+      <c r="J93" s="64"/>
+    </row>
+    <row r="94" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A94" s="64" t="s">
+        <v>80</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>2</v>
@@ -3249,9 +3303,15 @@
       </c>
       <c r="G94" s="51"/>
       <c r="H94" s="41"/>
-    </row>
-    <row r="95" spans="1:8" ht="18.75">
-      <c r="A95" s="62"/>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94" s="64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A95" s="64"/>
       <c r="B95" s="10" t="s">
         <v>3</v>
       </c>
@@ -3269,11 +3329,12 @@
       </c>
       <c r="G95" s="51"/>
       <c r="H95" s="41"/>
-    </row>
-    <row r="96" spans="1:8" ht="18.75">
-      <c r="A96" s="62"/>
+      <c r="J95" s="64"/>
+    </row>
+    <row r="96" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A96" s="64"/>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C96" s="1">
         <v>1021353</v>
@@ -3289,9 +3350,10 @@
       </c>
       <c r="G96" s="51"/>
       <c r="H96" s="41"/>
-    </row>
-    <row r="97" spans="1:8" ht="18.75">
-      <c r="A97" s="62"/>
+      <c r="J96" s="64"/>
+    </row>
+    <row r="97" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A97" s="64"/>
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
@@ -3309,11 +3371,12 @@
       </c>
       <c r="G97" s="51"/>
       <c r="H97" s="41"/>
-    </row>
-    <row r="98" spans="1:8" ht="18.75">
-      <c r="A98" s="62"/>
+      <c r="J97" s="64"/>
+    </row>
+    <row r="98" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A98" s="64"/>
       <c r="B98" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C98" s="7">
         <v>2302511</v>
@@ -3329,9 +3392,10 @@
       </c>
       <c r="G98" s="51"/>
       <c r="H98" s="41"/>
-    </row>
-    <row r="99" spans="1:8" ht="18.75">
-      <c r="A99" s="62"/>
+      <c r="J98" s="64"/>
+    </row>
+    <row r="99" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A99" s="64"/>
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -3349,9 +3413,10 @@
       </c>
       <c r="G99" s="51"/>
       <c r="H99" s="41"/>
-    </row>
-    <row r="100" spans="1:8" ht="18.75">
-      <c r="A100" s="62"/>
+      <c r="J99" s="64"/>
+    </row>
+    <row r="100" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A100" s="64"/>
       <c r="B100" s="10" t="s">
         <v>31</v>
       </c>
@@ -3369,9 +3434,10 @@
       </c>
       <c r="G100" s="51"/>
       <c r="H100" s="41"/>
-    </row>
-    <row r="101" spans="1:8" ht="18.75">
-      <c r="A101" s="62"/>
+      <c r="J100" s="64"/>
+    </row>
+    <row r="101" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A101" s="64"/>
       <c r="B101" s="10" t="s">
         <v>24</v>
       </c>
@@ -3387,10 +3453,11 @@
       </c>
       <c r="G101" s="51"/>
       <c r="H101" s="41"/>
-    </row>
-    <row r="102" spans="1:8" ht="18.75">
-      <c r="A102" s="59" t="s">
-        <v>83</v>
+      <c r="J101" s="64"/>
+    </row>
+    <row r="102" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A102" s="61" t="s">
+        <v>81</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>2</v>
@@ -3409,13 +3476,19 @@
       </c>
       <c r="G102" s="51"/>
       <c r="H102" s="41"/>
-    </row>
-    <row r="103" spans="1:8" ht="18.75">
-      <c r="A103" s="60"/>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102" s="61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A103" s="62"/>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="53">
         <v>1021303</v>
       </c>
       <c r="D103" s="12" t="s">
@@ -3429,11 +3502,12 @@
       </c>
       <c r="G103" s="51"/>
       <c r="H103" s="41"/>
-    </row>
-    <row r="104" spans="1:8" ht="36">
-      <c r="A104" s="60"/>
+      <c r="J103" s="62"/>
+    </row>
+    <row r="104" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A104" s="62"/>
       <c r="B104" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C104" s="7">
         <v>2405032</v>
@@ -3448,17 +3522,16 @@
         <v>1</v>
       </c>
       <c r="G104" s="51"/>
-      <c r="H104" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="18.75">
-      <c r="A105" s="60"/>
+      <c r="H104" s="42"/>
+      <c r="J104" s="62"/>
+    </row>
+    <row r="105" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A105" s="62"/>
       <c r="B105" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C105" s="7">
-        <v>2401192</v>
+        <v>2400032</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>1</v>
@@ -3471,54 +3544,57 @@
       </c>
       <c r="G105" s="51"/>
       <c r="H105" s="41"/>
-    </row>
-    <row r="106" spans="1:8" ht="18.75">
-      <c r="A106" s="60"/>
+      <c r="J105" s="62"/>
+    </row>
+    <row r="106" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A106" s="62"/>
       <c r="B106" s="10" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="C106" s="7">
-        <v>2400032</v>
+        <v>1022371</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="51"/>
       <c r="H106" s="41"/>
-    </row>
-    <row r="107" spans="1:8" ht="18.75">
-      <c r="A107" s="60"/>
+      <c r="J106" s="62"/>
+    </row>
+    <row r="107" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A107" s="62"/>
       <c r="B107" s="10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C107" s="7">
-        <v>1022371</v>
+        <v>1061021</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E107" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" s="51"/>
       <c r="H107" s="41"/>
-    </row>
-    <row r="108" spans="1:8" ht="18.75">
-      <c r="A108" s="60"/>
+      <c r="J107" s="62"/>
+    </row>
+    <row r="108" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A108" s="62"/>
       <c r="B108" s="10" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C108" s="7">
-        <v>1061021</v>
+        <v>1040211</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>1</v>
@@ -3531,35 +3607,35 @@
       </c>
       <c r="G108" s="51"/>
       <c r="H108" s="41"/>
-    </row>
-    <row r="109" spans="1:8" ht="18.75">
-      <c r="A109" s="60"/>
+      <c r="J108" s="62"/>
+    </row>
+    <row r="109" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A109" s="62"/>
       <c r="B109" s="10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C109" s="7">
-        <v>1040211</v>
+        <v>1051203</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E109" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109" s="51"/>
       <c r="H109" s="41"/>
-    </row>
-    <row r="110" spans="1:8" ht="18.75">
-      <c r="A110" s="60"/>
+      <c r="J109" s="62"/>
+    </row>
+    <row r="110" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A110" s="63"/>
       <c r="B110" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="7">
-        <v>1051203</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C110" s="7"/>
       <c r="D110" s="12" t="s">
         <v>1</v>
       </c>
@@ -3567,442 +3643,477 @@
         <v>2</v>
       </c>
       <c r="F110" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G110" s="51"/>
       <c r="H110" s="41"/>
-    </row>
-    <row r="111" spans="1:8" ht="18.75">
-      <c r="A111" s="61"/>
+      <c r="J110" s="63"/>
+    </row>
+    <row r="111" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A111" s="61" t="s">
+        <v>81</v>
+      </c>
       <c r="B111" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1011053</v>
+      </c>
       <c r="D111" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111" s="51"/>
       <c r="H111" s="41"/>
-    </row>
-    <row r="112" spans="1:8" ht="18.75">
-      <c r="A112" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="7">
-        <v>1011053</v>
+      <c r="I111">
+        <v>5</v>
+      </c>
+      <c r="J111" s="72">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A112" s="62"/>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="53">
+        <v>1021303</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E112" s="3">
         <v>1</v>
       </c>
-      <c r="F112" s="34"/>
+      <c r="F112" s="34">
+        <v>1</v>
+      </c>
       <c r="G112" s="51"/>
       <c r="H112" s="41"/>
-    </row>
-    <row r="113" spans="1:8" ht="18.75">
-      <c r="A113" s="60"/>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="1">
-        <v>1021303</v>
+      <c r="J112" s="73"/>
+    </row>
+    <row r="113" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A113" s="62"/>
+      <c r="B113" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="7">
+        <v>2401192</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E113" s="3">
         <v>1</v>
       </c>
-      <c r="F113" s="34"/>
+      <c r="F113" s="34">
+        <v>1</v>
+      </c>
       <c r="G113" s="51"/>
       <c r="H113" s="41"/>
-    </row>
-    <row r="114" spans="1:8" ht="18.75">
-      <c r="A114" s="60"/>
+      <c r="J113" s="73"/>
+    </row>
+    <row r="114" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A114" s="62"/>
       <c r="B114" s="10" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C114" s="7">
-        <v>1022371</v>
+        <v>2400032</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E114" s="3">
-        <v>2</v>
-      </c>
-      <c r="F114" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="F114" s="34">
+        <v>1</v>
+      </c>
       <c r="G114" s="51"/>
       <c r="H114" s="41"/>
-    </row>
-    <row r="115" spans="1:8" ht="18.75">
-      <c r="A115" s="60"/>
+      <c r="J114" s="73"/>
+    </row>
+    <row r="115" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A115" s="62"/>
       <c r="B115" s="10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C115" s="7">
-        <v>1031103</v>
+        <v>1022371</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="F115" s="34">
+        <v>2</v>
+      </c>
       <c r="G115" s="51"/>
       <c r="H115" s="41"/>
-    </row>
-    <row r="116" spans="1:8" ht="18.75">
-      <c r="A116" s="60"/>
+      <c r="J115" s="73"/>
+    </row>
+    <row r="116" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A116" s="62"/>
       <c r="B116" s="10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C116" s="7">
-        <v>1032101</v>
+        <v>1061021</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E116" s="3">
-        <v>2</v>
-      </c>
-      <c r="F116" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F116" s="34">
+        <v>3</v>
+      </c>
       <c r="G116" s="51"/>
       <c r="H116" s="41"/>
-    </row>
-    <row r="117" spans="1:8" ht="18.75">
-      <c r="A117" s="60"/>
+      <c r="J116" s="73"/>
+    </row>
+    <row r="117" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A117" s="62"/>
       <c r="B117" s="10" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C117" s="7">
-        <v>1061021</v>
+        <v>1040211</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E117" s="3">
         <v>3</v>
       </c>
-      <c r="F117" s="34"/>
+      <c r="F117" s="34">
+        <v>3</v>
+      </c>
       <c r="G117" s="51"/>
       <c r="H117" s="41"/>
-    </row>
-    <row r="118" spans="1:8" ht="18.75">
-      <c r="A118" s="60"/>
+      <c r="J117" s="73"/>
+    </row>
+    <row r="118" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A118" s="62"/>
       <c r="B118" s="10" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C118" s="7">
-        <v>2715152</v>
+        <v>1051203</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="F118" s="34">
+        <v>2</v>
+      </c>
       <c r="G118" s="51"/>
       <c r="H118" s="41"/>
-    </row>
-    <row r="119" spans="1:8" ht="18.75">
-      <c r="A119" s="60"/>
+      <c r="J118" s="73"/>
+    </row>
+    <row r="119" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A119" s="63"/>
       <c r="B119" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C119" s="7">
-        <v>2739411</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C119" s="7"/>
       <c r="D119" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="F119" s="34">
+        <v>3</v>
+      </c>
       <c r="G119" s="51"/>
       <c r="H119" s="41"/>
-    </row>
-    <row r="120" spans="1:8" ht="18.75">
-      <c r="A120" s="60"/>
-      <c r="B120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1040211</v>
+      <c r="J119" s="74"/>
+    </row>
+    <row r="120" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A120" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="7">
+        <v>1011053</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E120" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="51"/>
       <c r="H120" s="41"/>
-    </row>
-    <row r="121" spans="1:8" ht="18.75">
-      <c r="A121" s="61"/>
-      <c r="B121" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="7"/>
+      <c r="J120" s="61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A121" s="62"/>
+      <c r="B121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1021303</v>
+      </c>
       <c r="D121" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E121" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="51"/>
       <c r="H121" s="41"/>
-    </row>
-    <row r="122" spans="1:8" ht="18.75">
-      <c r="A122" s="63" t="s">
-        <v>69</v>
-      </c>
+      <c r="J121" s="62"/>
+    </row>
+    <row r="122" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A122" s="62"/>
       <c r="B122" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C122" s="7">
-        <v>1011053</v>
+        <v>1022371</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E122" s="3">
-        <v>1</v>
-      </c>
-      <c r="F122" s="34">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F122" s="34"/>
       <c r="G122" s="51"/>
       <c r="H122" s="41"/>
-    </row>
-    <row r="123" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A123" s="64"/>
+      <c r="J122" s="62"/>
+    </row>
+    <row r="123" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A123" s="62"/>
       <c r="B123" s="10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C123" s="7">
-        <v>1021303</v>
+        <v>1031103</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="34">
-        <v>1</v>
-      </c>
+      <c r="F123" s="34"/>
       <c r="G123" s="51"/>
-      <c r="H123" s="41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A124" s="64"/>
+      <c r="H123" s="41"/>
+      <c r="J123" s="62"/>
+    </row>
+    <row r="124" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A124" s="62"/>
       <c r="B124" s="10" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C124" s="7">
-        <v>1022371</v>
+        <v>1032101</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E124" s="3">
-        <v>3</v>
-      </c>
-      <c r="F124" s="34">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F124" s="34"/>
       <c r="G124" s="51"/>
       <c r="H124" s="41"/>
-    </row>
-    <row r="125" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A125" s="64"/>
+      <c r="J124" s="62"/>
+    </row>
+    <row r="125" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A125" s="62"/>
       <c r="B125" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C125" s="7">
-        <v>1031103</v>
+        <v>1061021</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E125" s="3">
-        <v>1</v>
-      </c>
-      <c r="F125" s="34">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F125" s="34"/>
       <c r="G125" s="51"/>
       <c r="H125" s="41"/>
-    </row>
-    <row r="126" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A126" s="64"/>
+      <c r="J125" s="62"/>
+    </row>
+    <row r="126" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A126" s="62"/>
       <c r="B126" s="10" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C126" s="7">
-        <v>2013701</v>
+        <v>2715152</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E126" s="3">
-        <v>3</v>
-      </c>
-      <c r="F126" s="34">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F126" s="34"/>
       <c r="G126" s="51"/>
       <c r="H126" s="41"/>
-    </row>
-    <row r="127" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A127" s="64"/>
-      <c r="B127" s="2" t="s">
+      <c r="J126" s="62"/>
+    </row>
+    <row r="127" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A127" s="62"/>
+      <c r="B127" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="1">
-        <v>3912231</v>
+      <c r="C127" s="7">
+        <v>2739411</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
-      <c r="F127" s="34">
-        <v>1</v>
-      </c>
+      <c r="F127" s="34"/>
       <c r="G127" s="51"/>
       <c r="H127" s="41"/>
-    </row>
-    <row r="128" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A128" s="64"/>
-      <c r="B128" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128" s="7">
-        <v>3912113</v>
+      <c r="J127" s="62"/>
+    </row>
+    <row r="128" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A128" s="62"/>
+      <c r="B128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1040211</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E128" s="3">
-        <v>1</v>
-      </c>
-      <c r="F128" s="34">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F128" s="34"/>
       <c r="G128" s="51"/>
       <c r="H128" s="41"/>
-    </row>
-    <row r="129" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A129" s="64"/>
+      <c r="J128" s="62"/>
+    </row>
+    <row r="129" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A129" s="63"/>
       <c r="B129" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C129" s="7">
-        <v>1032101</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C129" s="7"/>
       <c r="D129" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E129" s="3">
-        <v>3</v>
-      </c>
-      <c r="F129" s="34">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F129" s="34"/>
       <c r="G129" s="51"/>
       <c r="H129" s="41"/>
-    </row>
-    <row r="130" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A130" s="64"/>
+      <c r="J129" s="63"/>
+    </row>
+    <row r="130" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A130" s="65" t="s">
+        <v>82</v>
+      </c>
       <c r="B130" s="10" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C130" s="7">
-        <v>1061021</v>
+        <v>1011053</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E130" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F130" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G130" s="51"/>
       <c r="H130" s="41"/>
-    </row>
-    <row r="131" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A131" s="65"/>
+      <c r="I130" t="s">
+        <v>83</v>
+      </c>
+      <c r="J130" s="65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A131" s="66"/>
       <c r="B131" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1021303</v>
+      </c>
       <c r="D131" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E131" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G131" s="51"/>
-      <c r="H131" s="41"/>
-    </row>
-    <row r="132" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A132" s="63" t="s">
-        <v>66</v>
-      </c>
+      <c r="H131" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J131" s="66"/>
+    </row>
+    <row r="132" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A132" s="66"/>
       <c r="B132" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C132" s="7">
-        <v>1011053</v>
+        <v>1022371</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E132" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F132" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G132" s="51"/>
-      <c r="H132" s="41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A133" s="64"/>
+      <c r="H132" s="41"/>
+      <c r="J132" s="66"/>
+    </row>
+    <row r="133" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A133" s="66"/>
       <c r="B133" s="10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C133" s="7">
-        <v>1021303</v>
+        <v>1031103</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>1</v>
@@ -4015,34 +4126,36 @@
       </c>
       <c r="G133" s="51"/>
       <c r="H133" s="41"/>
-    </row>
-    <row r="134" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A134" s="64"/>
+      <c r="J133" s="66"/>
+    </row>
+    <row r="134" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A134" s="66"/>
       <c r="B134" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C134" s="7">
-        <v>1022371</v>
+        <v>2013701</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E134" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F134" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G134" s="51"/>
       <c r="H134" s="41"/>
-    </row>
-    <row r="135" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A135" s="64"/>
-      <c r="B135" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135" s="7">
-        <v>1031103</v>
+      <c r="J134" s="66"/>
+    </row>
+    <row r="135" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A135" s="66"/>
+      <c r="B135" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3912231</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>1</v>
@@ -4055,54 +4168,57 @@
       </c>
       <c r="G135" s="51"/>
       <c r="H135" s="41"/>
-    </row>
-    <row r="136" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A136" s="64"/>
+      <c r="J135" s="66"/>
+    </row>
+    <row r="136" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A136" s="66"/>
       <c r="B136" s="10" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C136" s="7">
-        <v>2013701</v>
+        <v>3912113</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E136" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F136" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" s="51"/>
       <c r="H136" s="41"/>
-    </row>
-    <row r="137" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A137" s="64"/>
-      <c r="B137" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C137" s="1">
-        <v>3912231</v>
+      <c r="J136" s="66"/>
+    </row>
+    <row r="137" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A137" s="66"/>
+      <c r="B137" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1032101</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E137" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G137" s="51"/>
       <c r="H137" s="41"/>
-    </row>
-    <row r="138" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A138" s="64"/>
+      <c r="J137" s="66"/>
+    </row>
+    <row r="138" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A138" s="66"/>
       <c r="B138" s="10" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C138" s="7">
-        <v>1032101</v>
+        <v>1061021</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>1</v>
@@ -4115,15 +4231,14 @@
       </c>
       <c r="G138" s="51"/>
       <c r="H138" s="41"/>
-    </row>
-    <row r="139" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A139" s="64"/>
+      <c r="J138" s="66"/>
+    </row>
+    <row r="139" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A139" s="67"/>
       <c r="B139" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" s="7">
-        <v>2010712</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C139" s="7"/>
       <c r="D139" s="12" t="s">
         <v>1</v>
       </c>
@@ -4135,354 +4250,384 @@
       </c>
       <c r="G139" s="51"/>
       <c r="H139" s="41"/>
-    </row>
-    <row r="140" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A140" s="64"/>
+      <c r="J139" s="67"/>
+    </row>
+    <row r="140" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A140" s="65" t="s">
+        <v>89</v>
+      </c>
       <c r="B140" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C140" s="7">
-        <v>1040211</v>
+        <v>1011053</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E140" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F140" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G140" s="51"/>
-      <c r="H140" s="41"/>
-    </row>
-    <row r="141" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A141" s="64"/>
+      <c r="H140" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I140" t="s">
+        <v>84</v>
+      </c>
+      <c r="J140" s="65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A141" s="66"/>
       <c r="B141" s="10" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C141" s="7">
-        <v>1061021</v>
+        <v>1021303</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E141" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F141" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G141" s="51"/>
       <c r="H141" s="41"/>
-    </row>
-    <row r="142" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A142" s="65"/>
+      <c r="J141" s="66"/>
+    </row>
+    <row r="142" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A142" s="66"/>
       <c r="B142" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C142" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C142" s="7">
+        <v>1022371</v>
+      </c>
       <c r="D142" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E142" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" s="51"/>
       <c r="H142" s="41"/>
-    </row>
-    <row r="143" spans="1:8" ht="18.75">
-      <c r="A143" s="63" t="s">
-        <v>62</v>
-      </c>
+      <c r="J142" s="66"/>
+    </row>
+    <row r="143" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A143" s="66"/>
       <c r="B143" s="10" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C143" s="7">
-        <v>1011053</v>
+        <v>1031103</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E143" s="3">
         <v>1</v>
       </c>
-      <c r="F143" s="34"/>
+      <c r="F143" s="34">
+        <v>1</v>
+      </c>
       <c r="G143" s="51"/>
       <c r="H143" s="41"/>
-    </row>
-    <row r="144" spans="1:8" ht="18.75">
-      <c r="A144" s="64"/>
+      <c r="J143" s="66"/>
+    </row>
+    <row r="144" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A144" s="66"/>
       <c r="B144" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C144" s="7">
-        <v>1021303</v>
+        <v>2013701</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E144" s="3">
-        <v>1</v>
-      </c>
-      <c r="F144" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F144" s="34">
+        <v>3</v>
+      </c>
       <c r="G144" s="51"/>
       <c r="H144" s="41"/>
-    </row>
-    <row r="145" spans="1:8" ht="18.75">
-      <c r="A145" s="64"/>
-      <c r="B145" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145" s="7">
-        <v>1031103</v>
+      <c r="J144" s="66"/>
+    </row>
+    <row r="145" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A145" s="66"/>
+      <c r="B145" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3912231</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E145" s="3">
         <v>1</v>
       </c>
-      <c r="F145" s="34"/>
+      <c r="F145" s="34">
+        <v>1</v>
+      </c>
       <c r="G145" s="51"/>
       <c r="H145" s="41"/>
-    </row>
-    <row r="146" spans="1:8" ht="18.75">
-      <c r="A146" s="64"/>
-      <c r="B146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" s="1">
-        <v>2010712</v>
+      <c r="J145" s="66"/>
+    </row>
+    <row r="146" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A146" s="66"/>
+      <c r="B146" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C146" s="7">
+        <v>1032101</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E146" s="3">
-        <v>2</v>
-      </c>
-      <c r="F146" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F146" s="34">
+        <v>3</v>
+      </c>
       <c r="G146" s="51"/>
       <c r="H146" s="41"/>
-    </row>
-    <row r="147" spans="1:8" ht="18.75">
-      <c r="A147" s="64"/>
+      <c r="J146" s="66"/>
+    </row>
+    <row r="147" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A147" s="66"/>
       <c r="B147" s="10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C147" s="7">
-        <v>1061021</v>
+        <v>2010712</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E147" s="3">
-        <v>3</v>
-      </c>
-      <c r="F147" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="F147" s="34">
+        <v>2</v>
+      </c>
       <c r="G147" s="51"/>
       <c r="H147" s="41"/>
-    </row>
-    <row r="148" spans="1:8" ht="18.75">
-      <c r="A148" s="64"/>
+      <c r="J147" s="66"/>
+    </row>
+    <row r="148" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A148" s="66"/>
       <c r="B148" s="10" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C148" s="7">
-        <v>1051203</v>
+        <v>1040211</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E148" s="3">
-        <v>2</v>
-      </c>
-      <c r="F148" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F148" s="34">
+        <v>3</v>
+      </c>
       <c r="G148" s="51"/>
       <c r="H148" s="41"/>
-    </row>
-    <row r="149" spans="1:8" ht="18.75">
-      <c r="A149" s="65"/>
+      <c r="J148" s="66"/>
+    </row>
+    <row r="149" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A149" s="66"/>
       <c r="B149" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C149" s="7">
+        <v>1061021</v>
+      </c>
       <c r="D149" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E149" s="3">
-        <v>2</v>
-      </c>
-      <c r="F149" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="F149" s="34">
+        <v>3</v>
+      </c>
       <c r="G149" s="51"/>
       <c r="H149" s="41"/>
-    </row>
-    <row r="150" spans="1:8" ht="18.75">
-      <c r="A150" s="66" t="s">
-        <v>84</v>
-      </c>
+      <c r="J149" s="66"/>
+    </row>
+    <row r="150" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A150" s="67"/>
       <c r="B150" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="7">
-        <v>1011053</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C150" s="7"/>
       <c r="D150" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E150" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="51"/>
       <c r="H150" s="41"/>
-    </row>
-    <row r="151" spans="1:8" ht="18.75">
-      <c r="A151" s="67"/>
+      <c r="J150" s="67"/>
+    </row>
+    <row r="151" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A151" s="65" t="s">
+        <v>58</v>
+      </c>
       <c r="B151" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" s="7">
-        <v>1021303</v>
+        <v>1011053</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E151" s="3">
         <v>1</v>
       </c>
-      <c r="F151" s="34">
-        <v>1</v>
-      </c>
+      <c r="F151" s="34"/>
       <c r="G151" s="51"/>
       <c r="H151" s="41"/>
-    </row>
-    <row r="152" spans="1:8" ht="18.75">
-      <c r="A152" s="67"/>
+      <c r="J151" s="65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A152" s="66"/>
       <c r="B152" s="10" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C152" s="7">
-        <v>1031103</v>
+        <v>1021303</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E152" s="3">
         <v>1</v>
       </c>
-      <c r="F152" s="34">
-        <v>1</v>
-      </c>
+      <c r="F152" s="34"/>
       <c r="G152" s="51"/>
       <c r="H152" s="41"/>
-    </row>
-    <row r="153" spans="1:8" ht="18.75">
-      <c r="A153" s="67"/>
-      <c r="B153" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C153" s="1">
-        <v>3221713</v>
+      <c r="J152" s="66"/>
+    </row>
+    <row r="153" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A153" s="66"/>
+      <c r="B153" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="7">
+        <v>1031103</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E153" s="3">
         <v>1</v>
       </c>
-      <c r="F153" s="34">
-        <v>1</v>
-      </c>
+      <c r="F153" s="34"/>
       <c r="G153" s="51"/>
       <c r="H153" s="41"/>
-    </row>
-    <row r="154" spans="1:8" ht="18.75">
-      <c r="A154" s="67"/>
-      <c r="B154" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="7">
-        <v>2013701</v>
+      <c r="J153" s="66"/>
+    </row>
+    <row r="154" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A154" s="66"/>
+      <c r="B154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2010712</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E154" s="3">
         <v>2</v>
       </c>
-      <c r="F154" s="34">
-        <v>3</v>
-      </c>
+      <c r="F154" s="34"/>
       <c r="G154" s="51"/>
       <c r="H154" s="41"/>
-    </row>
-    <row r="155" spans="1:8" ht="18.75">
-      <c r="A155" s="67"/>
+      <c r="J154" s="66"/>
+    </row>
+    <row r="155" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A155" s="66"/>
       <c r="B155" s="10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C155" s="7">
-        <v>1032101</v>
+        <v>1061021</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E155" s="3">
-        <v>2</v>
-      </c>
-      <c r="F155" s="34">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F155" s="34"/>
       <c r="G155" s="51"/>
       <c r="H155" s="41"/>
-    </row>
-    <row r="156" spans="1:8" ht="18.75">
-      <c r="A156" s="67"/>
+      <c r="J155" s="66"/>
+    </row>
+    <row r="156" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A156" s="66"/>
       <c r="B156" s="10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C156" s="7">
-        <v>1040211</v>
+        <v>1051203</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E156" s="3">
         <v>2</v>
       </c>
-      <c r="F156" s="34">
-        <v>3</v>
-      </c>
+      <c r="F156" s="34"/>
       <c r="G156" s="51"/>
       <c r="H156" s="41"/>
-    </row>
-    <row r="157" spans="1:8" ht="18.75">
-      <c r="A157" s="68"/>
+      <c r="J156" s="66"/>
+    </row>
+    <row r="157" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A157" s="67"/>
       <c r="B157" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E157" s="3">
         <v>2</v>
       </c>
-      <c r="F157" s="34">
-        <v>2</v>
-      </c>
+      <c r="F157" s="34"/>
       <c r="G157" s="51"/>
       <c r="H157" s="41"/>
-    </row>
-    <row r="158" spans="1:8" ht="18.75">
-      <c r="A158" s="57" t="s">
-        <v>59</v>
+      <c r="J157" s="67"/>
+    </row>
+    <row r="158" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A158" s="68" t="s">
+        <v>85</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>2</v>
@@ -4501,9 +4646,15 @@
       </c>
       <c r="G158" s="51"/>
       <c r="H158" s="41"/>
-    </row>
-    <row r="159" spans="1:8" ht="18.75">
-      <c r="A159" s="58"/>
+      <c r="I158">
+        <v>5</v>
+      </c>
+      <c r="J158" s="68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A159" s="69"/>
       <c r="B159" s="10" t="s">
         <v>3</v>
       </c>
@@ -4521,13 +4672,14 @@
       </c>
       <c r="G159" s="51"/>
       <c r="H159" s="41"/>
-    </row>
-    <row r="160" spans="1:8" ht="18.75">
-      <c r="A160" s="58"/>
-      <c r="B160" s="2" t="s">
+      <c r="J159" s="69"/>
+    </row>
+    <row r="160" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A160" s="69"/>
+      <c r="B160" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="7">
         <v>1031103</v>
       </c>
       <c r="D160" s="12" t="s">
@@ -4541,89 +4693,94 @@
       </c>
       <c r="G160" s="51"/>
       <c r="H160" s="41"/>
-    </row>
-    <row r="161" spans="1:8" ht="18.75">
-      <c r="A161" s="58"/>
-      <c r="B161" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" s="7">
-        <v>1022371</v>
+      <c r="J160" s="69"/>
+    </row>
+    <row r="161" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A161" s="69"/>
+      <c r="B161" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3221713</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E161" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F161" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G161" s="51"/>
       <c r="H161" s="41"/>
-    </row>
-    <row r="162" spans="1:8" ht="18.75">
-      <c r="A162" s="58"/>
+      <c r="J161" s="69"/>
+    </row>
+    <row r="162" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A162" s="69"/>
       <c r="B162" s="10" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C162" s="7">
-        <v>3413032</v>
+        <v>2013701</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E162" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F162" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G162" s="51"/>
       <c r="H162" s="41"/>
-    </row>
-    <row r="163" spans="1:8" ht="18.75">
-      <c r="A163" s="58"/>
+      <c r="J162" s="69"/>
+    </row>
+    <row r="163" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A163" s="69"/>
       <c r="B163" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C163" s="7">
-        <v>3413013</v>
+        <v>1032101</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E163" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G163" s="51"/>
       <c r="H163" s="41"/>
-    </row>
-    <row r="164" spans="1:8" ht="18.75">
-      <c r="A164" s="58"/>
+      <c r="J163" s="69"/>
+    </row>
+    <row r="164" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A164" s="69"/>
       <c r="B164" s="10" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C164" s="7">
-        <v>1061021</v>
+        <v>1040211</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E164" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F164" s="34">
         <v>3</v>
       </c>
       <c r="G164" s="51"/>
       <c r="H164" s="41"/>
-    </row>
-    <row r="165" spans="1:8" ht="18.75">
-      <c r="A165" s="58"/>
+      <c r="J164" s="69"/>
+    </row>
+    <row r="165" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A165" s="70"/>
       <c r="B165" s="10" t="s">
         <v>24</v>
       </c>
@@ -4637,31 +4794,223 @@
       <c r="F165" s="34">
         <v>2</v>
       </c>
-      <c r="G165" s="34"/>
-      <c r="H165" s="43"/>
+      <c r="G165" s="51"/>
+      <c r="H165" s="41"/>
+      <c r="J165" s="70"/>
+    </row>
+    <row r="166" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A166" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="7">
+        <v>1011053</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" s="34">
+        <v>1</v>
+      </c>
+      <c r="G166" s="51"/>
+      <c r="H166" s="41"/>
+      <c r="J166" s="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A167" s="60"/>
+      <c r="B167" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="7">
+        <v>1021303</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="34">
+        <v>1</v>
+      </c>
+      <c r="G167" s="51"/>
+      <c r="H167" s="41"/>
+      <c r="J167" s="60"/>
+    </row>
+    <row r="168" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A168" s="60"/>
+      <c r="B168" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1031103</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="34">
+        <v>1</v>
+      </c>
+      <c r="G168" s="51"/>
+      <c r="H168" s="41"/>
+      <c r="J168" s="60"/>
+    </row>
+    <row r="169" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A169" s="60"/>
+      <c r="B169" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="7">
+        <v>1022371</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="3">
+        <v>3</v>
+      </c>
+      <c r="F169" s="34">
+        <v>3</v>
+      </c>
+      <c r="G169" s="51"/>
+      <c r="H169" s="41"/>
+      <c r="J169" s="60"/>
+    </row>
+    <row r="170" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A170" s="60"/>
+      <c r="B170" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="7">
+        <v>3413032</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="34">
+        <v>1</v>
+      </c>
+      <c r="G170" s="51"/>
+      <c r="H170" s="41"/>
+      <c r="J170" s="60"/>
+    </row>
+    <row r="171" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A171" s="60"/>
+      <c r="B171" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="7">
+        <v>3413013</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F171" s="34">
+        <v>1</v>
+      </c>
+      <c r="G171" s="51"/>
+      <c r="H171" s="41"/>
+      <c r="J171" s="60"/>
+    </row>
+    <row r="172" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A172" s="60"/>
+      <c r="B172" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="7">
+        <v>1061021</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="3">
+        <v>3</v>
+      </c>
+      <c r="F172" s="34">
+        <v>3</v>
+      </c>
+      <c r="G172" s="51"/>
+      <c r="H172" s="41"/>
+      <c r="J172" s="60"/>
+    </row>
+    <row r="173" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
+      <c r="A173" s="60"/>
+      <c r="B173" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173" s="3">
+        <v>2</v>
+      </c>
+      <c r="F173" s="34">
+        <v>2</v>
+      </c>
+      <c r="G173" s="34"/>
+      <c r="H173" s="43"/>
+      <c r="J173" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="A61:A69"/>
-    <mergeCell ref="A158:A165"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="A143:A149"/>
-    <mergeCell ref="A122:A131"/>
-    <mergeCell ref="A150:A157"/>
-    <mergeCell ref="A132:A142"/>
-    <mergeCell ref="A86:A93"/>
-    <mergeCell ref="A78:A85"/>
+  <mergeCells count="41">
+    <mergeCell ref="J140:J150"/>
+    <mergeCell ref="J151:J157"/>
+    <mergeCell ref="J158:J165"/>
+    <mergeCell ref="J166:J173"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="J86:J93"/>
+    <mergeCell ref="J94:J101"/>
+    <mergeCell ref="J102:J110"/>
+    <mergeCell ref="J120:J129"/>
+    <mergeCell ref="J130:J139"/>
+    <mergeCell ref="J111:J119"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="J52:J60"/>
+    <mergeCell ref="J61:J69"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="J78:J85"/>
+    <mergeCell ref="J1:J8"/>
+    <mergeCell ref="J9:J17"/>
+    <mergeCell ref="J18:J26"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="J36:J43"/>
     <mergeCell ref="A1:A8"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A36:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A27:A35"/>
     <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A166:A173"/>
+    <mergeCell ref="A102:A110"/>
+    <mergeCell ref="A120:A129"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="A151:A157"/>
+    <mergeCell ref="A130:A139"/>
+    <mergeCell ref="A158:A165"/>
+    <mergeCell ref="A140:A150"/>
+    <mergeCell ref="A86:A93"/>
+    <mergeCell ref="A78:A85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/conf/colleagereqs.xlsx
+++ b/conf/colleagereqs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
   <si>
     <t>مبانی کامپیوتر و برنامه سازی</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>مهندسی مواد و متالورژی</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,4</t>
   </si>
 </sst>
 </file>
@@ -815,6 +821,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,59 +875,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:A150"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" x14ac:dyDescent="1"/>
@@ -1178,7 +1184,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="69" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -1200,12 +1206,12 @@
       <c r="H1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="54">
+      <c r="J1" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A2" s="55"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1221,10 +1227,10 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
       <c r="H2" s="37"/>
-      <c r="J2" s="55"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1240,10 +1246,10 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="37"/>
-      <c r="J3" s="55"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1259,10 +1265,10 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="37"/>
-      <c r="J4" s="55"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A5" s="55"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1278,10 +1284,10 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="37"/>
-      <c r="J5" s="55"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A6" s="55"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1297,10 +1303,10 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="37"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A7" s="55"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1314,10 +1320,10 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="37"/>
-      <c r="J7" s="55"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A8" s="56"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1333,10 +1339,10 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="38"/>
-      <c r="J8" s="56"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="69" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1360,12 +1366,12 @@
       <c r="H9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A10" s="55"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1383,10 +1389,10 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="37"/>
-      <c r="J10" s="55"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A11" s="55"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1404,10 +1410,10 @@
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="37"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1425,10 +1431,10 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="37"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A13" s="55"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1446,10 +1452,10 @@
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="37"/>
-      <c r="J13" s="55"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A14" s="55"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1467,10 +1473,10 @@
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="37"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A15" s="55"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
@@ -1488,10 +1494,10 @@
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="37"/>
-      <c r="J15" s="55"/>
+      <c r="J15" s="70"/>
     </row>
     <row r="16" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A16" s="55"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1507,10 +1513,10 @@
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="37"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A17" s="56"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
@@ -1528,10 +1534,10 @@
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="38"/>
-      <c r="J17" s="56"/>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="69" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1558,12 +1564,12 @@
       <c r="I18" s="52">
         <v>5</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A19" s="55"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1581,10 +1587,10 @@
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="37"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A20" s="55"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1606,10 +1612,10 @@
       <c r="H20" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="55"/>
+      <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A21" s="55"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
@@ -1627,10 +1633,10 @@
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="37"/>
-      <c r="J21" s="55"/>
+      <c r="J21" s="70"/>
     </row>
     <row r="22" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A22" s="55"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1652,10 +1658,10 @@
       <c r="H22" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="55"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A23" s="55"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1673,10 +1679,10 @@
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="37"/>
-      <c r="J23" s="55"/>
+      <c r="J23" s="70"/>
     </row>
     <row r="24" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A24" s="55"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1694,10 +1700,10 @@
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="37"/>
-      <c r="J24" s="55"/>
+      <c r="J24" s="70"/>
     </row>
     <row r="25" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A25" s="55"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1715,10 +1721,10 @@
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="37"/>
-      <c r="J25" s="55"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A26" s="56"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="23" t="s">
         <v>29</v>
       </c>
@@ -1734,10 +1740,10 @@
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="38"/>
-      <c r="J26" s="56"/>
+      <c r="J26" s="71"/>
     </row>
     <row r="27" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -1757,12 +1763,12 @@
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="36"/>
-      <c r="J27" s="54">
+      <c r="J27" s="69">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A28" s="55"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1780,10 +1786,10 @@
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="37"/>
-      <c r="J28" s="55"/>
+      <c r="J28" s="70"/>
     </row>
     <row r="29" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A29" s="55"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
@@ -1801,10 +1807,10 @@
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="37"/>
-      <c r="J29" s="55"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A30" s="55"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
@@ -1822,10 +1828,10 @@
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="37"/>
-      <c r="J30" s="55"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A31" s="55"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1843,10 +1849,10 @@
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="37"/>
-      <c r="J31" s="55"/>
+      <c r="J31" s="70"/>
     </row>
     <row r="32" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A32" s="55"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1864,10 +1870,10 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="37"/>
-      <c r="J32" s="55"/>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A33" s="55"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1885,10 +1891,10 @@
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="37"/>
-      <c r="J33" s="55"/>
+      <c r="J33" s="70"/>
     </row>
     <row r="34" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A34" s="55"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
@@ -1906,10 +1912,10 @@
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="37"/>
-      <c r="J34" s="55"/>
+      <c r="J34" s="70"/>
     </row>
     <row r="35" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A35" s="56"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="27" t="s">
         <v>20</v>
       </c>
@@ -1925,10 +1931,10 @@
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="38"/>
-      <c r="J35" s="56"/>
+      <c r="J35" s="71"/>
     </row>
     <row r="36" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="69" t="s">
         <v>87</v>
       </c>
       <c r="B36" s="25" t="s">
@@ -1951,12 +1957,12 @@
       <c r="I36">
         <v>5</v>
       </c>
-      <c r="J36" s="54">
+      <c r="J36" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="136.80000000000001" x14ac:dyDescent="1">
-      <c r="A37" s="55"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
@@ -1978,10 +1984,10 @@
       <c r="H37" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J37" s="55"/>
+      <c r="J37" s="70"/>
     </row>
     <row r="38" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A38" s="55"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -1999,10 +2005,10 @@
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="37"/>
-      <c r="J38" s="55"/>
+      <c r="J38" s="70"/>
     </row>
     <row r="39" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A39" s="55"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="6" t="s">
         <v>27</v>
       </c>
@@ -2020,10 +2026,10 @@
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="37"/>
-      <c r="J39" s="55"/>
+      <c r="J39" s="70"/>
     </row>
     <row r="40" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A40" s="55"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="10" t="s">
         <v>26</v>
       </c>
@@ -2041,10 +2047,10 @@
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="37"/>
-      <c r="J40" s="55"/>
+      <c r="J40" s="70"/>
     </row>
     <row r="41" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A41" s="55"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="6" t="s">
         <v>14</v>
       </c>
@@ -2062,10 +2068,10 @@
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="37"/>
-      <c r="J41" s="55"/>
+      <c r="J41" s="70"/>
     </row>
     <row r="42" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A42" s="55"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2083,10 +2089,10 @@
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="37"/>
-      <c r="J42" s="55"/>
+      <c r="J42" s="70"/>
     </row>
     <row r="43" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A43" s="56"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="28" t="s">
         <v>15</v>
       </c>
@@ -2102,10 +2108,10 @@
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="38"/>
-      <c r="J43" s="56"/>
+      <c r="J43" s="71"/>
     </row>
     <row r="44" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="69" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -2128,12 +2134,12 @@
       <c r="I44">
         <v>5</v>
       </c>
-      <c r="J44" s="54">
+      <c r="J44" s="69">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A45" s="55"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
@@ -2151,10 +2157,10 @@
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="37"/>
-      <c r="J45" s="55"/>
+      <c r="J45" s="70"/>
     </row>
     <row r="46" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A46" s="55"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="6" t="s">
         <v>11</v>
       </c>
@@ -2172,10 +2178,10 @@
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="37"/>
-      <c r="J46" s="55"/>
+      <c r="J46" s="70"/>
     </row>
     <row r="47" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A47" s="55"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="6" t="s">
         <v>12</v>
       </c>
@@ -2193,10 +2199,10 @@
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="37"/>
-      <c r="J47" s="55"/>
+      <c r="J47" s="70"/>
     </row>
     <row r="48" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A48" s="55"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
@@ -2214,10 +2220,10 @@
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="37"/>
-      <c r="J48" s="55"/>
+      <c r="J48" s="70"/>
     </row>
     <row r="49" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A49" s="55"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="6" t="s">
         <v>35</v>
       </c>
@@ -2235,10 +2241,10 @@
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="37"/>
-      <c r="J49" s="55"/>
+      <c r="J49" s="70"/>
     </row>
     <row r="50" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A50" s="55"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2256,10 +2262,10 @@
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="37"/>
-      <c r="J50" s="55"/>
+      <c r="J50" s="70"/>
     </row>
     <row r="51" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A51" s="56"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="17" t="s">
         <v>5</v>
       </c>
@@ -2277,10 +2283,10 @@
       </c>
       <c r="G51" s="35"/>
       <c r="H51" s="38"/>
-      <c r="J51" s="56"/>
+      <c r="J51" s="71"/>
     </row>
     <row r="52" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -2300,12 +2306,12 @@
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="36"/>
-      <c r="J52" s="54">
+      <c r="J52" s="69">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A53" s="55"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="10" t="s">
         <v>3</v>
       </c>
@@ -2323,10 +2329,10 @@
       </c>
       <c r="G53" s="34"/>
       <c r="H53" s="37"/>
-      <c r="J53" s="55"/>
+      <c r="J53" s="70"/>
     </row>
     <row r="54" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A54" s="55"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="6" t="s">
         <v>27</v>
       </c>
@@ -2344,10 +2350,10 @@
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="37"/>
-      <c r="J54" s="55"/>
+      <c r="J54" s="70"/>
     </row>
     <row r="55" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A55" s="55"/>
+      <c r="A55" s="70"/>
       <c r="B55" s="6" t="s">
         <v>35</v>
       </c>
@@ -2365,10 +2371,10 @@
       </c>
       <c r="G55" s="34"/>
       <c r="H55" s="37"/>
-      <c r="J55" s="55"/>
+      <c r="J55" s="70"/>
     </row>
     <row r="56" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A56" s="55"/>
+      <c r="A56" s="70"/>
       <c r="B56" s="11" t="s">
         <v>39</v>
       </c>
@@ -2386,10 +2392,10 @@
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="37"/>
-      <c r="J56" s="55"/>
+      <c r="J56" s="70"/>
     </row>
     <row r="57" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A57" s="55"/>
+      <c r="A57" s="70"/>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2407,10 +2413,10 @@
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="37"/>
-      <c r="J57" s="55"/>
+      <c r="J57" s="70"/>
     </row>
     <row r="58" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A58" s="55"/>
+      <c r="A58" s="70"/>
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -2428,10 +2434,10 @@
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="37"/>
-      <c r="J58" s="55"/>
+      <c r="J58" s="70"/>
     </row>
     <row r="59" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A59" s="55"/>
+      <c r="A59" s="70"/>
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -2447,10 +2453,10 @@
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="37"/>
-      <c r="J59" s="55"/>
+      <c r="J59" s="70"/>
     </row>
     <row r="60" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A60" s="56"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="23" t="s">
         <v>40</v>
       </c>
@@ -2468,10 +2474,10 @@
       </c>
       <c r="G60" s="35"/>
       <c r="H60" s="38"/>
-      <c r="J60" s="56"/>
+      <c r="J60" s="71"/>
     </row>
     <row r="61" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="1">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="69" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="30" t="s">
@@ -2490,13 +2496,13 @@
         <v>1</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="57" t="s">
+      <c r="H61" s="73" t="s">
         <v>51</v>
       </c>
       <c r="I61" s="40">
         <v>5</v>
       </c>
-      <c r="J61" s="54">
+      <c r="J61" s="69">
         <v>8</v>
       </c>
       <c r="K61" s="40"/>
@@ -2507,7 +2513,7 @@
       <c r="P61" s="40"/>
     </row>
     <row r="62" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="1">
-      <c r="A62" s="55"/>
+      <c r="A62" s="70"/>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
@@ -2524,9 +2530,9 @@
         <v>1</v>
       </c>
       <c r="G62" s="34"/>
-      <c r="H62" s="58"/>
+      <c r="H62" s="74"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="55"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="40"/>
       <c r="L62" s="40"/>
       <c r="M62" s="40"/>
@@ -2535,7 +2541,7 @@
       <c r="P62" s="40"/>
     </row>
     <row r="63" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A63" s="55"/>
+      <c r="A63" s="70"/>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
@@ -2554,7 +2560,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="37"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="55"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="40"/>
       <c r="L63" s="40"/>
       <c r="M63" s="40"/>
@@ -2563,7 +2569,7 @@
       <c r="P63" s="40"/>
     </row>
     <row r="64" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A64" s="55"/>
+      <c r="A64" s="70"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -2582,7 +2588,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="37"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="55"/>
+      <c r="J64" s="70"/>
       <c r="K64" s="40"/>
       <c r="L64" s="40"/>
       <c r="M64" s="40"/>
@@ -2591,7 +2597,7 @@
       <c r="P64" s="40"/>
     </row>
     <row r="65" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A65" s="55"/>
+      <c r="A65" s="70"/>
       <c r="B65" s="2" t="s">
         <v>44</v>
       </c>
@@ -2610,7 +2616,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="37"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="55"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="40"/>
       <c r="L65" s="40"/>
       <c r="M65" s="40"/>
@@ -2619,7 +2625,7 @@
       <c r="P65" s="40"/>
     </row>
     <row r="66" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A66" s="55"/>
+      <c r="A66" s="70"/>
       <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
@@ -2638,7 +2644,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="37"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="55"/>
+      <c r="J66" s="70"/>
       <c r="K66" s="40"/>
       <c r="L66" s="40"/>
       <c r="M66" s="40"/>
@@ -2647,7 +2653,7 @@
       <c r="P66" s="40"/>
     </row>
     <row r="67" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A67" s="55"/>
+      <c r="A67" s="70"/>
       <c r="B67" s="10" t="s">
         <v>22</v>
       </c>
@@ -2664,7 +2670,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="37"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="55"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
       <c r="M67" s="40"/>
@@ -2673,7 +2679,7 @@
       <c r="P67" s="40"/>
     </row>
     <row r="68" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A68" s="55"/>
+      <c r="A68" s="70"/>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +2698,7 @@
       <c r="G68" s="34"/>
       <c r="H68" s="37"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="55"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="40"/>
       <c r="L68" s="40"/>
       <c r="M68" s="40"/>
@@ -2701,7 +2707,7 @@
       <c r="P68" s="40"/>
     </row>
     <row r="69" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A69" s="56"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="31" t="s">
         <v>43</v>
       </c>
@@ -2720,7 +2726,7 @@
       <c r="G69" s="35"/>
       <c r="H69" s="38"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="56"/>
+      <c r="J69" s="71"/>
       <c r="K69" s="40"/>
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
@@ -2729,7 +2735,7 @@
       <c r="P69" s="40"/>
     </row>
     <row r="70" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="69" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="25" t="s">
@@ -2750,7 +2756,7 @@
       <c r="G70" s="33"/>
       <c r="H70" s="36"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="54">
+      <c r="J70" s="69">
         <v>9</v>
       </c>
       <c r="K70" s="40"/>
@@ -2761,7 +2767,7 @@
       <c r="P70" s="40"/>
     </row>
     <row r="71" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A71" s="55"/>
+      <c r="A71" s="70"/>
       <c r="B71" s="10" t="s">
         <v>3</v>
       </c>
@@ -2780,7 +2786,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="37"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="55"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="40"/>
       <c r="L71" s="40"/>
       <c r="M71" s="40"/>
@@ -2789,7 +2795,7 @@
       <c r="P71" s="40"/>
     </row>
     <row r="72" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A72" s="55"/>
+      <c r="A72" s="70"/>
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
@@ -2808,7 +2814,7 @@
       <c r="G72" s="34"/>
       <c r="H72" s="37"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="55"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="40"/>
       <c r="L72" s="40"/>
       <c r="M72" s="40"/>
@@ -2817,7 +2823,7 @@
       <c r="P72" s="40"/>
     </row>
     <row r="73" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A73" s="55"/>
+      <c r="A73" s="70"/>
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2834,7 +2840,7 @@
       <c r="G73" s="34"/>
       <c r="H73" s="37"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="55"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="40"/>
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
@@ -2843,7 +2849,7 @@
       <c r="P73" s="40"/>
     </row>
     <row r="74" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A74" s="55"/>
+      <c r="A74" s="70"/>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -2862,7 +2868,7 @@
       <c r="G74" s="34"/>
       <c r="H74" s="37"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="55"/>
+      <c r="J74" s="70"/>
       <c r="K74" s="40"/>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
@@ -2871,7 +2877,7 @@
       <c r="P74" s="40"/>
     </row>
     <row r="75" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A75" s="55"/>
+      <c r="A75" s="70"/>
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -2890,7 +2896,7 @@
       <c r="G75" s="34"/>
       <c r="H75" s="37"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="55"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="40"/>
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
@@ -2899,7 +2905,7 @@
       <c r="P75" s="40"/>
     </row>
     <row r="76" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A76" s="55"/>
+      <c r="A76" s="70"/>
       <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
@@ -2918,7 +2924,7 @@
       <c r="G76" s="34"/>
       <c r="H76" s="37"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="55"/>
+      <c r="J76" s="70"/>
       <c r="K76" s="40"/>
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
@@ -2927,7 +2933,7 @@
       <c r="P76" s="40"/>
     </row>
     <row r="77" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A77" s="56"/>
+      <c r="A77" s="71"/>
       <c r="B77" s="27" t="s">
         <v>33</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>52</v>
       </c>
       <c r="I77" s="40"/>
-      <c r="J77" s="56"/>
+      <c r="J77" s="71"/>
       <c r="K77" s="40"/>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
@@ -2959,7 +2965,7 @@
       <c r="P77" s="40"/>
     </row>
     <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B78" s="46" t="s">
@@ -2977,12 +2983,12 @@
       <c r="F78" s="44"/>
       <c r="G78" s="50"/>
       <c r="H78" s="49"/>
-      <c r="J78" s="71">
+      <c r="J78" s="72">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A79" s="64"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="10" t="s">
         <v>3</v>
       </c>
@@ -2998,10 +3004,10 @@
       <c r="F79" s="45"/>
       <c r="G79" s="50"/>
       <c r="H79" s="41"/>
-      <c r="J79" s="64"/>
+      <c r="J79" s="65"/>
     </row>
     <row r="80" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A80" s="64"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="10" t="s">
         <v>0</v>
       </c>
@@ -3015,12 +3021,14 @@
         <v>1</v>
       </c>
       <c r="F80" s="34"/>
-      <c r="G80" s="51"/>
+      <c r="G80" s="51" t="s">
+        <v>90</v>
+      </c>
       <c r="H80" s="41"/>
-      <c r="J80" s="64"/>
+      <c r="J80" s="65"/>
     </row>
     <row r="81" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A81" s="64"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="10" t="s">
         <v>71</v>
       </c>
@@ -3036,10 +3044,10 @@
       <c r="F81" s="34"/>
       <c r="G81" s="51"/>
       <c r="H81" s="41"/>
-      <c r="J81" s="64"/>
+      <c r="J81" s="65"/>
     </row>
     <row r="82" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A82" s="64"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="2" t="s">
         <v>31</v>
       </c>
@@ -3055,10 +3063,10 @@
       <c r="F82" s="34"/>
       <c r="G82" s="51"/>
       <c r="H82" s="41"/>
-      <c r="J82" s="64"/>
+      <c r="J82" s="65"/>
     </row>
     <row r="83" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A83" s="64"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="10" t="s">
         <v>19</v>
       </c>
@@ -3074,10 +3082,10 @@
       <c r="F83" s="34"/>
       <c r="G83" s="51"/>
       <c r="H83" s="41"/>
-      <c r="J83" s="64"/>
+      <c r="J83" s="65"/>
     </row>
     <row r="84" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A84" s="64"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="10" t="s">
         <v>5</v>
       </c>
@@ -3093,10 +3101,10 @@
       <c r="F84" s="34"/>
       <c r="G84" s="51"/>
       <c r="H84" s="41"/>
-      <c r="J84" s="64"/>
+      <c r="J84" s="65"/>
     </row>
     <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A85" s="64"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="10" t="s">
         <v>24</v>
       </c>
@@ -3110,10 +3118,10 @@
       <c r="F85" s="34"/>
       <c r="G85" s="51"/>
       <c r="H85" s="41"/>
-      <c r="J85" s="64"/>
+      <c r="J85" s="65"/>
     </row>
     <row r="86" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A86" s="64" t="s">
+      <c r="A86" s="65" t="s">
         <v>72</v>
       </c>
       <c r="B86" s="10" t="s">
@@ -3133,12 +3141,12 @@
       </c>
       <c r="G86" s="51"/>
       <c r="H86" s="41"/>
-      <c r="J86" s="64">
+      <c r="J86" s="65">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A87" s="64"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="10" t="s">
         <v>3</v>
       </c>
@@ -3156,10 +3164,10 @@
       </c>
       <c r="G87" s="51"/>
       <c r="H87" s="41"/>
-      <c r="J87" s="64"/>
+      <c r="J87" s="65"/>
     </row>
     <row r="88" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A88" s="64"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="10" t="s">
         <v>0</v>
       </c>
@@ -3175,12 +3183,14 @@
       <c r="F88" s="34">
         <v>1</v>
       </c>
-      <c r="G88" s="51"/>
+      <c r="G88" s="51" t="s">
+        <v>91</v>
+      </c>
       <c r="H88" s="41"/>
-      <c r="J88" s="64"/>
+      <c r="J88" s="65"/>
     </row>
     <row r="89" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A89" s="64"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="2" t="s">
         <v>71</v>
       </c>
@@ -3198,10 +3208,10 @@
       </c>
       <c r="G89" s="51"/>
       <c r="H89" s="41"/>
-      <c r="J89" s="64"/>
+      <c r="J89" s="65"/>
     </row>
     <row r="90" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A90" s="64"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -3219,10 +3229,10 @@
       </c>
       <c r="G90" s="51"/>
       <c r="H90" s="41"/>
-      <c r="J90" s="64"/>
+      <c r="J90" s="65"/>
     </row>
     <row r="91" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A91" s="64"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="10" t="s">
         <v>19</v>
       </c>
@@ -3240,10 +3250,10 @@
       </c>
       <c r="G91" s="51"/>
       <c r="H91" s="41"/>
-      <c r="J91" s="64"/>
+      <c r="J91" s="65"/>
     </row>
     <row r="92" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A92" s="64"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="10" t="s">
         <v>5</v>
       </c>
@@ -3261,10 +3271,10 @@
       </c>
       <c r="G92" s="51"/>
       <c r="H92" s="41"/>
-      <c r="J92" s="64"/>
+      <c r="J92" s="65"/>
     </row>
     <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A93" s="64"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="10" t="s">
         <v>24</v>
       </c>
@@ -3280,10 +3290,10 @@
       </c>
       <c r="G93" s="51"/>
       <c r="H93" s="41"/>
-      <c r="J93" s="64"/>
+      <c r="J93" s="65"/>
     </row>
     <row r="94" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A94" s="64" t="s">
+      <c r="A94" s="65" t="s">
         <v>80</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -3306,12 +3316,12 @@
       <c r="I94">
         <v>5</v>
       </c>
-      <c r="J94" s="64">
+      <c r="J94" s="65">
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A95" s="64"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="10" t="s">
         <v>3</v>
       </c>
@@ -3329,10 +3339,10 @@
       </c>
       <c r="G95" s="51"/>
       <c r="H95" s="41"/>
-      <c r="J95" s="64"/>
+      <c r="J95" s="65"/>
     </row>
     <row r="96" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A96" s="64"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="2" t="s">
         <v>70</v>
       </c>
@@ -3350,10 +3360,10 @@
       </c>
       <c r="G96" s="51"/>
       <c r="H96" s="41"/>
-      <c r="J96" s="64"/>
+      <c r="J96" s="65"/>
     </row>
     <row r="97" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A97" s="64"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
@@ -3371,10 +3381,10 @@
       </c>
       <c r="G97" s="51"/>
       <c r="H97" s="41"/>
-      <c r="J97" s="64"/>
+      <c r="J97" s="65"/>
     </row>
     <row r="98" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A98" s="64"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="10" t="s">
         <v>69</v>
       </c>
@@ -3392,10 +3402,10 @@
       </c>
       <c r="G98" s="51"/>
       <c r="H98" s="41"/>
-      <c r="J98" s="64"/>
+      <c r="J98" s="65"/>
     </row>
     <row r="99" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A99" s="64"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -3413,10 +3423,10 @@
       </c>
       <c r="G99" s="51"/>
       <c r="H99" s="41"/>
-      <c r="J99" s="64"/>
+      <c r="J99" s="65"/>
     </row>
     <row r="100" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A100" s="64"/>
+      <c r="A100" s="65"/>
       <c r="B100" s="10" t="s">
         <v>31</v>
       </c>
@@ -3434,10 +3444,10 @@
       </c>
       <c r="G100" s="51"/>
       <c r="H100" s="41"/>
-      <c r="J100" s="64"/>
+      <c r="J100" s="65"/>
     </row>
     <row r="101" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A101" s="64"/>
+      <c r="A101" s="65"/>
       <c r="B101" s="10" t="s">
         <v>24</v>
       </c>
@@ -3453,10 +3463,10 @@
       </c>
       <c r="G101" s="51"/>
       <c r="H101" s="41"/>
-      <c r="J101" s="64"/>
+      <c r="J101" s="65"/>
     </row>
     <row r="102" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A102" s="61" t="s">
+      <c r="A102" s="62" t="s">
         <v>81</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -3479,12 +3489,12 @@
       <c r="I102">
         <v>5</v>
       </c>
-      <c r="J102" s="61">
+      <c r="J102" s="62">
         <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A103" s="62"/>
+      <c r="A103" s="63"/>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
@@ -3502,10 +3512,10 @@
       </c>
       <c r="G103" s="51"/>
       <c r="H103" s="41"/>
-      <c r="J103" s="62"/>
+      <c r="J103" s="63"/>
     </row>
     <row r="104" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A104" s="62"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="10" t="s">
         <v>68</v>
       </c>
@@ -3523,10 +3533,10 @@
       </c>
       <c r="G104" s="51"/>
       <c r="H104" s="42"/>
-      <c r="J104" s="62"/>
+      <c r="J104" s="63"/>
     </row>
     <row r="105" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A105" s="62"/>
+      <c r="A105" s="63"/>
       <c r="B105" s="10" t="s">
         <v>66</v>
       </c>
@@ -3544,10 +3554,10 @@
       </c>
       <c r="G105" s="51"/>
       <c r="H105" s="41"/>
-      <c r="J105" s="62"/>
+      <c r="J105" s="63"/>
     </row>
     <row r="106" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A106" s="62"/>
+      <c r="A106" s="63"/>
       <c r="B106" s="10" t="s">
         <v>14</v>
       </c>
@@ -3565,10 +3575,10 @@
       </c>
       <c r="G106" s="51"/>
       <c r="H106" s="41"/>
-      <c r="J106" s="62"/>
+      <c r="J106" s="63"/>
     </row>
     <row r="107" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A107" s="62"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="10" t="s">
         <v>31</v>
       </c>
@@ -3586,10 +3596,10 @@
       </c>
       <c r="G107" s="51"/>
       <c r="H107" s="41"/>
-      <c r="J107" s="62"/>
+      <c r="J107" s="63"/>
     </row>
     <row r="108" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A108" s="62"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="10" t="s">
         <v>5</v>
       </c>
@@ -3607,10 +3617,10 @@
       </c>
       <c r="G108" s="51"/>
       <c r="H108" s="41"/>
-      <c r="J108" s="62"/>
+      <c r="J108" s="63"/>
     </row>
     <row r="109" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A109" s="62"/>
+      <c r="A109" s="63"/>
       <c r="B109" s="10" t="s">
         <v>19</v>
       </c>
@@ -3628,10 +3638,10 @@
       </c>
       <c r="G109" s="51"/>
       <c r="H109" s="41"/>
-      <c r="J109" s="62"/>
+      <c r="J109" s="63"/>
     </row>
     <row r="110" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A110" s="63"/>
+      <c r="A110" s="64"/>
       <c r="B110" s="10" t="s">
         <v>24</v>
       </c>
@@ -3647,10 +3657,10 @@
       </c>
       <c r="G110" s="51"/>
       <c r="H110" s="41"/>
-      <c r="J110" s="63"/>
+      <c r="J110" s="64"/>
     </row>
     <row r="111" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="62" t="s">
         <v>81</v>
       </c>
       <c r="B111" s="10" t="s">
@@ -3673,12 +3683,12 @@
       <c r="I111">
         <v>5</v>
       </c>
-      <c r="J111" s="72">
+      <c r="J111" s="66">
         <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A112" s="62"/>
+      <c r="A112" s="63"/>
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
@@ -3696,10 +3706,10 @@
       </c>
       <c r="G112" s="51"/>
       <c r="H112" s="41"/>
-      <c r="J112" s="73"/>
+      <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A113" s="62"/>
+      <c r="A113" s="63"/>
       <c r="B113" s="10" t="s">
         <v>67</v>
       </c>
@@ -3717,10 +3727,10 @@
       </c>
       <c r="G113" s="51"/>
       <c r="H113" s="41"/>
-      <c r="J113" s="73"/>
+      <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A114" s="62"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="10" t="s">
         <v>66</v>
       </c>
@@ -3738,10 +3748,10 @@
       </c>
       <c r="G114" s="51"/>
       <c r="H114" s="41"/>
-      <c r="J114" s="73"/>
+      <c r="J114" s="67"/>
     </row>
     <row r="115" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A115" s="62"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="10" t="s">
         <v>14</v>
       </c>
@@ -3759,10 +3769,10 @@
       </c>
       <c r="G115" s="51"/>
       <c r="H115" s="41"/>
-      <c r="J115" s="73"/>
+      <c r="J115" s="67"/>
     </row>
     <row r="116" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A116" s="62"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="10" t="s">
         <v>31</v>
       </c>
@@ -3780,10 +3790,10 @@
       </c>
       <c r="G116" s="51"/>
       <c r="H116" s="41"/>
-      <c r="J116" s="73"/>
+      <c r="J116" s="67"/>
     </row>
     <row r="117" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A117" s="62"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="10" t="s">
         <v>5</v>
       </c>
@@ -3801,10 +3811,10 @@
       </c>
       <c r="G117" s="51"/>
       <c r="H117" s="41"/>
-      <c r="J117" s="73"/>
+      <c r="J117" s="67"/>
     </row>
     <row r="118" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A118" s="62"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="10" t="s">
         <v>19</v>
       </c>
@@ -3822,10 +3832,10 @@
       </c>
       <c r="G118" s="51"/>
       <c r="H118" s="41"/>
-      <c r="J118" s="73"/>
+      <c r="J118" s="67"/>
     </row>
     <row r="119" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A119" s="63"/>
+      <c r="A119" s="64"/>
       <c r="B119" s="10" t="s">
         <v>24</v>
       </c>
@@ -3841,10 +3851,10 @@
       </c>
       <c r="G119" s="51"/>
       <c r="H119" s="41"/>
-      <c r="J119" s="74"/>
+      <c r="J119" s="68"/>
     </row>
     <row r="120" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A120" s="61" t="s">
+      <c r="A120" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B120" s="10" t="s">
@@ -3862,12 +3872,12 @@
       <c r="F120" s="34"/>
       <c r="G120" s="51"/>
       <c r="H120" s="41"/>
-      <c r="J120" s="61">
+      <c r="J120" s="62">
         <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A121" s="62"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
@@ -3883,10 +3893,10 @@
       <c r="F121" s="34"/>
       <c r="G121" s="51"/>
       <c r="H121" s="41"/>
-      <c r="J121" s="62"/>
+      <c r="J121" s="63"/>
     </row>
     <row r="122" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A122" s="62"/>
+      <c r="A122" s="63"/>
       <c r="B122" s="10" t="s">
         <v>14</v>
       </c>
@@ -3902,10 +3912,10 @@
       <c r="F122" s="34"/>
       <c r="G122" s="51"/>
       <c r="H122" s="41"/>
-      <c r="J122" s="62"/>
+      <c r="J122" s="63"/>
     </row>
     <row r="123" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A123" s="62"/>
+      <c r="A123" s="63"/>
       <c r="B123" s="10" t="s">
         <v>27</v>
       </c>
@@ -3921,10 +3931,10 @@
       <c r="F123" s="34"/>
       <c r="G123" s="51"/>
       <c r="H123" s="41"/>
-      <c r="J123" s="62"/>
+      <c r="J123" s="63"/>
     </row>
     <row r="124" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A124" s="62"/>
+      <c r="A124" s="63"/>
       <c r="B124" s="10" t="s">
         <v>56</v>
       </c>
@@ -3940,10 +3950,10 @@
       <c r="F124" s="34"/>
       <c r="G124" s="51"/>
       <c r="H124" s="41"/>
-      <c r="J124" s="62"/>
+      <c r="J124" s="63"/>
     </row>
     <row r="125" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A125" s="62"/>
+      <c r="A125" s="63"/>
       <c r="B125" s="10" t="s">
         <v>31</v>
       </c>
@@ -3959,10 +3969,10 @@
       <c r="F125" s="34"/>
       <c r="G125" s="51"/>
       <c r="H125" s="41"/>
-      <c r="J125" s="62"/>
+      <c r="J125" s="63"/>
     </row>
     <row r="126" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A126" s="62"/>
+      <c r="A126" s="63"/>
       <c r="B126" s="10" t="s">
         <v>65</v>
       </c>
@@ -3978,10 +3988,10 @@
       <c r="F126" s="34"/>
       <c r="G126" s="51"/>
       <c r="H126" s="41"/>
-      <c r="J126" s="62"/>
+      <c r="J126" s="63"/>
     </row>
     <row r="127" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A127" s="62"/>
+      <c r="A127" s="63"/>
       <c r="B127" s="10" t="s">
         <v>64</v>
       </c>
@@ -3997,10 +4007,10 @@
       <c r="F127" s="34"/>
       <c r="G127" s="51"/>
       <c r="H127" s="41"/>
-      <c r="J127" s="62"/>
+      <c r="J127" s="63"/>
     </row>
     <row r="128" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A128" s="62"/>
+      <c r="A128" s="63"/>
       <c r="B128" s="2" t="s">
         <v>5</v>
       </c>
@@ -4016,10 +4026,10 @@
       <c r="F128" s="34"/>
       <c r="G128" s="51"/>
       <c r="H128" s="41"/>
-      <c r="J128" s="62"/>
+      <c r="J128" s="63"/>
     </row>
     <row r="129" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A129" s="63"/>
+      <c r="A129" s="64"/>
       <c r="B129" s="10" t="s">
         <v>24</v>
       </c>
@@ -4033,10 +4043,10 @@
       <c r="F129" s="34"/>
       <c r="G129" s="51"/>
       <c r="H129" s="41"/>
-      <c r="J129" s="63"/>
+      <c r="J129" s="64"/>
     </row>
     <row r="130" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A130" s="65" t="s">
+      <c r="A130" s="54" t="s">
         <v>82</v>
       </c>
       <c r="B130" s="10" t="s">
@@ -4059,12 +4069,12 @@
       <c r="I130" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="65">
+      <c r="J130" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A131" s="66"/>
+      <c r="A131" s="55"/>
       <c r="B131" s="10" t="s">
         <v>3</v>
       </c>
@@ -4084,10 +4094,10 @@
       <c r="H131" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="J131" s="66"/>
+      <c r="J131" s="55"/>
     </row>
     <row r="132" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A132" s="66"/>
+      <c r="A132" s="55"/>
       <c r="B132" s="10" t="s">
         <v>14</v>
       </c>
@@ -4105,10 +4115,10 @@
       </c>
       <c r="G132" s="51"/>
       <c r="H132" s="41"/>
-      <c r="J132" s="66"/>
+      <c r="J132" s="55"/>
     </row>
     <row r="133" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A133" s="66"/>
+      <c r="A133" s="55"/>
       <c r="B133" s="10" t="s">
         <v>27</v>
       </c>
@@ -4126,10 +4136,10 @@
       </c>
       <c r="G133" s="51"/>
       <c r="H133" s="41"/>
-      <c r="J133" s="66"/>
+      <c r="J133" s="55"/>
     </row>
     <row r="134" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A134" s="66"/>
+      <c r="A134" s="55"/>
       <c r="B134" s="10" t="s">
         <v>12</v>
       </c>
@@ -4147,10 +4157,10 @@
       </c>
       <c r="G134" s="51"/>
       <c r="H134" s="41"/>
-      <c r="J134" s="66"/>
+      <c r="J134" s="55"/>
     </row>
     <row r="135" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="66"/>
+      <c r="A135" s="55"/>
       <c r="B135" s="2" t="s">
         <v>60</v>
       </c>
@@ -4168,10 +4178,10 @@
       </c>
       <c r="G135" s="51"/>
       <c r="H135" s="41"/>
-      <c r="J135" s="66"/>
+      <c r="J135" s="55"/>
     </row>
     <row r="136" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="66"/>
+      <c r="A136" s="55"/>
       <c r="B136" s="10" t="s">
         <v>62</v>
       </c>
@@ -4189,10 +4199,10 @@
       </c>
       <c r="G136" s="51"/>
       <c r="H136" s="41"/>
-      <c r="J136" s="66"/>
+      <c r="J136" s="55"/>
     </row>
     <row r="137" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A137" s="66"/>
+      <c r="A137" s="55"/>
       <c r="B137" s="10" t="s">
         <v>59</v>
       </c>
@@ -4210,10 +4220,10 @@
       </c>
       <c r="G137" s="51"/>
       <c r="H137" s="41"/>
-      <c r="J137" s="66"/>
+      <c r="J137" s="55"/>
     </row>
     <row r="138" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A138" s="66"/>
+      <c r="A138" s="55"/>
       <c r="B138" s="10" t="s">
         <v>31</v>
       </c>
@@ -4231,10 +4241,10 @@
       </c>
       <c r="G138" s="51"/>
       <c r="H138" s="41"/>
-      <c r="J138" s="66"/>
+      <c r="J138" s="55"/>
     </row>
     <row r="139" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A139" s="67"/>
+      <c r="A139" s="56"/>
       <c r="B139" s="10" t="s">
         <v>24</v>
       </c>
@@ -4250,10 +4260,10 @@
       </c>
       <c r="G139" s="51"/>
       <c r="H139" s="41"/>
-      <c r="J139" s="67"/>
+      <c r="J139" s="56"/>
     </row>
     <row r="140" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A140" s="65" t="s">
+      <c r="A140" s="54" t="s">
         <v>89</v>
       </c>
       <c r="B140" s="10" t="s">
@@ -4278,12 +4288,12 @@
       <c r="I140" t="s">
         <v>84</v>
       </c>
-      <c r="J140" s="65">
+      <c r="J140" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A141" s="66"/>
+      <c r="A141" s="55"/>
       <c r="B141" s="10" t="s">
         <v>3</v>
       </c>
@@ -4301,10 +4311,10 @@
       </c>
       <c r="G141" s="51"/>
       <c r="H141" s="41"/>
-      <c r="J141" s="66"/>
+      <c r="J141" s="55"/>
     </row>
     <row r="142" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A142" s="66"/>
+      <c r="A142" s="55"/>
       <c r="B142" s="10" t="s">
         <v>14</v>
       </c>
@@ -4322,10 +4332,10 @@
       </c>
       <c r="G142" s="51"/>
       <c r="H142" s="41"/>
-      <c r="J142" s="66"/>
+      <c r="J142" s="55"/>
     </row>
     <row r="143" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A143" s="66"/>
+      <c r="A143" s="55"/>
       <c r="B143" s="10" t="s">
         <v>27</v>
       </c>
@@ -4343,10 +4353,10 @@
       </c>
       <c r="G143" s="51"/>
       <c r="H143" s="41"/>
-      <c r="J143" s="66"/>
+      <c r="J143" s="55"/>
     </row>
     <row r="144" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A144" s="66"/>
+      <c r="A144" s="55"/>
       <c r="B144" s="10" t="s">
         <v>12</v>
       </c>
@@ -4364,10 +4374,10 @@
       </c>
       <c r="G144" s="51"/>
       <c r="H144" s="41"/>
-      <c r="J144" s="66"/>
+      <c r="J144" s="55"/>
     </row>
     <row r="145" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A145" s="66"/>
+      <c r="A145" s="55"/>
       <c r="B145" s="2" t="s">
         <v>60</v>
       </c>
@@ -4385,10 +4395,10 @@
       </c>
       <c r="G145" s="51"/>
       <c r="H145" s="41"/>
-      <c r="J145" s="66"/>
+      <c r="J145" s="55"/>
     </row>
     <row r="146" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A146" s="66"/>
+      <c r="A146" s="55"/>
       <c r="B146" s="10" t="s">
         <v>59</v>
       </c>
@@ -4406,10 +4416,10 @@
       </c>
       <c r="G146" s="51"/>
       <c r="H146" s="41"/>
-      <c r="J146" s="66"/>
+      <c r="J146" s="55"/>
     </row>
     <row r="147" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A147" s="66"/>
+      <c r="A147" s="55"/>
       <c r="B147" s="10" t="s">
         <v>13</v>
       </c>
@@ -4427,10 +4437,10 @@
       </c>
       <c r="G147" s="51"/>
       <c r="H147" s="41"/>
-      <c r="J147" s="66"/>
+      <c r="J147" s="55"/>
     </row>
     <row r="148" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A148" s="66"/>
+      <c r="A148" s="55"/>
       <c r="B148" s="10" t="s">
         <v>5</v>
       </c>
@@ -4448,10 +4458,10 @@
       </c>
       <c r="G148" s="51"/>
       <c r="H148" s="41"/>
-      <c r="J148" s="66"/>
+      <c r="J148" s="55"/>
     </row>
     <row r="149" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A149" s="66"/>
+      <c r="A149" s="55"/>
       <c r="B149" s="10" t="s">
         <v>31</v>
       </c>
@@ -4469,10 +4479,10 @@
       </c>
       <c r="G149" s="51"/>
       <c r="H149" s="41"/>
-      <c r="J149" s="66"/>
+      <c r="J149" s="55"/>
     </row>
     <row r="150" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A150" s="67"/>
+      <c r="A150" s="56"/>
       <c r="B150" s="10" t="s">
         <v>24</v>
       </c>
@@ -4488,10 +4498,10 @@
       </c>
       <c r="G150" s="51"/>
       <c r="H150" s="41"/>
-      <c r="J150" s="67"/>
+      <c r="J150" s="56"/>
     </row>
     <row r="151" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A151" s="65" t="s">
+      <c r="A151" s="54" t="s">
         <v>58</v>
       </c>
       <c r="B151" s="10" t="s">
@@ -4509,12 +4519,12 @@
       <c r="F151" s="34"/>
       <c r="G151" s="51"/>
       <c r="H151" s="41"/>
-      <c r="J151" s="65">
+      <c r="J151" s="54">
         <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A152" s="66"/>
+      <c r="A152" s="55"/>
       <c r="B152" s="10" t="s">
         <v>3</v>
       </c>
@@ -4530,10 +4540,10 @@
       <c r="F152" s="34"/>
       <c r="G152" s="51"/>
       <c r="H152" s="41"/>
-      <c r="J152" s="66"/>
+      <c r="J152" s="55"/>
     </row>
     <row r="153" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A153" s="66"/>
+      <c r="A153" s="55"/>
       <c r="B153" s="10" t="s">
         <v>27</v>
       </c>
@@ -4549,10 +4559,10 @@
       <c r="F153" s="34"/>
       <c r="G153" s="51"/>
       <c r="H153" s="41"/>
-      <c r="J153" s="66"/>
+      <c r="J153" s="55"/>
     </row>
     <row r="154" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A154" s="66"/>
+      <c r="A154" s="55"/>
       <c r="B154" s="2" t="s">
         <v>13</v>
       </c>
@@ -4568,10 +4578,10 @@
       <c r="F154" s="34"/>
       <c r="G154" s="51"/>
       <c r="H154" s="41"/>
-      <c r="J154" s="66"/>
+      <c r="J154" s="55"/>
     </row>
     <row r="155" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A155" s="66"/>
+      <c r="A155" s="55"/>
       <c r="B155" s="10" t="s">
         <v>31</v>
       </c>
@@ -4587,10 +4597,10 @@
       <c r="F155" s="34"/>
       <c r="G155" s="51"/>
       <c r="H155" s="41"/>
-      <c r="J155" s="66"/>
+      <c r="J155" s="55"/>
     </row>
     <row r="156" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A156" s="66"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="10" t="s">
         <v>19</v>
       </c>
@@ -4606,10 +4616,10 @@
       <c r="F156" s="34"/>
       <c r="G156" s="51"/>
       <c r="H156" s="41"/>
-      <c r="J156" s="66"/>
+      <c r="J156" s="55"/>
     </row>
     <row r="157" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A157" s="67"/>
+      <c r="A157" s="56"/>
       <c r="B157" s="10" t="s">
         <v>24</v>
       </c>
@@ -4623,10 +4633,10 @@
       <c r="F157" s="34"/>
       <c r="G157" s="51"/>
       <c r="H157" s="41"/>
-      <c r="J157" s="67"/>
+      <c r="J157" s="56"/>
     </row>
     <row r="158" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A158" s="68" t="s">
+      <c r="A158" s="57" t="s">
         <v>85</v>
       </c>
       <c r="B158" s="10" t="s">
@@ -4649,12 +4659,12 @@
       <c r="I158">
         <v>5</v>
       </c>
-      <c r="J158" s="68">
+      <c r="J158" s="57">
         <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A159" s="69"/>
+      <c r="A159" s="58"/>
       <c r="B159" s="10" t="s">
         <v>3</v>
       </c>
@@ -4672,10 +4682,10 @@
       </c>
       <c r="G159" s="51"/>
       <c r="H159" s="41"/>
-      <c r="J159" s="69"/>
+      <c r="J159" s="58"/>
     </row>
     <row r="160" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A160" s="69"/>
+      <c r="A160" s="58"/>
       <c r="B160" s="10" t="s">
         <v>27</v>
       </c>
@@ -4693,10 +4703,10 @@
       </c>
       <c r="G160" s="51"/>
       <c r="H160" s="41"/>
-      <c r="J160" s="69"/>
+      <c r="J160" s="58"/>
     </row>
     <row r="161" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A161" s="69"/>
+      <c r="A161" s="58"/>
       <c r="B161" s="2" t="s">
         <v>57</v>
       </c>
@@ -4714,10 +4724,10 @@
       </c>
       <c r="G161" s="51"/>
       <c r="H161" s="41"/>
-      <c r="J161" s="69"/>
+      <c r="J161" s="58"/>
     </row>
     <row r="162" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A162" s="69"/>
+      <c r="A162" s="58"/>
       <c r="B162" s="10" t="s">
         <v>12</v>
       </c>
@@ -4735,10 +4745,10 @@
       </c>
       <c r="G162" s="51"/>
       <c r="H162" s="41"/>
-      <c r="J162" s="69"/>
+      <c r="J162" s="58"/>
     </row>
     <row r="163" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A163" s="69"/>
+      <c r="A163" s="58"/>
       <c r="B163" s="10" t="s">
         <v>56</v>
       </c>
@@ -4756,10 +4766,10 @@
       </c>
       <c r="G163" s="51"/>
       <c r="H163" s="41"/>
-      <c r="J163" s="69"/>
+      <c r="J163" s="58"/>
     </row>
     <row r="164" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A164" s="69"/>
+      <c r="A164" s="58"/>
       <c r="B164" s="10" t="s">
         <v>5</v>
       </c>
@@ -4777,10 +4787,10 @@
       </c>
       <c r="G164" s="51"/>
       <c r="H164" s="41"/>
-      <c r="J164" s="69"/>
+      <c r="J164" s="58"/>
     </row>
     <row r="165" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A165" s="70"/>
+      <c r="A165" s="59"/>
       <c r="B165" s="10" t="s">
         <v>24</v>
       </c>
@@ -4796,10 +4806,10 @@
       </c>
       <c r="G165" s="51"/>
       <c r="H165" s="41"/>
-      <c r="J165" s="70"/>
+      <c r="J165" s="59"/>
     </row>
     <row r="166" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A166" s="59" t="s">
+      <c r="A166" s="60" t="s">
         <v>55</v>
       </c>
       <c r="B166" s="10" t="s">
@@ -4819,12 +4829,12 @@
       </c>
       <c r="G166" s="51"/>
       <c r="H166" s="41"/>
-      <c r="J166" s="59">
+      <c r="J166" s="60">
         <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A167" s="60"/>
+      <c r="A167" s="61"/>
       <c r="B167" s="10" t="s">
         <v>3</v>
       </c>
@@ -4842,10 +4852,10 @@
       </c>
       <c r="G167" s="51"/>
       <c r="H167" s="41"/>
-      <c r="J167" s="60"/>
+      <c r="J167" s="61"/>
     </row>
     <row r="168" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A168" s="60"/>
+      <c r="A168" s="61"/>
       <c r="B168" s="2" t="s">
         <v>27</v>
       </c>
@@ -4863,10 +4873,10 @@
       </c>
       <c r="G168" s="51"/>
       <c r="H168" s="41"/>
-      <c r="J168" s="60"/>
+      <c r="J168" s="61"/>
     </row>
     <row r="169" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A169" s="60"/>
+      <c r="A169" s="61"/>
       <c r="B169" s="10" t="s">
         <v>14</v>
       </c>
@@ -4884,10 +4894,10 @@
       </c>
       <c r="G169" s="51"/>
       <c r="H169" s="41"/>
-      <c r="J169" s="60"/>
+      <c r="J169" s="61"/>
     </row>
     <row r="170" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A170" s="60"/>
+      <c r="A170" s="61"/>
       <c r="B170" s="10" t="s">
         <v>54</v>
       </c>
@@ -4905,10 +4915,10 @@
       </c>
       <c r="G170" s="51"/>
       <c r="H170" s="41"/>
-      <c r="J170" s="60"/>
+      <c r="J170" s="61"/>
     </row>
     <row r="171" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A171" s="60"/>
+      <c r="A171" s="61"/>
       <c r="B171" s="10" t="s">
         <v>53</v>
       </c>
@@ -4926,10 +4936,10 @@
       </c>
       <c r="G171" s="51"/>
       <c r="H171" s="41"/>
-      <c r="J171" s="60"/>
+      <c r="J171" s="61"/>
     </row>
     <row r="172" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A172" s="60"/>
+      <c r="A172" s="61"/>
       <c r="B172" s="10" t="s">
         <v>31</v>
       </c>
@@ -4947,10 +4957,10 @@
       </c>
       <c r="G172" s="51"/>
       <c r="H172" s="41"/>
-      <c r="J172" s="60"/>
+      <c r="J172" s="61"/>
     </row>
     <row r="173" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A173" s="60"/>
+      <c r="A173" s="61"/>
       <c r="B173" s="10" t="s">
         <v>24</v>
       </c>
@@ -4966,37 +4976,10 @@
       </c>
       <c r="G173" s="34"/>
       <c r="H173" s="43"/>
-      <c r="J173" s="60"/>
+      <c r="J173" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="J140:J150"/>
-    <mergeCell ref="J151:J157"/>
-    <mergeCell ref="J158:J165"/>
-    <mergeCell ref="J166:J173"/>
-    <mergeCell ref="A111:A119"/>
-    <mergeCell ref="J86:J93"/>
-    <mergeCell ref="J94:J101"/>
-    <mergeCell ref="J102:J110"/>
-    <mergeCell ref="J120:J129"/>
-    <mergeCell ref="J130:J139"/>
-    <mergeCell ref="J111:J119"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="J52:J60"/>
-    <mergeCell ref="J61:J69"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="J78:J85"/>
-    <mergeCell ref="J1:J8"/>
-    <mergeCell ref="J9:J17"/>
-    <mergeCell ref="J18:J26"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A18:A26"/>
     <mergeCell ref="A52:A60"/>
     <mergeCell ref="A70:A77"/>
     <mergeCell ref="H61:H62"/>
@@ -5011,6 +4994,33 @@
     <mergeCell ref="A140:A150"/>
     <mergeCell ref="A86:A93"/>
     <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="J1:J8"/>
+    <mergeCell ref="J9:J17"/>
+    <mergeCell ref="J18:J26"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="J52:J60"/>
+    <mergeCell ref="J61:J69"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="J78:J85"/>
+    <mergeCell ref="J86:J93"/>
+    <mergeCell ref="J94:J101"/>
+    <mergeCell ref="J102:J110"/>
+    <mergeCell ref="J120:J129"/>
+    <mergeCell ref="J130:J139"/>
+    <mergeCell ref="J111:J119"/>
+    <mergeCell ref="J140:J150"/>
+    <mergeCell ref="J151:J157"/>
+    <mergeCell ref="J158:J165"/>
+    <mergeCell ref="J166:J173"/>
+    <mergeCell ref="A111:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/conf/colleagereqs.xlsx
+++ b/conf/colleagereqs.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\apps\Job\automata-newentries\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95129032\Desktop\jvm\automata-newentries\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="91">
   <si>
     <t>مبانی کامپیوتر و برنامه سازی</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>زبان(1)</t>
-  </si>
-  <si>
-    <t>2013711/2013731</t>
   </si>
   <si>
     <t>مباني اقتصاد</t>
@@ -306,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +818,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,22 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -865,24 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,29 +1163,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" x14ac:dyDescent="1"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.89453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.41796875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.47265625" customWidth="1"/>
-    <col min="4" max="4" width="26.15625" customWidth="1"/>
-    <col min="5" max="5" width="22.68359375" customWidth="1"/>
-    <col min="6" max="7" width="26.68359375" customWidth="1"/>
-    <col min="8" max="8" width="10.578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.734375" customWidth="1"/>
-    <col min="10" max="10" width="11.62890625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:10" ht="18.75">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="15">
         <v>1021303</v>
@@ -1204,14 +1201,14 @@
         <v>19</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A2" s="70"/>
+        <v>44</v>
+      </c>
+      <c r="J1" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75">
+      <c r="A2" s="55"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1227,10 +1224,10 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
       <c r="H2" s="37"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A3" s="70"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="55"/>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1246,10 +1243,10 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="37"/>
-      <c r="J3" s="70"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A4" s="70"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="55"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1265,10 +1262,10 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="37"/>
-      <c r="J4" s="70"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A5" s="70"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75">
+      <c r="A5" s="55"/>
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1284,10 +1281,10 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="37"/>
-      <c r="J5" s="70"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A6" s="70"/>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
+      <c r="A6" s="55"/>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1303,10 +1300,10 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="37"/>
-      <c r="J6" s="70"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A7" s="70"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
+      <c r="A7" s="55"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1320,10 +1317,10 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="37"/>
-      <c r="J7" s="70"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A8" s="71"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A8" s="56"/>
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1339,10 +1336,10 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="38"/>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A9" s="69" t="s">
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
+      <c r="A9" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1364,14 +1361,14 @@
         <v>4</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A10" s="70"/>
+        <v>46</v>
+      </c>
+      <c r="J9" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75">
+      <c r="A10" s="55"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1389,10 +1386,10 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="37"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A11" s="70"/>
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75">
+      <c r="A11" s="55"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1410,10 +1407,10 @@
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="37"/>
-      <c r="J11" s="70"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A12" s="70"/>
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
+      <c r="A12" s="55"/>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1431,10 +1428,10 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="37"/>
-      <c r="J12" s="70"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A13" s="70"/>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1452,10 +1449,10 @@
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="37"/>
-      <c r="J13" s="70"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A14" s="70"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75">
+      <c r="A14" s="55"/>
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1473,12 +1470,12 @@
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="37"/>
-      <c r="J14" s="70"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A15" s="70"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75">
+      <c r="A15" s="55"/>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12">
         <v>1153103</v>
@@ -1494,10 +1491,10 @@
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="37"/>
-      <c r="J15" s="70"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A16" s="70"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75">
+      <c r="A16" s="55"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1513,10 +1510,10 @@
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="37"/>
-      <c r="J16" s="70"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A17" s="71"/>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A17" s="56"/>
       <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
@@ -1534,14 +1531,14 @@
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="38"/>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A18" s="69" t="s">
-        <v>86</v>
+      <c r="J17" s="56"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75">
+      <c r="A18" s="54" t="s">
+        <v>85</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="15">
         <v>1021303</v>
@@ -1559,17 +1556,17 @@
         <v>12</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="52">
         <v>5</v>
       </c>
-      <c r="J18" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A19" s="70"/>
+      <c r="J18" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75">
+      <c r="A19" s="55"/>
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1587,10 +1584,10 @@
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="37"/>
-      <c r="J19" s="70"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A20" s="70"/>
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75">
+      <c r="A20" s="55"/>
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1607,15 +1604,15 @@
         <v>1</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="70"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A21" s="70"/>
+        <v>47</v>
+      </c>
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75">
+      <c r="A21" s="55"/>
       <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
@@ -1633,10 +1630,10 @@
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="37"/>
-      <c r="J21" s="70"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A22" s="70"/>
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75">
+      <c r="A22" s="55"/>
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1653,15 +1650,15 @@
         <v>1</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="70"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A23" s="70"/>
+        <v>48</v>
+      </c>
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75">
+      <c r="A23" s="55"/>
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1679,10 +1676,10 @@
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="37"/>
-      <c r="J23" s="70"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A24" s="70"/>
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75">
+      <c r="A24" s="55"/>
       <c r="B24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1700,10 +1697,10 @@
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="37"/>
-      <c r="J24" s="70"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A25" s="70"/>
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75">
+      <c r="A25" s="55"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1721,10 +1718,10 @@
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="37"/>
-      <c r="J25" s="70"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A26" s="71"/>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A26" s="56"/>
       <c r="B26" s="23" t="s">
         <v>29</v>
       </c>
@@ -1740,10 +1737,10 @@
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="38"/>
-      <c r="J26" s="71"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A27" s="69" t="s">
+      <c r="J26" s="56"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75">
+      <c r="A27" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -1763,12 +1760,12 @@
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="36"/>
-      <c r="J27" s="69">
+      <c r="J27" s="54">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A28" s="70"/>
+    <row r="28" spans="1:10" ht="18.75">
+      <c r="A28" s="55"/>
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1786,10 +1783,10 @@
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="37"/>
-      <c r="J28" s="70"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A29" s="70"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75">
+      <c r="A29" s="55"/>
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
@@ -1807,15 +1804,15 @@
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="37"/>
-      <c r="J29" s="70"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A30" s="70"/>
+      <c r="J29" s="55"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75">
+      <c r="A30" s="55"/>
       <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>36</v>
+      <c r="C30" s="12">
+        <v>2013711</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>1</v>
@@ -1828,10 +1825,10 @@
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="37"/>
-      <c r="J30" s="70"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A31" s="70"/>
+      <c r="J30" s="55"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75">
+      <c r="A31" s="55"/>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1849,10 +1846,10 @@
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="37"/>
-      <c r="J31" s="70"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A32" s="70"/>
+      <c r="J31" s="55"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75">
+      <c r="A32" s="55"/>
       <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1870,10 +1867,10 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="37"/>
-      <c r="J32" s="70"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A33" s="70"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75">
+      <c r="A33" s="55"/>
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1891,12 +1888,12 @@
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="37"/>
-      <c r="J33" s="70"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A34" s="70"/>
+      <c r="J33" s="55"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.75">
+      <c r="A34" s="55"/>
       <c r="B34" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="12">
         <v>2013741</v>
@@ -1912,10 +1909,10 @@
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="37"/>
-      <c r="J34" s="70"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A35" s="71"/>
+      <c r="J34" s="55"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A35" s="56"/>
       <c r="B35" s="27" t="s">
         <v>20</v>
       </c>
@@ -1931,11 +1928,11 @@
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="38"/>
-      <c r="J35" s="71"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A36" s="69" t="s">
-        <v>87</v>
+      <c r="J35" s="56"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75">
+      <c r="A36" s="54" t="s">
+        <v>86</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>16</v>
@@ -1957,12 +1954,12 @@
       <c r="I36">
         <v>5</v>
       </c>
-      <c r="J36" s="69">
+      <c r="J36" s="54">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="136.80000000000001" x14ac:dyDescent="1">
-      <c r="A37" s="70"/>
+    <row r="37" spans="1:10" ht="162">
+      <c r="A37" s="55"/>
       <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
@@ -1979,15 +1976,15 @@
         <v>1</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="70"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A38" s="70"/>
+        <v>49</v>
+      </c>
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75">
+      <c r="A38" s="55"/>
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -2005,10 +2002,10 @@
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="37"/>
-      <c r="J38" s="70"/>
-    </row>
-    <row r="39" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A39" s="70"/>
+      <c r="J38" s="55"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.75">
+      <c r="A39" s="55"/>
       <c r="B39" s="6" t="s">
         <v>27</v>
       </c>
@@ -2026,10 +2023,10 @@
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="37"/>
-      <c r="J39" s="70"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A40" s="70"/>
+      <c r="J39" s="55"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75">
+      <c r="A40" s="55"/>
       <c r="B40" s="10" t="s">
         <v>26</v>
       </c>
@@ -2047,10 +2044,10 @@
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="37"/>
-      <c r="J40" s="70"/>
-    </row>
-    <row r="41" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A41" s="70"/>
+      <c r="J40" s="55"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.75">
+      <c r="A41" s="55"/>
       <c r="B41" s="6" t="s">
         <v>14</v>
       </c>
@@ -2068,10 +2065,10 @@
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="37"/>
-      <c r="J41" s="70"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A42" s="70"/>
+      <c r="J41" s="55"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.75">
+      <c r="A42" s="55"/>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2089,10 +2086,10 @@
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="37"/>
-      <c r="J42" s="70"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A43" s="71"/>
+      <c r="J42" s="55"/>
+    </row>
+    <row r="43" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A43" s="56"/>
       <c r="B43" s="28" t="s">
         <v>15</v>
       </c>
@@ -2108,11 +2105,11 @@
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="38"/>
-      <c r="J43" s="71"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A44" s="69" t="s">
-        <v>78</v>
+      <c r="J43" s="56"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75">
+      <c r="A44" s="54" t="s">
+        <v>77</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>9</v>
@@ -2134,12 +2131,12 @@
       <c r="I44">
         <v>5</v>
       </c>
-      <c r="J44" s="69">
+      <c r="J44" s="54">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A45" s="70"/>
+    <row r="45" spans="1:10" ht="18.75">
+      <c r="A45" s="55"/>
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
@@ -2157,10 +2154,10 @@
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="37"/>
-      <c r="J45" s="70"/>
-    </row>
-    <row r="46" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A46" s="70"/>
+      <c r="J45" s="55"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75">
+      <c r="A46" s="55"/>
       <c r="B46" s="6" t="s">
         <v>11</v>
       </c>
@@ -2178,10 +2175,10 @@
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="37"/>
-      <c r="J46" s="70"/>
-    </row>
-    <row r="47" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A47" s="70"/>
+      <c r="J46" s="55"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.75">
+      <c r="A47" s="55"/>
       <c r="B47" s="6" t="s">
         <v>12</v>
       </c>
@@ -2199,10 +2196,10 @@
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="37"/>
-      <c r="J47" s="70"/>
-    </row>
-    <row r="48" spans="1:10" ht="18.3" x14ac:dyDescent="1">
-      <c r="A48" s="70"/>
+      <c r="J47" s="55"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.75">
+      <c r="A48" s="55"/>
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
@@ -2220,10 +2217,10 @@
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="37"/>
-      <c r="J48" s="70"/>
-    </row>
-    <row r="49" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A49" s="70"/>
+      <c r="J48" s="55"/>
+    </row>
+    <row r="49" spans="1:16" ht="18.75">
+      <c r="A49" s="55"/>
       <c r="B49" s="6" t="s">
         <v>35</v>
       </c>
@@ -2241,10 +2238,10 @@
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="37"/>
-      <c r="J49" s="70"/>
-    </row>
-    <row r="50" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A50" s="70"/>
+      <c r="J49" s="55"/>
+    </row>
+    <row r="50" spans="1:16" ht="18.75">
+      <c r="A50" s="55"/>
       <c r="B50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2262,10 +2259,10 @@
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="37"/>
-      <c r="J50" s="70"/>
-    </row>
-    <row r="51" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A51" s="71"/>
+      <c r="J50" s="55"/>
+    </row>
+    <row r="51" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A51" s="56"/>
       <c r="B51" s="17" t="s">
         <v>5</v>
       </c>
@@ -2283,10 +2280,10 @@
       </c>
       <c r="G51" s="35"/>
       <c r="H51" s="38"/>
-      <c r="J51" s="71"/>
-    </row>
-    <row r="52" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A52" s="69" t="s">
+      <c r="J51" s="56"/>
+    </row>
+    <row r="52" spans="1:16" ht="18.75">
+      <c r="A52" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -2306,12 +2303,12 @@
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="36"/>
-      <c r="J52" s="69">
+      <c r="J52" s="54">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A53" s="70"/>
+    <row r="53" spans="1:16" ht="18.75">
+      <c r="A53" s="55"/>
       <c r="B53" s="10" t="s">
         <v>3</v>
       </c>
@@ -2329,10 +2326,10 @@
       </c>
       <c r="G53" s="34"/>
       <c r="H53" s="37"/>
-      <c r="J53" s="70"/>
-    </row>
-    <row r="54" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A54" s="70"/>
+      <c r="J53" s="55"/>
+    </row>
+    <row r="54" spans="1:16" ht="18.75">
+      <c r="A54" s="55"/>
       <c r="B54" s="6" t="s">
         <v>27</v>
       </c>
@@ -2350,10 +2347,10 @@
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="37"/>
-      <c r="J54" s="70"/>
-    </row>
-    <row r="55" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A55" s="70"/>
+      <c r="J54" s="55"/>
+    </row>
+    <row r="55" spans="1:16" ht="18.75">
+      <c r="A55" s="55"/>
       <c r="B55" s="6" t="s">
         <v>35</v>
       </c>
@@ -2371,12 +2368,12 @@
       </c>
       <c r="G55" s="34"/>
       <c r="H55" s="37"/>
-      <c r="J55" s="70"/>
-    </row>
-    <row r="56" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A56" s="70"/>
+      <c r="J55" s="55"/>
+    </row>
+    <row r="56" spans="1:16" ht="18.75">
+      <c r="A56" s="55"/>
       <c r="B56" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="12">
         <v>3026152</v>
@@ -2392,10 +2389,10 @@
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="37"/>
-      <c r="J56" s="70"/>
-    </row>
-    <row r="57" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A57" s="70"/>
+      <c r="J56" s="55"/>
+    </row>
+    <row r="57" spans="1:16" ht="18.75">
+      <c r="A57" s="55"/>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2413,10 +2410,10 @@
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="37"/>
-      <c r="J57" s="70"/>
-    </row>
-    <row r="58" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A58" s="70"/>
+      <c r="J57" s="55"/>
+    </row>
+    <row r="58" spans="1:16" ht="18.75">
+      <c r="A58" s="55"/>
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -2434,10 +2431,10 @@
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="37"/>
-      <c r="J58" s="70"/>
-    </row>
-    <row r="59" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A59" s="70"/>
+      <c r="J58" s="55"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.75">
+      <c r="A59" s="55"/>
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -2453,12 +2450,12 @@
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="37"/>
-      <c r="J59" s="70"/>
-    </row>
-    <row r="60" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A60" s="71"/>
+      <c r="J59" s="55"/>
+    </row>
+    <row r="60" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A60" s="56"/>
       <c r="B60" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="24">
         <v>3010052</v>
@@ -2474,11 +2471,11 @@
       </c>
       <c r="G60" s="35"/>
       <c r="H60" s="38"/>
-      <c r="J60" s="71"/>
-    </row>
-    <row r="61" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="1">
-      <c r="A61" s="69" t="s">
-        <v>79</v>
+      <c r="J60" s="56"/>
+    </row>
+    <row r="61" spans="1:16" ht="27" customHeight="1">
+      <c r="A61" s="54" t="s">
+        <v>78</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>0</v>
@@ -2496,13 +2493,13 @@
         <v>1</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="73" t="s">
-        <v>51</v>
+      <c r="H61" s="57" t="s">
+        <v>50</v>
       </c>
       <c r="I61" s="40">
         <v>5</v>
       </c>
-      <c r="J61" s="69">
+      <c r="J61" s="54">
         <v>8</v>
       </c>
       <c r="K61" s="40"/>
@@ -2512,8 +2509,8 @@
       <c r="O61" s="40"/>
       <c r="P61" s="40"/>
     </row>
-    <row r="62" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="1">
-      <c r="A62" s="70"/>
+    <row r="62" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A62" s="55"/>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
@@ -2530,9 +2527,9 @@
         <v>1</v>
       </c>
       <c r="G62" s="34"/>
-      <c r="H62" s="74"/>
+      <c r="H62" s="58"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="70"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="40"/>
       <c r="L62" s="40"/>
       <c r="M62" s="40"/>
@@ -2540,8 +2537,8 @@
       <c r="O62" s="40"/>
       <c r="P62" s="40"/>
     </row>
-    <row r="63" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A63" s="70"/>
+    <row r="63" spans="1:16" ht="18.75">
+      <c r="A63" s="55"/>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
@@ -2560,7 +2557,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="37"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="70"/>
+      <c r="J63" s="55"/>
       <c r="K63" s="40"/>
       <c r="L63" s="40"/>
       <c r="M63" s="40"/>
@@ -2568,8 +2565,8 @@
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
     </row>
-    <row r="64" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A64" s="70"/>
+    <row r="64" spans="1:16" ht="18.75">
+      <c r="A64" s="55"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,7 +2585,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="37"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="70"/>
+      <c r="J64" s="55"/>
       <c r="K64" s="40"/>
       <c r="L64" s="40"/>
       <c r="M64" s="40"/>
@@ -2596,10 +2593,10 @@
       <c r="O64" s="40"/>
       <c r="P64" s="40"/>
     </row>
-    <row r="65" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A65" s="70"/>
+    <row r="65" spans="1:16" ht="18.75">
+      <c r="A65" s="55"/>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" s="1">
         <v>1051203</v>
@@ -2616,7 +2613,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="37"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="70"/>
+      <c r="J65" s="55"/>
       <c r="K65" s="40"/>
       <c r="L65" s="40"/>
       <c r="M65" s="40"/>
@@ -2624,8 +2621,8 @@
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
     </row>
-    <row r="66" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A66" s="70"/>
+    <row r="66" spans="1:16" ht="18.75">
+      <c r="A66" s="55"/>
       <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
@@ -2644,7 +2641,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="37"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="70"/>
+      <c r="J66" s="55"/>
       <c r="K66" s="40"/>
       <c r="L66" s="40"/>
       <c r="M66" s="40"/>
@@ -2652,8 +2649,8 @@
       <c r="O66" s="40"/>
       <c r="P66" s="40"/>
     </row>
-    <row r="67" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A67" s="70"/>
+    <row r="67" spans="1:16" ht="18.75">
+      <c r="A67" s="55"/>
       <c r="B67" s="10" t="s">
         <v>22</v>
       </c>
@@ -2670,7 +2667,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="37"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="70"/>
+      <c r="J67" s="55"/>
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
       <c r="M67" s="40"/>
@@ -2678,8 +2675,8 @@
       <c r="O67" s="40"/>
       <c r="P67" s="40"/>
     </row>
-    <row r="68" spans="1:16" ht="18.3" x14ac:dyDescent="1">
-      <c r="A68" s="70"/>
+    <row r="68" spans="1:16" ht="18.75">
+      <c r="A68" s="55"/>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
@@ -2698,7 +2695,7 @@
       <c r="G68" s="34"/>
       <c r="H68" s="37"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="70"/>
+      <c r="J68" s="55"/>
       <c r="K68" s="40"/>
       <c r="L68" s="40"/>
       <c r="M68" s="40"/>
@@ -2706,10 +2703,10 @@
       <c r="O68" s="40"/>
       <c r="P68" s="40"/>
     </row>
-    <row r="69" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A69" s="71"/>
+    <row r="69" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A69" s="56"/>
       <c r="B69" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C69" s="18">
         <v>2013701</v>
@@ -2726,7 +2723,7 @@
       <c r="G69" s="35"/>
       <c r="H69" s="38"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="71"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="40"/>
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
@@ -2734,8 +2731,8 @@
       <c r="O69" s="40"/>
       <c r="P69" s="40"/>
     </row>
-    <row r="70" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A70" s="69" t="s">
+    <row r="70" spans="1:16" ht="18.75">
+      <c r="A70" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="25" t="s">
@@ -2756,7 +2753,7 @@
       <c r="G70" s="33"/>
       <c r="H70" s="36"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="69">
+      <c r="J70" s="54">
         <v>9</v>
       </c>
       <c r="K70" s="40"/>
@@ -2766,8 +2763,8 @@
       <c r="O70" s="40"/>
       <c r="P70" s="40"/>
     </row>
-    <row r="71" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A71" s="70"/>
+    <row r="71" spans="1:16" ht="18.75">
+      <c r="A71" s="55"/>
       <c r="B71" s="10" t="s">
         <v>3</v>
       </c>
@@ -2786,7 +2783,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="37"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="70"/>
+      <c r="J71" s="55"/>
       <c r="K71" s="40"/>
       <c r="L71" s="40"/>
       <c r="M71" s="40"/>
@@ -2794,8 +2791,8 @@
       <c r="O71" s="40"/>
       <c r="P71" s="40"/>
     </row>
-    <row r="72" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A72" s="70"/>
+    <row r="72" spans="1:16" ht="18.75">
+      <c r="A72" s="55"/>
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
@@ -2814,7 +2811,7 @@
       <c r="G72" s="34"/>
       <c r="H72" s="37"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="70"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="40"/>
       <c r="L72" s="40"/>
       <c r="M72" s="40"/>
@@ -2822,8 +2819,8 @@
       <c r="O72" s="40"/>
       <c r="P72" s="40"/>
     </row>
-    <row r="73" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A73" s="70"/>
+    <row r="73" spans="1:16" ht="18.75">
+      <c r="A73" s="55"/>
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2840,7 +2837,7 @@
       <c r="G73" s="34"/>
       <c r="H73" s="37"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="70"/>
+      <c r="J73" s="55"/>
       <c r="K73" s="40"/>
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
@@ -2848,8 +2845,8 @@
       <c r="O73" s="40"/>
       <c r="P73" s="40"/>
     </row>
-    <row r="74" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A74" s="70"/>
+    <row r="74" spans="1:16" ht="18.75">
+      <c r="A74" s="55"/>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -2868,7 +2865,7 @@
       <c r="G74" s="34"/>
       <c r="H74" s="37"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="70"/>
+      <c r="J74" s="55"/>
       <c r="K74" s="40"/>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
@@ -2876,8 +2873,8 @@
       <c r="O74" s="40"/>
       <c r="P74" s="40"/>
     </row>
-    <row r="75" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A75" s="70"/>
+    <row r="75" spans="1:16" ht="18.75">
+      <c r="A75" s="55"/>
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -2896,7 +2893,7 @@
       <c r="G75" s="34"/>
       <c r="H75" s="37"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="70"/>
+      <c r="J75" s="55"/>
       <c r="K75" s="40"/>
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
@@ -2904,8 +2901,8 @@
       <c r="O75" s="40"/>
       <c r="P75" s="40"/>
     </row>
-    <row r="76" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A76" s="70"/>
+    <row r="76" spans="1:16" ht="18.75">
+      <c r="A76" s="55"/>
       <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
@@ -2924,7 +2921,7 @@
       <c r="G76" s="34"/>
       <c r="H76" s="37"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="70"/>
+      <c r="J76" s="55"/>
       <c r="K76" s="40"/>
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
@@ -2932,8 +2929,8 @@
       <c r="O76" s="40"/>
       <c r="P76" s="40"/>
     </row>
-    <row r="77" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A77" s="71"/>
+    <row r="77" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A77" s="56"/>
       <c r="B77" s="27" t="s">
         <v>33</v>
       </c>
@@ -2950,13 +2947,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I77" s="40"/>
-      <c r="J77" s="71"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="40"/>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
@@ -2964,9 +2961,9 @@
       <c r="O77" s="40"/>
       <c r="P77" s="40"/>
     </row>
-    <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A78" s="72" t="s">
-        <v>73</v>
+    <row r="78" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A78" s="71" t="s">
+        <v>72</v>
       </c>
       <c r="B78" s="46" t="s">
         <v>2</v>
@@ -2983,12 +2980,12 @@
       <c r="F78" s="44"/>
       <c r="G78" s="50"/>
       <c r="H78" s="49"/>
-      <c r="J78" s="72">
+      <c r="J78" s="71">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A79" s="65"/>
+    <row r="79" spans="1:16" ht="18.75">
+      <c r="A79" s="64"/>
       <c r="B79" s="10" t="s">
         <v>3</v>
       </c>
@@ -3004,10 +3001,10 @@
       <c r="F79" s="45"/>
       <c r="G79" s="50"/>
       <c r="H79" s="41"/>
-      <c r="J79" s="65"/>
-    </row>
-    <row r="80" spans="1:16" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A80" s="65"/>
+      <c r="J79" s="64"/>
+    </row>
+    <row r="80" spans="1:16" ht="18.75">
+      <c r="A80" s="64"/>
       <c r="B80" s="10" t="s">
         <v>0</v>
       </c>
@@ -3022,15 +3019,15 @@
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H80" s="41"/>
-      <c r="J80" s="65"/>
-    </row>
-    <row r="81" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A81" s="65"/>
+      <c r="J80" s="64"/>
+    </row>
+    <row r="81" spans="1:10" ht="18.75">
+      <c r="A81" s="64"/>
       <c r="B81" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="7">
         <v>1218281</v>
@@ -3044,10 +3041,10 @@
       <c r="F81" s="34"/>
       <c r="G81" s="51"/>
       <c r="H81" s="41"/>
-      <c r="J81" s="65"/>
-    </row>
-    <row r="82" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A82" s="65"/>
+      <c r="J81" s="64"/>
+    </row>
+    <row r="82" spans="1:10" ht="18.75">
+      <c r="A82" s="64"/>
       <c r="B82" s="2" t="s">
         <v>31</v>
       </c>
@@ -3063,10 +3060,10 @@
       <c r="F82" s="34"/>
       <c r="G82" s="51"/>
       <c r="H82" s="41"/>
-      <c r="J82" s="65"/>
-    </row>
-    <row r="83" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A83" s="65"/>
+      <c r="J82" s="64"/>
+    </row>
+    <row r="83" spans="1:10" ht="18.75">
+      <c r="A83" s="64"/>
       <c r="B83" s="10" t="s">
         <v>19</v>
       </c>
@@ -3082,10 +3079,10 @@
       <c r="F83" s="34"/>
       <c r="G83" s="51"/>
       <c r="H83" s="41"/>
-      <c r="J83" s="65"/>
-    </row>
-    <row r="84" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A84" s="65"/>
+      <c r="J83" s="64"/>
+    </row>
+    <row r="84" spans="1:10" ht="18.75">
+      <c r="A84" s="64"/>
       <c r="B84" s="10" t="s">
         <v>5</v>
       </c>
@@ -3101,10 +3098,10 @@
       <c r="F84" s="34"/>
       <c r="G84" s="51"/>
       <c r="H84" s="41"/>
-      <c r="J84" s="65"/>
-    </row>
-    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A85" s="65"/>
+      <c r="J84" s="64"/>
+    </row>
+    <row r="85" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A85" s="64"/>
       <c r="B85" s="10" t="s">
         <v>24</v>
       </c>
@@ -3118,11 +3115,11 @@
       <c r="F85" s="34"/>
       <c r="G85" s="51"/>
       <c r="H85" s="41"/>
-      <c r="J85" s="65"/>
-    </row>
-    <row r="86" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A86" s="65" t="s">
-        <v>72</v>
+      <c r="J85" s="64"/>
+    </row>
+    <row r="86" spans="1:10" ht="18.75">
+      <c r="A86" s="64" t="s">
+        <v>71</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>2</v>
@@ -3141,12 +3138,12 @@
       </c>
       <c r="G86" s="51"/>
       <c r="H86" s="41"/>
-      <c r="J86" s="65">
+      <c r="J86" s="64">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A87" s="65"/>
+    <row r="87" spans="1:10" ht="18.75">
+      <c r="A87" s="64"/>
       <c r="B87" s="10" t="s">
         <v>3</v>
       </c>
@@ -3164,10 +3161,10 @@
       </c>
       <c r="G87" s="51"/>
       <c r="H87" s="41"/>
-      <c r="J87" s="65"/>
-    </row>
-    <row r="88" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A88" s="65"/>
+      <c r="J87" s="64"/>
+    </row>
+    <row r="88" spans="1:10" ht="18.75">
+      <c r="A88" s="64"/>
       <c r="B88" s="10" t="s">
         <v>0</v>
       </c>
@@ -3184,15 +3181,15 @@
         <v>1</v>
       </c>
       <c r="G88" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H88" s="41"/>
-      <c r="J88" s="65"/>
-    </row>
-    <row r="89" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A89" s="65"/>
+      <c r="J88" s="64"/>
+    </row>
+    <row r="89" spans="1:10" ht="18.75">
+      <c r="A89" s="64"/>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" s="1">
         <v>1218281</v>
@@ -3208,10 +3205,10 @@
       </c>
       <c r="G89" s="51"/>
       <c r="H89" s="41"/>
-      <c r="J89" s="65"/>
-    </row>
-    <row r="90" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A90" s="65"/>
+      <c r="J89" s="64"/>
+    </row>
+    <row r="90" spans="1:10" ht="18.75">
+      <c r="A90" s="64"/>
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -3229,10 +3226,10 @@
       </c>
       <c r="G90" s="51"/>
       <c r="H90" s="41"/>
-      <c r="J90" s="65"/>
-    </row>
-    <row r="91" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A91" s="65"/>
+      <c r="J90" s="64"/>
+    </row>
+    <row r="91" spans="1:10" ht="18.75">
+      <c r="A91" s="64"/>
       <c r="B91" s="10" t="s">
         <v>19</v>
       </c>
@@ -3250,10 +3247,10 @@
       </c>
       <c r="G91" s="51"/>
       <c r="H91" s="41"/>
-      <c r="J91" s="65"/>
-    </row>
-    <row r="92" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A92" s="65"/>
+      <c r="J91" s="64"/>
+    </row>
+    <row r="92" spans="1:10" ht="18.75">
+      <c r="A92" s="64"/>
       <c r="B92" s="10" t="s">
         <v>5</v>
       </c>
@@ -3271,10 +3268,10 @@
       </c>
       <c r="G92" s="51"/>
       <c r="H92" s="41"/>
-      <c r="J92" s="65"/>
-    </row>
-    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A93" s="65"/>
+      <c r="J92" s="64"/>
+    </row>
+    <row r="93" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A93" s="64"/>
       <c r="B93" s="10" t="s">
         <v>24</v>
       </c>
@@ -3290,11 +3287,11 @@
       </c>
       <c r="G93" s="51"/>
       <c r="H93" s="41"/>
-      <c r="J93" s="65"/>
-    </row>
-    <row r="94" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A94" s="65" t="s">
-        <v>80</v>
+      <c r="J93" s="64"/>
+    </row>
+    <row r="94" spans="1:10" ht="18.75">
+      <c r="A94" s="64" t="s">
+        <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>2</v>
@@ -3316,12 +3313,12 @@
       <c r="I94">
         <v>5</v>
       </c>
-      <c r="J94" s="65">
+      <c r="J94" s="64">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A95" s="65"/>
+    <row r="95" spans="1:10" ht="18.75">
+      <c r="A95" s="64"/>
       <c r="B95" s="10" t="s">
         <v>3</v>
       </c>
@@ -3339,12 +3336,12 @@
       </c>
       <c r="G95" s="51"/>
       <c r="H95" s="41"/>
-      <c r="J95" s="65"/>
-    </row>
-    <row r="96" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A96" s="65"/>
+      <c r="J95" s="64"/>
+    </row>
+    <row r="96" spans="1:10" ht="18.75">
+      <c r="A96" s="64"/>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C96" s="1">
         <v>1021353</v>
@@ -3360,10 +3357,10 @@
       </c>
       <c r="G96" s="51"/>
       <c r="H96" s="41"/>
-      <c r="J96" s="65"/>
-    </row>
-    <row r="97" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A97" s="65"/>
+      <c r="J96" s="64"/>
+    </row>
+    <row r="97" spans="1:10" ht="18.75">
+      <c r="A97" s="64"/>
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
@@ -3381,12 +3378,12 @@
       </c>
       <c r="G97" s="51"/>
       <c r="H97" s="41"/>
-      <c r="J97" s="65"/>
-    </row>
-    <row r="98" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A98" s="65"/>
+      <c r="J97" s="64"/>
+    </row>
+    <row r="98" spans="1:10" ht="18.75">
+      <c r="A98" s="64"/>
       <c r="B98" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C98" s="7">
         <v>2302511</v>
@@ -3402,10 +3399,10 @@
       </c>
       <c r="G98" s="51"/>
       <c r="H98" s="41"/>
-      <c r="J98" s="65"/>
-    </row>
-    <row r="99" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A99" s="65"/>
+      <c r="J98" s="64"/>
+    </row>
+    <row r="99" spans="1:10" ht="18.75">
+      <c r="A99" s="64"/>
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -3423,10 +3420,10 @@
       </c>
       <c r="G99" s="51"/>
       <c r="H99" s="41"/>
-      <c r="J99" s="65"/>
-    </row>
-    <row r="100" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A100" s="65"/>
+      <c r="J99" s="64"/>
+    </row>
+    <row r="100" spans="1:10" ht="18.75">
+      <c r="A100" s="64"/>
       <c r="B100" s="10" t="s">
         <v>31</v>
       </c>
@@ -3444,10 +3441,10 @@
       </c>
       <c r="G100" s="51"/>
       <c r="H100" s="41"/>
-      <c r="J100" s="65"/>
-    </row>
-    <row r="101" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A101" s="65"/>
+      <c r="J100" s="64"/>
+    </row>
+    <row r="101" spans="1:10" ht="18.75">
+      <c r="A101" s="64"/>
       <c r="B101" s="10" t="s">
         <v>24</v>
       </c>
@@ -3463,11 +3460,11 @@
       </c>
       <c r="G101" s="51"/>
       <c r="H101" s="41"/>
-      <c r="J101" s="65"/>
-    </row>
-    <row r="102" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A102" s="62" t="s">
-        <v>81</v>
+      <c r="J101" s="64"/>
+    </row>
+    <row r="102" spans="1:10" ht="18.75">
+      <c r="A102" s="61" t="s">
+        <v>80</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>2</v>
@@ -3489,12 +3486,12 @@
       <c r="I102">
         <v>5</v>
       </c>
-      <c r="J102" s="62">
+      <c r="J102" s="61">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A103" s="63"/>
+    <row r="103" spans="1:10" ht="18.75">
+      <c r="A103" s="62"/>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
@@ -3512,12 +3509,12 @@
       </c>
       <c r="G103" s="51"/>
       <c r="H103" s="41"/>
-      <c r="J103" s="63"/>
-    </row>
-    <row r="104" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A104" s="63"/>
+      <c r="J103" s="62"/>
+    </row>
+    <row r="104" spans="1:10" ht="22.15" customHeight="1">
+      <c r="A104" s="62"/>
       <c r="B104" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C104" s="7">
         <v>2405032</v>
@@ -3533,12 +3530,12 @@
       </c>
       <c r="G104" s="51"/>
       <c r="H104" s="42"/>
-      <c r="J104" s="63"/>
-    </row>
-    <row r="105" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A105" s="63"/>
+      <c r="J104" s="62"/>
+    </row>
+    <row r="105" spans="1:10" ht="18.75">
+      <c r="A105" s="62"/>
       <c r="B105" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C105" s="7">
         <v>2400032</v>
@@ -3554,10 +3551,10 @@
       </c>
       <c r="G105" s="51"/>
       <c r="H105" s="41"/>
-      <c r="J105" s="63"/>
-    </row>
-    <row r="106" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A106" s="63"/>
+      <c r="J105" s="62"/>
+    </row>
+    <row r="106" spans="1:10" ht="18.75">
+      <c r="A106" s="62"/>
       <c r="B106" s="10" t="s">
         <v>14</v>
       </c>
@@ -3575,10 +3572,10 @@
       </c>
       <c r="G106" s="51"/>
       <c r="H106" s="41"/>
-      <c r="J106" s="63"/>
-    </row>
-    <row r="107" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A107" s="63"/>
+      <c r="J106" s="62"/>
+    </row>
+    <row r="107" spans="1:10" ht="18.75">
+      <c r="A107" s="62"/>
       <c r="B107" s="10" t="s">
         <v>31</v>
       </c>
@@ -3596,10 +3593,10 @@
       </c>
       <c r="G107" s="51"/>
       <c r="H107" s="41"/>
-      <c r="J107" s="63"/>
-    </row>
-    <row r="108" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A108" s="63"/>
+      <c r="J107" s="62"/>
+    </row>
+    <row r="108" spans="1:10" ht="18.75">
+      <c r="A108" s="62"/>
       <c r="B108" s="10" t="s">
         <v>5</v>
       </c>
@@ -3617,10 +3614,10 @@
       </c>
       <c r="G108" s="51"/>
       <c r="H108" s="41"/>
-      <c r="J108" s="63"/>
-    </row>
-    <row r="109" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A109" s="63"/>
+      <c r="J108" s="62"/>
+    </row>
+    <row r="109" spans="1:10" ht="18.75">
+      <c r="A109" s="62"/>
       <c r="B109" s="10" t="s">
         <v>19</v>
       </c>
@@ -3638,10 +3635,10 @@
       </c>
       <c r="G109" s="51"/>
       <c r="H109" s="41"/>
-      <c r="J109" s="63"/>
-    </row>
-    <row r="110" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A110" s="64"/>
+      <c r="J109" s="62"/>
+    </row>
+    <row r="110" spans="1:10" ht="18.75">
+      <c r="A110" s="63"/>
       <c r="B110" s="10" t="s">
         <v>24</v>
       </c>
@@ -3657,11 +3654,11 @@
       </c>
       <c r="G110" s="51"/>
       <c r="H110" s="41"/>
-      <c r="J110" s="64"/>
-    </row>
-    <row r="111" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A111" s="62" t="s">
-        <v>81</v>
+      <c r="J110" s="63"/>
+    </row>
+    <row r="111" spans="1:10" ht="18.75">
+      <c r="A111" s="61" t="s">
+        <v>80</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>2</v>
@@ -3683,12 +3680,12 @@
       <c r="I111">
         <v>5</v>
       </c>
-      <c r="J111" s="66">
+      <c r="J111" s="72">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A112" s="63"/>
+    <row r="112" spans="1:10" ht="18.75">
+      <c r="A112" s="62"/>
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
@@ -3706,12 +3703,12 @@
       </c>
       <c r="G112" s="51"/>
       <c r="H112" s="41"/>
-      <c r="J112" s="67"/>
-    </row>
-    <row r="113" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A113" s="63"/>
+      <c r="J112" s="73"/>
+    </row>
+    <row r="113" spans="1:10" ht="18.75">
+      <c r="A113" s="62"/>
       <c r="B113" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C113" s="7">
         <v>2401192</v>
@@ -3727,12 +3724,12 @@
       </c>
       <c r="G113" s="51"/>
       <c r="H113" s="41"/>
-      <c r="J113" s="67"/>
-    </row>
-    <row r="114" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A114" s="63"/>
+      <c r="J113" s="73"/>
+    </row>
+    <row r="114" spans="1:10" ht="18.75">
+      <c r="A114" s="62"/>
       <c r="B114" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C114" s="7">
         <v>2400032</v>
@@ -3748,10 +3745,10 @@
       </c>
       <c r="G114" s="51"/>
       <c r="H114" s="41"/>
-      <c r="J114" s="67"/>
-    </row>
-    <row r="115" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A115" s="63"/>
+      <c r="J114" s="73"/>
+    </row>
+    <row r="115" spans="1:10" ht="18.75">
+      <c r="A115" s="62"/>
       <c r="B115" s="10" t="s">
         <v>14</v>
       </c>
@@ -3769,10 +3766,10 @@
       </c>
       <c r="G115" s="51"/>
       <c r="H115" s="41"/>
-      <c r="J115" s="67"/>
-    </row>
-    <row r="116" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A116" s="63"/>
+      <c r="J115" s="73"/>
+    </row>
+    <row r="116" spans="1:10" ht="18.75">
+      <c r="A116" s="62"/>
       <c r="B116" s="10" t="s">
         <v>31</v>
       </c>
@@ -3790,10 +3787,10 @@
       </c>
       <c r="G116" s="51"/>
       <c r="H116" s="41"/>
-      <c r="J116" s="67"/>
-    </row>
-    <row r="117" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A117" s="63"/>
+      <c r="J116" s="73"/>
+    </row>
+    <row r="117" spans="1:10" ht="18.75">
+      <c r="A117" s="62"/>
       <c r="B117" s="10" t="s">
         <v>5</v>
       </c>
@@ -3811,10 +3808,10 @@
       </c>
       <c r="G117" s="51"/>
       <c r="H117" s="41"/>
-      <c r="J117" s="67"/>
-    </row>
-    <row r="118" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A118" s="63"/>
+      <c r="J117" s="73"/>
+    </row>
+    <row r="118" spans="1:10" ht="18.75">
+      <c r="A118" s="62"/>
       <c r="B118" s="10" t="s">
         <v>19</v>
       </c>
@@ -3832,10 +3829,10 @@
       </c>
       <c r="G118" s="51"/>
       <c r="H118" s="41"/>
-      <c r="J118" s="67"/>
-    </row>
-    <row r="119" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A119" s="64"/>
+      <c r="J118" s="73"/>
+    </row>
+    <row r="119" spans="1:10" ht="18.75">
+      <c r="A119" s="63"/>
       <c r="B119" s="10" t="s">
         <v>24</v>
       </c>
@@ -3851,11 +3848,11 @@
       </c>
       <c r="G119" s="51"/>
       <c r="H119" s="41"/>
-      <c r="J119" s="68"/>
-    </row>
-    <row r="120" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A120" s="62" t="s">
-        <v>88</v>
+      <c r="J119" s="74"/>
+    </row>
+    <row r="120" spans="1:10" ht="18.75">
+      <c r="A120" s="61" t="s">
+        <v>87</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>2</v>
@@ -3872,12 +3869,12 @@
       <c r="F120" s="34"/>
       <c r="G120" s="51"/>
       <c r="H120" s="41"/>
-      <c r="J120" s="62">
+      <c r="J120" s="61">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A121" s="63"/>
+    <row r="121" spans="1:10" ht="18.75">
+      <c r="A121" s="62"/>
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
@@ -3893,10 +3890,10 @@
       <c r="F121" s="34"/>
       <c r="G121" s="51"/>
       <c r="H121" s="41"/>
-      <c r="J121" s="63"/>
-    </row>
-    <row r="122" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A122" s="63"/>
+      <c r="J121" s="62"/>
+    </row>
+    <row r="122" spans="1:10" ht="18.75">
+      <c r="A122" s="62"/>
       <c r="B122" s="10" t="s">
         <v>14</v>
       </c>
@@ -3912,10 +3909,10 @@
       <c r="F122" s="34"/>
       <c r="G122" s="51"/>
       <c r="H122" s="41"/>
-      <c r="J122" s="63"/>
-    </row>
-    <row r="123" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A123" s="63"/>
+      <c r="J122" s="62"/>
+    </row>
+    <row r="123" spans="1:10" ht="18.75">
+      <c r="A123" s="62"/>
       <c r="B123" s="10" t="s">
         <v>27</v>
       </c>
@@ -3931,12 +3928,12 @@
       <c r="F123" s="34"/>
       <c r="G123" s="51"/>
       <c r="H123" s="41"/>
-      <c r="J123" s="63"/>
-    </row>
-    <row r="124" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A124" s="63"/>
+      <c r="J123" s="62"/>
+    </row>
+    <row r="124" spans="1:10" ht="18.75">
+      <c r="A124" s="62"/>
       <c r="B124" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C124" s="7">
         <v>1032101</v>
@@ -3950,10 +3947,10 @@
       <c r="F124" s="34"/>
       <c r="G124" s="51"/>
       <c r="H124" s="41"/>
-      <c r="J124" s="63"/>
-    </row>
-    <row r="125" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A125" s="63"/>
+      <c r="J124" s="62"/>
+    </row>
+    <row r="125" spans="1:10" ht="18.75">
+      <c r="A125" s="62"/>
       <c r="B125" s="10" t="s">
         <v>31</v>
       </c>
@@ -3969,12 +3966,12 @@
       <c r="F125" s="34"/>
       <c r="G125" s="51"/>
       <c r="H125" s="41"/>
-      <c r="J125" s="63"/>
-    </row>
-    <row r="126" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A126" s="63"/>
+      <c r="J125" s="62"/>
+    </row>
+    <row r="126" spans="1:10" ht="18.75">
+      <c r="A126" s="62"/>
       <c r="B126" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C126" s="7">
         <v>2715152</v>
@@ -3988,12 +3985,12 @@
       <c r="F126" s="34"/>
       <c r="G126" s="51"/>
       <c r="H126" s="41"/>
-      <c r="J126" s="63"/>
-    </row>
-    <row r="127" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A127" s="63"/>
+      <c r="J126" s="62"/>
+    </row>
+    <row r="127" spans="1:10" ht="18.75">
+      <c r="A127" s="62"/>
       <c r="B127" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C127" s="7">
         <v>2739411</v>
@@ -4007,10 +4004,10 @@
       <c r="F127" s="34"/>
       <c r="G127" s="51"/>
       <c r="H127" s="41"/>
-      <c r="J127" s="63"/>
-    </row>
-    <row r="128" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A128" s="63"/>
+      <c r="J127" s="62"/>
+    </row>
+    <row r="128" spans="1:10" ht="18.75">
+      <c r="A128" s="62"/>
       <c r="B128" s="2" t="s">
         <v>5</v>
       </c>
@@ -4026,10 +4023,10 @@
       <c r="F128" s="34"/>
       <c r="G128" s="51"/>
       <c r="H128" s="41"/>
-      <c r="J128" s="63"/>
-    </row>
-    <row r="129" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A129" s="64"/>
+      <c r="J128" s="62"/>
+    </row>
+    <row r="129" spans="1:10" ht="18.75">
+      <c r="A129" s="63"/>
       <c r="B129" s="10" t="s">
         <v>24</v>
       </c>
@@ -4043,11 +4040,11 @@
       <c r="F129" s="34"/>
       <c r="G129" s="51"/>
       <c r="H129" s="41"/>
-      <c r="J129" s="64"/>
-    </row>
-    <row r="130" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A130" s="54" t="s">
-        <v>82</v>
+      <c r="J129" s="63"/>
+    </row>
+    <row r="130" spans="1:10" ht="18.75">
+      <c r="A130" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>2</v>
@@ -4067,14 +4064,14 @@
       <c r="G130" s="51"/>
       <c r="H130" s="41"/>
       <c r="I130" t="s">
-        <v>83</v>
-      </c>
-      <c r="J130" s="54">
+        <v>82</v>
+      </c>
+      <c r="J130" s="65">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A131" s="55"/>
+    <row r="131" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A131" s="66"/>
       <c r="B131" s="10" t="s">
         <v>3</v>
       </c>
@@ -4092,12 +4089,12 @@
       </c>
       <c r="G131" s="51"/>
       <c r="H131" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="J131" s="55"/>
-    </row>
-    <row r="132" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A132" s="55"/>
+        <v>62</v>
+      </c>
+      <c r="J131" s="66"/>
+    </row>
+    <row r="132" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A132" s="66"/>
       <c r="B132" s="10" t="s">
         <v>14</v>
       </c>
@@ -4115,10 +4112,10 @@
       </c>
       <c r="G132" s="51"/>
       <c r="H132" s="41"/>
-      <c r="J132" s="55"/>
-    </row>
-    <row r="133" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A133" s="55"/>
+      <c r="J132" s="66"/>
+    </row>
+    <row r="133" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A133" s="66"/>
       <c r="B133" s="10" t="s">
         <v>27</v>
       </c>
@@ -4136,10 +4133,10 @@
       </c>
       <c r="G133" s="51"/>
       <c r="H133" s="41"/>
-      <c r="J133" s="55"/>
-    </row>
-    <row r="134" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A134" s="55"/>
+      <c r="J133" s="66"/>
+    </row>
+    <row r="134" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A134" s="66"/>
       <c r="B134" s="10" t="s">
         <v>12</v>
       </c>
@@ -4157,12 +4154,12 @@
       </c>
       <c r="G134" s="51"/>
       <c r="H134" s="41"/>
-      <c r="J134" s="55"/>
-    </row>
-    <row r="135" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="55"/>
+      <c r="J134" s="66"/>
+    </row>
+    <row r="135" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A135" s="66"/>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C135" s="1">
         <v>3912231</v>
@@ -4178,12 +4175,12 @@
       </c>
       <c r="G135" s="51"/>
       <c r="H135" s="41"/>
-      <c r="J135" s="55"/>
-    </row>
-    <row r="136" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="55"/>
+      <c r="J135" s="66"/>
+    </row>
+    <row r="136" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A136" s="66"/>
       <c r="B136" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C136" s="7">
         <v>3912113</v>
@@ -4199,12 +4196,12 @@
       </c>
       <c r="G136" s="51"/>
       <c r="H136" s="41"/>
-      <c r="J136" s="55"/>
-    </row>
-    <row r="137" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A137" s="55"/>
+      <c r="J136" s="66"/>
+    </row>
+    <row r="137" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A137" s="66"/>
       <c r="B137" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C137" s="7">
         <v>1032101</v>
@@ -4220,10 +4217,10 @@
       </c>
       <c r="G137" s="51"/>
       <c r="H137" s="41"/>
-      <c r="J137" s="55"/>
-    </row>
-    <row r="138" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A138" s="55"/>
+      <c r="J137" s="66"/>
+    </row>
+    <row r="138" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A138" s="66"/>
       <c r="B138" s="10" t="s">
         <v>31</v>
       </c>
@@ -4241,10 +4238,10 @@
       </c>
       <c r="G138" s="51"/>
       <c r="H138" s="41"/>
-      <c r="J138" s="55"/>
-    </row>
-    <row r="139" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A139" s="56"/>
+      <c r="J138" s="66"/>
+    </row>
+    <row r="139" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A139" s="67"/>
       <c r="B139" s="10" t="s">
         <v>24</v>
       </c>
@@ -4260,11 +4257,11 @@
       </c>
       <c r="G139" s="51"/>
       <c r="H139" s="41"/>
-      <c r="J139" s="56"/>
-    </row>
-    <row r="140" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A140" s="54" t="s">
-        <v>89</v>
+      <c r="J139" s="67"/>
+    </row>
+    <row r="140" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A140" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>2</v>
@@ -4283,17 +4280,17 @@
       </c>
       <c r="G140" s="51"/>
       <c r="H140" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I140" t="s">
-        <v>84</v>
-      </c>
-      <c r="J140" s="54">
+        <v>83</v>
+      </c>
+      <c r="J140" s="65">
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A141" s="55"/>
+    <row r="141" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A141" s="66"/>
       <c r="B141" s="10" t="s">
         <v>3</v>
       </c>
@@ -4311,10 +4308,10 @@
       </c>
       <c r="G141" s="51"/>
       <c r="H141" s="41"/>
-      <c r="J141" s="55"/>
-    </row>
-    <row r="142" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A142" s="55"/>
+      <c r="J141" s="66"/>
+    </row>
+    <row r="142" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A142" s="66"/>
       <c r="B142" s="10" t="s">
         <v>14</v>
       </c>
@@ -4332,10 +4329,10 @@
       </c>
       <c r="G142" s="51"/>
       <c r="H142" s="41"/>
-      <c r="J142" s="55"/>
-    </row>
-    <row r="143" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A143" s="55"/>
+      <c r="J142" s="66"/>
+    </row>
+    <row r="143" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A143" s="66"/>
       <c r="B143" s="10" t="s">
         <v>27</v>
       </c>
@@ -4353,10 +4350,10 @@
       </c>
       <c r="G143" s="51"/>
       <c r="H143" s="41"/>
-      <c r="J143" s="55"/>
-    </row>
-    <row r="144" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A144" s="55"/>
+      <c r="J143" s="66"/>
+    </row>
+    <row r="144" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A144" s="66"/>
       <c r="B144" s="10" t="s">
         <v>12</v>
       </c>
@@ -4374,12 +4371,12 @@
       </c>
       <c r="G144" s="51"/>
       <c r="H144" s="41"/>
-      <c r="J144" s="55"/>
-    </row>
-    <row r="145" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A145" s="55"/>
+      <c r="J144" s="66"/>
+    </row>
+    <row r="145" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A145" s="66"/>
       <c r="B145" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C145" s="1">
         <v>3912231</v>
@@ -4395,12 +4392,12 @@
       </c>
       <c r="G145" s="51"/>
       <c r="H145" s="41"/>
-      <c r="J145" s="55"/>
-    </row>
-    <row r="146" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A146" s="55"/>
+      <c r="J145" s="66"/>
+    </row>
+    <row r="146" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A146" s="66"/>
       <c r="B146" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C146" s="7">
         <v>1032101</v>
@@ -4416,10 +4413,10 @@
       </c>
       <c r="G146" s="51"/>
       <c r="H146" s="41"/>
-      <c r="J146" s="55"/>
-    </row>
-    <row r="147" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A147" s="55"/>
+      <c r="J146" s="66"/>
+    </row>
+    <row r="147" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A147" s="66"/>
       <c r="B147" s="10" t="s">
         <v>13</v>
       </c>
@@ -4437,10 +4434,10 @@
       </c>
       <c r="G147" s="51"/>
       <c r="H147" s="41"/>
-      <c r="J147" s="55"/>
-    </row>
-    <row r="148" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A148" s="55"/>
+      <c r="J147" s="66"/>
+    </row>
+    <row r="148" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A148" s="66"/>
       <c r="B148" s="10" t="s">
         <v>5</v>
       </c>
@@ -4458,10 +4455,10 @@
       </c>
       <c r="G148" s="51"/>
       <c r="H148" s="41"/>
-      <c r="J148" s="55"/>
-    </row>
-    <row r="149" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A149" s="55"/>
+      <c r="J148" s="66"/>
+    </row>
+    <row r="149" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A149" s="66"/>
       <c r="B149" s="10" t="s">
         <v>31</v>
       </c>
@@ -4479,10 +4476,10 @@
       </c>
       <c r="G149" s="51"/>
       <c r="H149" s="41"/>
-      <c r="J149" s="55"/>
-    </row>
-    <row r="150" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A150" s="56"/>
+      <c r="J149" s="66"/>
+    </row>
+    <row r="150" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A150" s="67"/>
       <c r="B150" s="10" t="s">
         <v>24</v>
       </c>
@@ -4498,11 +4495,11 @@
       </c>
       <c r="G150" s="51"/>
       <c r="H150" s="41"/>
-      <c r="J150" s="56"/>
-    </row>
-    <row r="151" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A151" s="54" t="s">
-        <v>58</v>
+      <c r="J150" s="67"/>
+    </row>
+    <row r="151" spans="1:10" ht="18.75">
+      <c r="A151" s="65" t="s">
+        <v>57</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>2</v>
@@ -4519,12 +4516,12 @@
       <c r="F151" s="34"/>
       <c r="G151" s="51"/>
       <c r="H151" s="41"/>
-      <c r="J151" s="54">
+      <c r="J151" s="65">
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A152" s="55"/>
+    <row r="152" spans="1:10" ht="18.75">
+      <c r="A152" s="66"/>
       <c r="B152" s="10" t="s">
         <v>3</v>
       </c>
@@ -4540,10 +4537,10 @@
       <c r="F152" s="34"/>
       <c r="G152" s="51"/>
       <c r="H152" s="41"/>
-      <c r="J152" s="55"/>
-    </row>
-    <row r="153" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A153" s="55"/>
+      <c r="J152" s="66"/>
+    </row>
+    <row r="153" spans="1:10" ht="18.75">
+      <c r="A153" s="66"/>
       <c r="B153" s="10" t="s">
         <v>27</v>
       </c>
@@ -4559,10 +4556,10 @@
       <c r="F153" s="34"/>
       <c r="G153" s="51"/>
       <c r="H153" s="41"/>
-      <c r="J153" s="55"/>
-    </row>
-    <row r="154" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A154" s="55"/>
+      <c r="J153" s="66"/>
+    </row>
+    <row r="154" spans="1:10" ht="18.75">
+      <c r="A154" s="66"/>
       <c r="B154" s="2" t="s">
         <v>13</v>
       </c>
@@ -4578,10 +4575,10 @@
       <c r="F154" s="34"/>
       <c r="G154" s="51"/>
       <c r="H154" s="41"/>
-      <c r="J154" s="55"/>
-    </row>
-    <row r="155" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A155" s="55"/>
+      <c r="J154" s="66"/>
+    </row>
+    <row r="155" spans="1:10" ht="18.75">
+      <c r="A155" s="66"/>
       <c r="B155" s="10" t="s">
         <v>31</v>
       </c>
@@ -4597,10 +4594,10 @@
       <c r="F155" s="34"/>
       <c r="G155" s="51"/>
       <c r="H155" s="41"/>
-      <c r="J155" s="55"/>
-    </row>
-    <row r="156" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A156" s="55"/>
+      <c r="J155" s="66"/>
+    </row>
+    <row r="156" spans="1:10" ht="18.75">
+      <c r="A156" s="66"/>
       <c r="B156" s="10" t="s">
         <v>19</v>
       </c>
@@ -4616,10 +4613,10 @@
       <c r="F156" s="34"/>
       <c r="G156" s="51"/>
       <c r="H156" s="41"/>
-      <c r="J156" s="55"/>
-    </row>
-    <row r="157" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A157" s="56"/>
+      <c r="J156" s="66"/>
+    </row>
+    <row r="157" spans="1:10" ht="18.75">
+      <c r="A157" s="67"/>
       <c r="B157" s="10" t="s">
         <v>24</v>
       </c>
@@ -4633,11 +4630,11 @@
       <c r="F157" s="34"/>
       <c r="G157" s="51"/>
       <c r="H157" s="41"/>
-      <c r="J157" s="56"/>
-    </row>
-    <row r="158" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A158" s="57" t="s">
-        <v>85</v>
+      <c r="J157" s="67"/>
+    </row>
+    <row r="158" spans="1:10" ht="18.75">
+      <c r="A158" s="68" t="s">
+        <v>84</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>2</v>
@@ -4659,12 +4656,12 @@
       <c r="I158">
         <v>5</v>
       </c>
-      <c r="J158" s="57">
+      <c r="J158" s="68">
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A159" s="58"/>
+    <row r="159" spans="1:10" ht="18.75">
+      <c r="A159" s="69"/>
       <c r="B159" s="10" t="s">
         <v>3</v>
       </c>
@@ -4682,10 +4679,10 @@
       </c>
       <c r="G159" s="51"/>
       <c r="H159" s="41"/>
-      <c r="J159" s="58"/>
-    </row>
-    <row r="160" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A160" s="58"/>
+      <c r="J159" s="69"/>
+    </row>
+    <row r="160" spans="1:10" ht="18.75">
+      <c r="A160" s="69"/>
       <c r="B160" s="10" t="s">
         <v>27</v>
       </c>
@@ -4703,12 +4700,12 @@
       </c>
       <c r="G160" s="51"/>
       <c r="H160" s="41"/>
-      <c r="J160" s="58"/>
-    </row>
-    <row r="161" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A161" s="58"/>
+      <c r="J160" s="69"/>
+    </row>
+    <row r="161" spans="1:10" ht="18.75">
+      <c r="A161" s="69"/>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C161" s="1">
         <v>3221713</v>
@@ -4724,10 +4721,10 @@
       </c>
       <c r="G161" s="51"/>
       <c r="H161" s="41"/>
-      <c r="J161" s="58"/>
-    </row>
-    <row r="162" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A162" s="58"/>
+      <c r="J161" s="69"/>
+    </row>
+    <row r="162" spans="1:10" ht="18.75">
+      <c r="A162" s="69"/>
       <c r="B162" s="10" t="s">
         <v>12</v>
       </c>
@@ -4745,12 +4742,12 @@
       </c>
       <c r="G162" s="51"/>
       <c r="H162" s="41"/>
-      <c r="J162" s="58"/>
-    </row>
-    <row r="163" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A163" s="58"/>
+      <c r="J162" s="69"/>
+    </row>
+    <row r="163" spans="1:10" ht="18.75">
+      <c r="A163" s="69"/>
       <c r="B163" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C163" s="7">
         <v>1032101</v>
@@ -4766,10 +4763,10 @@
       </c>
       <c r="G163" s="51"/>
       <c r="H163" s="41"/>
-      <c r="J163" s="58"/>
-    </row>
-    <row r="164" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A164" s="58"/>
+      <c r="J163" s="69"/>
+    </row>
+    <row r="164" spans="1:10" ht="18.75">
+      <c r="A164" s="69"/>
       <c r="B164" s="10" t="s">
         <v>5</v>
       </c>
@@ -4787,10 +4784,10 @@
       </c>
       <c r="G164" s="51"/>
       <c r="H164" s="41"/>
-      <c r="J164" s="58"/>
-    </row>
-    <row r="165" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A165" s="59"/>
+      <c r="J164" s="69"/>
+    </row>
+    <row r="165" spans="1:10" ht="18.75">
+      <c r="A165" s="70"/>
       <c r="B165" s="10" t="s">
         <v>24</v>
       </c>
@@ -4806,11 +4803,11 @@
       </c>
       <c r="G165" s="51"/>
       <c r="H165" s="41"/>
-      <c r="J165" s="59"/>
-    </row>
-    <row r="166" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A166" s="60" t="s">
-        <v>55</v>
+      <c r="J165" s="70"/>
+    </row>
+    <row r="166" spans="1:10" ht="18.75">
+      <c r="A166" s="59" t="s">
+        <v>54</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>2</v>
@@ -4829,12 +4826,12 @@
       </c>
       <c r="G166" s="51"/>
       <c r="H166" s="41"/>
-      <c r="J166" s="60">
+      <c r="J166" s="59">
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A167" s="61"/>
+    <row r="167" spans="1:10" ht="18.75">
+      <c r="A167" s="60"/>
       <c r="B167" s="10" t="s">
         <v>3</v>
       </c>
@@ -4852,10 +4849,10 @@
       </c>
       <c r="G167" s="51"/>
       <c r="H167" s="41"/>
-      <c r="J167" s="61"/>
-    </row>
-    <row r="168" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A168" s="61"/>
+      <c r="J167" s="60"/>
+    </row>
+    <row r="168" spans="1:10" ht="18.75">
+      <c r="A168" s="60"/>
       <c r="B168" s="2" t="s">
         <v>27</v>
       </c>
@@ -4873,10 +4870,10 @@
       </c>
       <c r="G168" s="51"/>
       <c r="H168" s="41"/>
-      <c r="J168" s="61"/>
-    </row>
-    <row r="169" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A169" s="61"/>
+      <c r="J168" s="60"/>
+    </row>
+    <row r="169" spans="1:10" ht="18.75">
+      <c r="A169" s="60"/>
       <c r="B169" s="10" t="s">
         <v>14</v>
       </c>
@@ -4894,12 +4891,12 @@
       </c>
       <c r="G169" s="51"/>
       <c r="H169" s="41"/>
-      <c r="J169" s="61"/>
-    </row>
-    <row r="170" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A170" s="61"/>
+      <c r="J169" s="60"/>
+    </row>
+    <row r="170" spans="1:10" ht="18.75">
+      <c r="A170" s="60"/>
       <c r="B170" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C170" s="7">
         <v>3413032</v>
@@ -4915,12 +4912,12 @@
       </c>
       <c r="G170" s="51"/>
       <c r="H170" s="41"/>
-      <c r="J170" s="61"/>
-    </row>
-    <row r="171" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A171" s="61"/>
+      <c r="J170" s="60"/>
+    </row>
+    <row r="171" spans="1:10" ht="18.75">
+      <c r="A171" s="60"/>
       <c r="B171" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C171" s="7">
         <v>3413013</v>
@@ -4936,10 +4933,10 @@
       </c>
       <c r="G171" s="51"/>
       <c r="H171" s="41"/>
-      <c r="J171" s="61"/>
-    </row>
-    <row r="172" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A172" s="61"/>
+      <c r="J171" s="60"/>
+    </row>
+    <row r="172" spans="1:10" ht="18.75">
+      <c r="A172" s="60"/>
       <c r="B172" s="10" t="s">
         <v>31</v>
       </c>
@@ -4957,10 +4954,10 @@
       </c>
       <c r="G172" s="51"/>
       <c r="H172" s="41"/>
-      <c r="J172" s="61"/>
-    </row>
-    <row r="173" spans="1:10" ht="18.3" x14ac:dyDescent="1.05">
-      <c r="A173" s="61"/>
+      <c r="J172" s="60"/>
+    </row>
+    <row r="173" spans="1:10" ht="18.75">
+      <c r="A173" s="60"/>
       <c r="B173" s="10" t="s">
         <v>24</v>
       </c>
@@ -4976,10 +4973,37 @@
       </c>
       <c r="G173" s="34"/>
       <c r="H173" s="43"/>
-      <c r="J173" s="61"/>
+      <c r="J173" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="J140:J150"/>
+    <mergeCell ref="J151:J157"/>
+    <mergeCell ref="J158:J165"/>
+    <mergeCell ref="J166:J173"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="J86:J93"/>
+    <mergeCell ref="J94:J101"/>
+    <mergeCell ref="J102:J110"/>
+    <mergeCell ref="J120:J129"/>
+    <mergeCell ref="J130:J139"/>
+    <mergeCell ref="J111:J119"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="J52:J60"/>
+    <mergeCell ref="J61:J69"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="J78:J85"/>
+    <mergeCell ref="J1:J8"/>
+    <mergeCell ref="J9:J17"/>
+    <mergeCell ref="J18:J26"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="J36:J43"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A18:A26"/>
     <mergeCell ref="A52:A60"/>
     <mergeCell ref="A70:A77"/>
     <mergeCell ref="H61:H62"/>
@@ -4994,33 +5018,6 @@
     <mergeCell ref="A140:A150"/>
     <mergeCell ref="A86:A93"/>
     <mergeCell ref="A78:A85"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="J1:J8"/>
-    <mergeCell ref="J9:J17"/>
-    <mergeCell ref="J18:J26"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="J36:J43"/>
-    <mergeCell ref="J44:J51"/>
-    <mergeCell ref="J52:J60"/>
-    <mergeCell ref="J61:J69"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="J78:J85"/>
-    <mergeCell ref="J86:J93"/>
-    <mergeCell ref="J94:J101"/>
-    <mergeCell ref="J102:J110"/>
-    <mergeCell ref="J120:J129"/>
-    <mergeCell ref="J130:J139"/>
-    <mergeCell ref="J111:J119"/>
-    <mergeCell ref="J140:J150"/>
-    <mergeCell ref="J151:J157"/>
-    <mergeCell ref="J158:J165"/>
-    <mergeCell ref="J166:J173"/>
-    <mergeCell ref="A111:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
